--- a/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/Assets/Data/Excel/excel_ui_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1131">
   <si>
     <t>id</t>
   </si>
@@ -2234,6 +2234,12 @@
   </si>
   <si>
     <t>Toast_Birth_Child</t>
+  </si>
+  <si>
+    <t>您被不可思议的力量阻挡了去路（暂未开放）</t>
+  </si>
+  <si>
+    <t>Toast_NO_in</t>
   </si>
   <si>
     <t>开发中（会有的~）</t>
@@ -4368,10 +4374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D570"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="B361" sqref="B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9577,7 +9583,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>1999</v>
+        <v>1361</v>
       </c>
       <c r="B372" t="s">
         <v>740</v>
@@ -9591,41 +9597,41 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B373" t="s">
-        <v>151</v>
+        <v>742</v>
       </c>
       <c r="C373" t="s">
-        <v>151</v>
+        <v>742</v>
       </c>
       <c r="D373" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B374" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C374" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D374" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B375" t="s">
-        <v>744</v>
+        <v>153</v>
       </c>
       <c r="C375" t="s">
-        <v>744</v>
+        <v>153</v>
       </c>
       <c r="D375" t="s">
         <v>745</v>
@@ -9633,7 +9639,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B376" t="s">
         <v>746</v>
@@ -9647,7 +9653,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B377" t="s">
         <v>748</v>
@@ -9661,7 +9667,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B378" t="s">
         <v>750</v>
@@ -9675,7 +9681,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B379" t="s">
         <v>752</v>
@@ -9689,7 +9695,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B380" t="s">
         <v>754</v>
@@ -9703,7 +9709,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B381" t="s">
         <v>756</v>
@@ -9717,7 +9723,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B382" t="s">
         <v>758</v>
@@ -9731,7 +9737,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B383" t="s">
         <v>760</v>
@@ -9745,7 +9751,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B384" t="s">
         <v>762</v>
@@ -9759,7 +9765,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B385" t="s">
         <v>764</v>
@@ -9773,7 +9779,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B386" t="s">
         <v>766</v>
@@ -9787,7 +9793,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B387" t="s">
         <v>768</v>
@@ -9801,7 +9807,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B388" t="s">
         <v>770</v>
@@ -9815,7 +9821,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="B389" t="s">
         <v>772</v>
@@ -9829,7 +9835,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B390" t="s">
         <v>774</v>
@@ -9843,7 +9849,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B391" t="s">
         <v>776</v>
@@ -9857,7 +9863,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B392" t="s">
         <v>778</v>
@@ -9871,7 +9877,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B393" t="s">
         <v>780</v>
@@ -9885,7 +9891,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B394" t="s">
         <v>782</v>
@@ -9899,7 +9905,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B395" t="s">
         <v>784</v>
@@ -9913,7 +9919,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B396" t="s">
         <v>786</v>
@@ -9927,7 +9933,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B397" t="s">
         <v>788</v>
@@ -9941,7 +9947,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B398" t="s">
         <v>790</v>
@@ -9955,7 +9961,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B399" t="s">
         <v>792</v>
@@ -9969,7 +9975,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B400" t="s">
         <v>794</v>
@@ -9983,7 +9989,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>3001</v>
+        <v>2042</v>
       </c>
       <c r="B401" t="s">
         <v>796</v>
@@ -9997,7 +10003,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B402" t="s">
         <v>798</v>
@@ -10011,7 +10017,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B403" t="s">
         <v>800</v>
@@ -10025,7 +10031,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B404" t="s">
         <v>802</v>
@@ -10039,7 +10045,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B405" t="s">
         <v>804</v>
@@ -10053,7 +10059,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B406" t="s">
         <v>806</v>
@@ -10067,7 +10073,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B407" t="s">
         <v>808</v>
@@ -10081,7 +10087,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B408" t="s">
         <v>810</v>
@@ -10095,7 +10101,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B409" t="s">
         <v>812</v>
@@ -10109,7 +10115,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B410" t="s">
         <v>814</v>
@@ -10123,7 +10129,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B411" t="s">
         <v>816</v>
@@ -10137,7 +10143,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B412" t="s">
         <v>818</v>
@@ -10151,7 +10157,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B413" t="s">
         <v>820</v>
@@ -10165,7 +10171,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B414" t="s">
         <v>822</v>
@@ -10179,7 +10185,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B415" t="s">
         <v>824</v>
@@ -10193,7 +10199,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>3021</v>
+        <v>3015</v>
       </c>
       <c r="B416" t="s">
         <v>826</v>
@@ -10207,7 +10213,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B417" t="s">
         <v>828</v>
@@ -10221,7 +10227,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>3041</v>
+        <v>3022</v>
       </c>
       <c r="B418" t="s">
         <v>830</v>
@@ -10235,7 +10241,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="B419" t="s">
         <v>832</v>
@@ -10249,7 +10255,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>3061</v>
+        <v>3051</v>
       </c>
       <c r="B420" t="s">
         <v>834</v>
@@ -10263,7 +10269,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B421" t="s">
         <v>836</v>
@@ -10277,7 +10283,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B422" t="s">
         <v>838</v>
@@ -10291,7 +10297,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>3071</v>
+        <v>3063</v>
       </c>
       <c r="B423" t="s">
         <v>840</v>
@@ -10305,7 +10311,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="B424" t="s">
         <v>842</v>
@@ -10319,7 +10325,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>3081</v>
+        <v>3072</v>
       </c>
       <c r="B425" t="s">
         <v>844</v>
@@ -10333,7 +10339,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="B426" t="s">
         <v>846</v>
@@ -10347,7 +10353,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B427" t="s">
         <v>848</v>
@@ -10361,7 +10367,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>3091</v>
+        <v>3083</v>
       </c>
       <c r="B428" t="s">
         <v>850</v>
@@ -10375,7 +10381,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="B429" t="s">
         <v>852</v>
@@ -10389,7 +10395,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B430" t="s">
         <v>854</v>
@@ -10403,7 +10409,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B431" t="s">
         <v>856</v>
@@ -10417,7 +10423,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B432" t="s">
         <v>858</v>
@@ -10431,7 +10437,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>3111</v>
+        <v>3104</v>
       </c>
       <c r="B433" t="s">
         <v>860</v>
@@ -10445,7 +10451,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B434" t="s">
         <v>862</v>
@@ -10459,7 +10465,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>3121</v>
+        <v>3112</v>
       </c>
       <c r="B435" t="s">
         <v>864</v>
@@ -10473,7 +10479,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>4001</v>
+        <v>3121</v>
       </c>
       <c r="B436" t="s">
         <v>866</v>
@@ -10487,7 +10493,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B437" t="s">
         <v>868</v>
@@ -10501,7 +10507,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B438" t="s">
         <v>870</v>
@@ -10515,7 +10521,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>4011</v>
+        <v>4003</v>
       </c>
       <c r="B439" t="s">
         <v>872</v>
@@ -10529,7 +10535,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B440" t="s">
         <v>874</v>
@@ -10543,7 +10549,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B441" t="s">
         <v>876</v>
@@ -10557,7 +10563,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B442" t="s">
         <v>878</v>
@@ -10571,7 +10577,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="B443" t="s">
         <v>880</v>
@@ -10585,7 +10591,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>5001</v>
+        <v>4015</v>
       </c>
       <c r="B444" t="s">
         <v>882</v>
@@ -10599,7 +10605,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B445" t="s">
         <v>884</v>
@@ -10613,7 +10619,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B446" t="s">
         <v>886</v>
@@ -10627,7 +10633,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B447" t="s">
         <v>888</v>
@@ -10641,7 +10647,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B448" t="s">
         <v>890</v>
@@ -10655,7 +10661,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B449" t="s">
         <v>892</v>
@@ -10669,7 +10675,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B450" t="s">
         <v>894</v>
@@ -10683,7 +10689,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B451" t="s">
         <v>896</v>
@@ -10697,7 +10703,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B452" t="s">
         <v>898</v>
@@ -10711,7 +10717,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B453" t="s">
         <v>900</v>
@@ -10725,7 +10731,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="B454" t="s">
         <v>902</v>
@@ -10739,7 +10745,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="B455" t="s">
         <v>904</v>
@@ -10753,7 +10759,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="B456" t="s">
         <v>906</v>
@@ -10767,7 +10773,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>5014</v>
+        <v>5013</v>
       </c>
       <c r="B457" t="s">
         <v>908</v>
@@ -10781,7 +10787,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="B458" t="s">
         <v>910</v>
@@ -10795,7 +10801,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="B459" t="s">
         <v>912</v>
@@ -10809,7 +10815,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>5021</v>
+        <v>5016</v>
       </c>
       <c r="B460" t="s">
         <v>914</v>
@@ -10823,7 +10829,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="B461" t="s">
         <v>916</v>
@@ -10837,7 +10843,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="B462" t="s">
         <v>918</v>
@@ -10851,7 +10857,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>5031</v>
+        <v>5023</v>
       </c>
       <c r="B463" t="s">
         <v>920</v>
@@ -10865,7 +10871,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>5041</v>
+        <v>5031</v>
       </c>
       <c r="B464" t="s">
         <v>922</v>
@@ -10879,7 +10885,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B465" t="s">
         <v>924</v>
@@ -10893,7 +10899,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="B466" t="s">
         <v>926</v>
@@ -10907,7 +10913,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="B467" t="s">
         <v>928</v>
@@ -10921,7 +10927,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>5051</v>
+        <v>5044</v>
       </c>
       <c r="B468" t="s">
         <v>930</v>
@@ -10935,7 +10941,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="B469" t="s">
         <v>932</v>
@@ -10949,55 +10955,55 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="B470" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C470" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D470" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="B471" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C471" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D471" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="B472" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C472" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D472" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="B473" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C473" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D473" t="s">
         <v>938</v>
@@ -11005,7 +11011,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="B474" t="s">
         <v>939</v>
@@ -11019,7 +11025,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>5061</v>
+        <v>5057</v>
       </c>
       <c r="B475" t="s">
         <v>941</v>
@@ -11033,7 +11039,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="B476" t="s">
         <v>943</v>
@@ -11047,7 +11053,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="B477" t="s">
         <v>945</v>
@@ -11061,7 +11067,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="B478" t="s">
         <v>947</v>
@@ -11075,7 +11081,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="B479" t="s">
         <v>949</v>
@@ -11089,7 +11095,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="B480" t="s">
         <v>951</v>
@@ -11103,7 +11109,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="B481" t="s">
         <v>953</v>
@@ -11117,7 +11123,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="B482" t="s">
         <v>955</v>
@@ -11131,7 +11137,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>5071</v>
+        <v>5068</v>
       </c>
       <c r="B483" t="s">
         <v>957</v>
@@ -11145,7 +11151,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="B484" t="s">
         <v>959</v>
@@ -11159,7 +11165,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="B485" t="s">
         <v>961</v>
@@ -11173,7 +11179,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="B486" t="s">
         <v>963</v>
@@ -11187,7 +11193,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>5081</v>
+        <v>5074</v>
       </c>
       <c r="B487" t="s">
         <v>965</v>
@@ -11201,7 +11207,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>5091</v>
+        <v>5081</v>
       </c>
       <c r="B488" t="s">
         <v>967</v>
@@ -11215,7 +11221,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="B489" t="s">
         <v>969</v>
@@ -11229,27 +11235,27 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>5101</v>
+        <v>5092</v>
       </c>
       <c r="B490" t="s">
-        <v>744</v>
+        <v>971</v>
       </c>
       <c r="C490" t="s">
-        <v>744</v>
+        <v>971</v>
       </c>
       <c r="D490" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B491" t="s">
-        <v>972</v>
+        <v>746</v>
       </c>
       <c r="C491" t="s">
-        <v>972</v>
+        <v>746</v>
       </c>
       <c r="D491" t="s">
         <v>973</v>
@@ -11257,7 +11263,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>5111</v>
+        <v>5102</v>
       </c>
       <c r="B492" t="s">
         <v>974</v>
@@ -11271,7 +11277,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="B493" t="s">
         <v>976</v>
@@ -11285,7 +11291,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>5201</v>
+        <v>5112</v>
       </c>
       <c r="B494" t="s">
         <v>978</v>
@@ -11299,7 +11305,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B495" t="s">
         <v>980</v>
@@ -11313,7 +11319,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B496" t="s">
         <v>982</v>
@@ -11327,7 +11333,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B497" t="s">
         <v>984</v>
@@ -11341,7 +11347,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B498" t="s">
         <v>986</v>
@@ -11355,7 +11361,7 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B499" t="s">
         <v>988</v>
@@ -11369,7 +11375,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B500" t="s">
         <v>990</v>
@@ -11383,7 +11389,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B501" t="s">
         <v>992</v>
@@ -11397,7 +11403,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B502" t="s">
         <v>994</v>
@@ -11411,7 +11417,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>5210</v>
+        <v>5209</v>
       </c>
       <c r="B503" t="s">
         <v>996</v>
@@ -11425,7 +11431,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>5221</v>
+        <v>5210</v>
       </c>
       <c r="B504" t="s">
         <v>998</v>
@@ -11439,7 +11445,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="B505" t="s">
         <v>1000</v>
@@ -11453,7 +11459,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506">
-        <v>6001</v>
+        <v>5222</v>
       </c>
       <c r="B506" t="s">
         <v>1002</v>
@@ -11467,7 +11473,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B507" t="s">
         <v>1004</v>
@@ -11481,7 +11487,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B508" t="s">
         <v>1006</v>
@@ -11495,7 +11501,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B509" t="s">
         <v>1008</v>
@@ -11509,7 +11515,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B510" t="s">
         <v>1010</v>
@@ -11523,7 +11529,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="B511" t="s">
         <v>1012</v>
@@ -11537,7 +11543,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="B512" t="s">
         <v>1014</v>
@@ -11551,7 +11557,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B513" t="s">
         <v>1016</v>
@@ -11565,7 +11571,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="B514" t="s">
         <v>1018</v>
@@ -11579,7 +11585,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="B515" t="s">
         <v>1020</v>
@@ -11593,7 +11599,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="B516" t="s">
         <v>1022</v>
@@ -11607,7 +11613,7 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="B517" t="s">
         <v>1024</v>
@@ -11621,7 +11627,7 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518">
-        <v>6013</v>
+        <v>6012</v>
       </c>
       <c r="B518" t="s">
         <v>1026</v>
@@ -11635,7 +11641,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="B519" t="s">
         <v>1028</v>
@@ -11649,7 +11655,7 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520">
-        <v>6021</v>
+        <v>6014</v>
       </c>
       <c r="B520" t="s">
         <v>1030</v>
@@ -11663,7 +11669,7 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521">
-        <v>6099</v>
+        <v>6021</v>
       </c>
       <c r="B521" t="s">
         <v>1032</v>
@@ -11677,7 +11683,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522">
-        <v>6101</v>
+        <v>6099</v>
       </c>
       <c r="B522" t="s">
         <v>1034</v>
@@ -11691,7 +11697,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523">
-        <v>7001</v>
+        <v>6101</v>
       </c>
       <c r="B523" t="s">
         <v>1036</v>
@@ -11705,7 +11711,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B524" t="s">
         <v>1038</v>
@@ -11719,7 +11725,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B525" t="s">
         <v>1040</v>
@@ -11733,7 +11739,7 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B526" t="s">
         <v>1042</v>
@@ -11747,7 +11753,7 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="B527" t="s">
         <v>1044</v>
@@ -11761,7 +11767,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528">
-        <v>7011</v>
+        <v>7005</v>
       </c>
       <c r="B528" t="s">
         <v>1046</v>
@@ -11775,7 +11781,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529">
-        <v>7012</v>
+        <v>7011</v>
       </c>
       <c r="B529" t="s">
         <v>1048</v>
@@ -11789,27 +11795,27 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530">
-        <v>7021</v>
+        <v>7012</v>
       </c>
       <c r="B530" t="s">
-        <v>94</v>
+        <v>1050</v>
       </c>
       <c r="C530" t="s">
-        <v>94</v>
+        <v>1050</v>
       </c>
       <c r="D530" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B531" t="s">
-        <v>1051</v>
+        <v>94</v>
       </c>
       <c r="C531" t="s">
-        <v>1051</v>
+        <v>94</v>
       </c>
       <c r="D531" t="s">
         <v>1052</v>
@@ -11817,7 +11823,7 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532">
-        <v>7031</v>
+        <v>7022</v>
       </c>
       <c r="B532" t="s">
         <v>1053</v>
@@ -11831,7 +11837,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="B533" t="s">
         <v>1055</v>
@@ -11845,7 +11851,7 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534">
-        <v>8001</v>
+        <v>7032</v>
       </c>
       <c r="B534" t="s">
         <v>1057</v>
@@ -11859,7 +11865,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535">
-        <v>8011</v>
+        <v>8001</v>
       </c>
       <c r="B535" t="s">
         <v>1059</v>
@@ -11873,7 +11879,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536">
-        <v>11002</v>
+        <v>8011</v>
       </c>
       <c r="B536" t="s">
         <v>1061</v>
@@ -11887,7 +11893,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B537" t="s">
         <v>1063</v>
@@ -11901,7 +11907,7 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538">
-        <v>11206</v>
+        <v>11003</v>
       </c>
       <c r="B538" t="s">
         <v>1065</v>
@@ -11915,7 +11921,7 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539">
-        <v>12001</v>
+        <v>11206</v>
       </c>
       <c r="B539" t="s">
         <v>1067</v>
@@ -11929,7 +11935,7 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="B540" t="s">
         <v>1069</v>
@@ -11943,7 +11949,7 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="B541" t="s">
         <v>1071</v>
@@ -11957,7 +11963,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542">
-        <v>13001</v>
+        <v>12003</v>
       </c>
       <c r="B542" t="s">
         <v>1073</v>
@@ -11971,7 +11977,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543">
-        <v>13002</v>
+        <v>13001</v>
       </c>
       <c r="B543" t="s">
         <v>1075</v>
@@ -11985,7 +11991,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544">
-        <v>13301</v>
+        <v>13002</v>
       </c>
       <c r="B544" t="s">
         <v>1077</v>
@@ -11999,7 +12005,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545">
-        <v>13302</v>
+        <v>13301</v>
       </c>
       <c r="B545" t="s">
         <v>1079</v>
@@ -12013,7 +12019,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546">
-        <v>13303</v>
+        <v>13302</v>
       </c>
       <c r="B546" t="s">
         <v>1081</v>
@@ -12027,7 +12033,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547">
-        <v>13304</v>
+        <v>13303</v>
       </c>
       <c r="B547" t="s">
         <v>1083</v>
@@ -12041,7 +12047,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548">
-        <v>13305</v>
+        <v>13304</v>
       </c>
       <c r="B548" t="s">
         <v>1085</v>
@@ -12055,7 +12061,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549">
-        <v>13401</v>
+        <v>13305</v>
       </c>
       <c r="B549" t="s">
         <v>1087</v>
@@ -12069,7 +12075,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550">
-        <v>13402</v>
+        <v>13401</v>
       </c>
       <c r="B550" t="s">
         <v>1089</v>
@@ -12083,27 +12089,27 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551">
-        <v>13403</v>
+        <v>13402</v>
       </c>
       <c r="B551" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C551" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D551" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552">
-        <v>13404</v>
+        <v>13403</v>
       </c>
       <c r="B552" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C552" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D552" t="s">
         <v>1093</v>
@@ -12111,7 +12117,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553">
-        <v>13405</v>
+        <v>13404</v>
       </c>
       <c r="B553" t="s">
         <v>1094</v>
@@ -12125,7 +12131,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554">
-        <v>14001</v>
+        <v>13405</v>
       </c>
       <c r="B554" t="s">
         <v>1096</v>
@@ -12139,7 +12145,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555">
-        <v>99001</v>
+        <v>14001</v>
       </c>
       <c r="B555" t="s">
         <v>1098</v>
@@ -12153,7 +12159,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556">
-        <v>99002</v>
+        <v>99001</v>
       </c>
       <c r="B556" t="s">
         <v>1100</v>
@@ -12167,7 +12173,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557">
-        <v>99011</v>
+        <v>99002</v>
       </c>
       <c r="B557" t="s">
         <v>1102</v>
@@ -12181,7 +12187,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558">
-        <v>99012</v>
+        <v>99011</v>
       </c>
       <c r="B558" t="s">
         <v>1104</v>
@@ -12195,7 +12201,7 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559">
-        <v>99013</v>
+        <v>99012</v>
       </c>
       <c r="B559" t="s">
         <v>1106</v>
@@ -12209,7 +12215,7 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560">
-        <v>99014</v>
+        <v>99013</v>
       </c>
       <c r="B560" t="s">
         <v>1108</v>
@@ -12223,7 +12229,7 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561">
-        <v>99101</v>
+        <v>99014</v>
       </c>
       <c r="B561" t="s">
         <v>1110</v>
@@ -12237,7 +12243,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562">
-        <v>99102</v>
+        <v>99101</v>
       </c>
       <c r="B562" t="s">
         <v>1112</v>
@@ -12251,27 +12257,27 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563">
-        <v>99103</v>
+        <v>99102</v>
       </c>
       <c r="B563" t="s">
-        <v>245</v>
+        <v>1114</v>
       </c>
       <c r="C563" t="s">
-        <v>245</v>
+        <v>1114</v>
       </c>
       <c r="D563" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564">
-        <v>99104</v>
+        <v>99103</v>
       </c>
       <c r="B564" t="s">
-        <v>1115</v>
+        <v>245</v>
       </c>
       <c r="C564" t="s">
-        <v>1115</v>
+        <v>245</v>
       </c>
       <c r="D564" t="s">
         <v>1116</v>
@@ -12279,7 +12285,7 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565">
-        <v>99105</v>
+        <v>99104</v>
       </c>
       <c r="B565" t="s">
         <v>1117</v>
@@ -12293,7 +12299,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566">
-        <v>99201</v>
+        <v>99105</v>
       </c>
       <c r="B566" t="s">
         <v>1119</v>
@@ -12307,7 +12313,7 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567">
-        <v>99202</v>
+        <v>99201</v>
       </c>
       <c r="B567" t="s">
         <v>1121</v>
@@ -12321,7 +12327,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568">
-        <v>99203</v>
+        <v>99202</v>
       </c>
       <c r="B568" t="s">
         <v>1123</v>
@@ -12335,7 +12341,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569">
-        <v>99204</v>
+        <v>99203</v>
       </c>
       <c r="B569" t="s">
         <v>1125</v>
@@ -12349,7 +12355,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570">
-        <v>99205</v>
+        <v>99204</v>
       </c>
       <c r="B570" t="s">
         <v>1127</v>
@@ -12359,6 +12365,20 @@
       </c>
       <c r="D570" t="s">
         <v>1128</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571">
+        <v>99205</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="26340" windowHeight="16665"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1133">
   <si>
     <t>id</t>
   </si>
@@ -1859,6 +1859,12 @@
   </si>
   <si>
     <t>Toast_InputText_No</t>
+  </si>
+  <si>
+    <t>购买数量超过每日限额</t>
+  </si>
+  <si>
+    <t>Toast_Buy_Limit</t>
   </si>
   <si>
     <t>职业晋升测试时间为早上6:00-下午17:59</t>
@@ -4374,10 +4380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D571"/>
+  <dimension ref="A1:D572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B361" sqref="B361"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8701,7 +8707,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B309" t="s">
         <v>615</v>
@@ -8715,7 +8721,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B310" t="s">
         <v>617</v>
@@ -8729,7 +8735,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B311" t="s">
         <v>619</v>
@@ -8743,7 +8749,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B312" t="s">
         <v>621</v>
@@ -8757,7 +8763,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B313" t="s">
         <v>623</v>
@@ -8771,7 +8777,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B314" t="s">
         <v>625</v>
@@ -8785,7 +8791,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B315" t="s">
         <v>627</v>
@@ -8799,7 +8805,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B316" t="s">
         <v>629</v>
@@ -8813,7 +8819,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B317" t="s">
         <v>631</v>
@@ -8827,7 +8833,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B318" t="s">
         <v>633</v>
@@ -8841,7 +8847,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B319" t="s">
         <v>635</v>
@@ -8855,7 +8861,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B320" t="s">
         <v>637</v>
@@ -8869,7 +8875,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B321" t="s">
         <v>639</v>
@@ -8883,7 +8889,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B322" t="s">
         <v>641</v>
@@ -8897,7 +8903,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B323" t="s">
         <v>643</v>
@@ -8911,7 +8917,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B324" t="s">
         <v>645</v>
@@ -8925,7 +8931,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="B325" t="s">
         <v>647</v>
@@ -8939,27 +8945,27 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B326" t="s">
-        <v>94</v>
+        <v>649</v>
       </c>
       <c r="C326" t="s">
-        <v>94</v>
+        <v>649</v>
       </c>
       <c r="D326" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B327" t="s">
-        <v>650</v>
+        <v>94</v>
       </c>
       <c r="C327" t="s">
-        <v>650</v>
+        <v>94</v>
       </c>
       <c r="D327" t="s">
         <v>651</v>
@@ -8967,7 +8973,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B328" t="s">
         <v>652</v>
@@ -8981,7 +8987,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B329" t="s">
         <v>654</v>
@@ -8995,7 +9001,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B330" t="s">
         <v>656</v>
@@ -9009,7 +9015,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B331" t="s">
         <v>658</v>
@@ -9023,7 +9029,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B332" t="s">
         <v>660</v>
@@ -9037,7 +9043,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B333" t="s">
         <v>662</v>
@@ -9051,7 +9057,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B334" t="s">
         <v>664</v>
@@ -9065,7 +9071,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B335" t="s">
         <v>666</v>
@@ -9079,7 +9085,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B336" t="s">
         <v>668</v>
@@ -9093,7 +9099,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B337" t="s">
         <v>670</v>
@@ -9107,7 +9113,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B338" t="s">
         <v>672</v>
@@ -9121,7 +9127,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B339" t="s">
         <v>674</v>
@@ -9135,7 +9141,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="B340" t="s">
         <v>676</v>
@@ -9149,7 +9155,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B341" t="s">
         <v>678</v>
@@ -9163,7 +9169,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B342" t="s">
         <v>680</v>
@@ -9177,7 +9183,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B343" t="s">
         <v>682</v>
@@ -9191,7 +9197,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B344" t="s">
         <v>684</v>
@@ -9205,7 +9211,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B345" t="s">
         <v>686</v>
@@ -9219,7 +9225,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B346" t="s">
         <v>688</v>
@@ -9233,7 +9239,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B347" t="s">
         <v>690</v>
@@ -9247,7 +9253,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B348" t="s">
         <v>692</v>
@@ -9261,7 +9267,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B349" t="s">
         <v>694</v>
@@ -9275,7 +9281,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="B350" t="s">
         <v>696</v>
@@ -9289,7 +9295,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B351" t="s">
         <v>698</v>
@@ -9303,7 +9309,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B352" t="s">
         <v>700</v>
@@ -9317,7 +9323,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B353" t="s">
         <v>702</v>
@@ -9331,7 +9337,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B354" t="s">
         <v>704</v>
@@ -9345,7 +9351,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B355" t="s">
         <v>706</v>
@@ -9359,7 +9365,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B356" t="s">
         <v>708</v>
@@ -9373,7 +9379,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="B357" t="s">
         <v>710</v>
@@ -9387,7 +9393,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B358" t="s">
         <v>712</v>
@@ -9401,7 +9407,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>1201</v>
+        <v>1142</v>
       </c>
       <c r="B359" t="s">
         <v>714</v>
@@ -9415,7 +9421,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <v>1301</v>
+        <v>1201</v>
       </c>
       <c r="B360" t="s">
         <v>716</v>
@@ -9429,7 +9435,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B361" t="s">
         <v>718</v>
@@ -9443,7 +9449,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="B362" t="s">
         <v>720</v>
@@ -9457,7 +9463,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B363" t="s">
         <v>722</v>
@@ -9471,7 +9477,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B364" t="s">
         <v>724</v>
@@ -9485,7 +9491,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B365" t="s">
         <v>726</v>
@@ -9499,7 +9505,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="B366" t="s">
         <v>728</v>
@@ -9513,7 +9519,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="B367" t="s">
         <v>730</v>
@@ -9527,7 +9533,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B368" t="s">
         <v>732</v>
@@ -9541,7 +9547,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B369" t="s">
         <v>734</v>
@@ -9555,7 +9561,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="B370" t="s">
         <v>736</v>
@@ -9569,7 +9575,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="B371" t="s">
         <v>738</v>
@@ -9583,7 +9589,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="B372" t="s">
         <v>740</v>
@@ -9597,7 +9603,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>1999</v>
+        <v>1361</v>
       </c>
       <c r="B373" t="s">
         <v>742</v>
@@ -9611,41 +9617,41 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B374" t="s">
-        <v>151</v>
+        <v>744</v>
       </c>
       <c r="C374" t="s">
-        <v>151</v>
+        <v>744</v>
       </c>
       <c r="D374" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B375" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C375" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D375" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B376" t="s">
-        <v>746</v>
+        <v>153</v>
       </c>
       <c r="C376" t="s">
-        <v>746</v>
+        <v>153</v>
       </c>
       <c r="D376" t="s">
         <v>747</v>
@@ -9653,7 +9659,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B377" t="s">
         <v>748</v>
@@ -9667,7 +9673,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B378" t="s">
         <v>750</v>
@@ -9681,7 +9687,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B379" t="s">
         <v>752</v>
@@ -9695,7 +9701,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B380" t="s">
         <v>754</v>
@@ -9709,7 +9715,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B381" t="s">
         <v>756</v>
@@ -9723,7 +9729,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B382" t="s">
         <v>758</v>
@@ -9737,7 +9743,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B383" t="s">
         <v>760</v>
@@ -9751,7 +9757,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B384" t="s">
         <v>762</v>
@@ -9765,7 +9771,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B385" t="s">
         <v>764</v>
@@ -9779,7 +9785,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B386" t="s">
         <v>766</v>
@@ -9793,7 +9799,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B387" t="s">
         <v>768</v>
@@ -9807,7 +9813,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B388" t="s">
         <v>770</v>
@@ -9821,7 +9827,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B389" t="s">
         <v>772</v>
@@ -9835,7 +9841,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="B390" t="s">
         <v>774</v>
@@ -9849,7 +9855,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B391" t="s">
         <v>776</v>
@@ -9863,7 +9869,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B392" t="s">
         <v>778</v>
@@ -9877,7 +9883,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B393" t="s">
         <v>780</v>
@@ -9891,7 +9897,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B394" t="s">
         <v>782</v>
@@ -9905,7 +9911,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B395" t="s">
         <v>784</v>
@@ -9919,7 +9925,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B396" t="s">
         <v>786</v>
@@ -9933,7 +9939,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B397" t="s">
         <v>788</v>
@@ -9947,7 +9953,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B398" t="s">
         <v>790</v>
@@ -9961,7 +9967,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B399" t="s">
         <v>792</v>
@@ -9975,7 +9981,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B400" t="s">
         <v>794</v>
@@ -9989,7 +9995,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B401" t="s">
         <v>796</v>
@@ -10003,7 +10009,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>3001</v>
+        <v>2042</v>
       </c>
       <c r="B402" t="s">
         <v>798</v>
@@ -10017,7 +10023,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B403" t="s">
         <v>800</v>
@@ -10031,7 +10037,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B404" t="s">
         <v>802</v>
@@ -10045,7 +10051,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B405" t="s">
         <v>804</v>
@@ -10059,7 +10065,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B406" t="s">
         <v>806</v>
@@ -10073,7 +10079,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B407" t="s">
         <v>808</v>
@@ -10087,7 +10093,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B408" t="s">
         <v>810</v>
@@ -10101,7 +10107,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B409" t="s">
         <v>812</v>
@@ -10115,7 +10121,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B410" t="s">
         <v>814</v>
@@ -10129,7 +10135,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B411" t="s">
         <v>816</v>
@@ -10143,7 +10149,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B412" t="s">
         <v>818</v>
@@ -10157,7 +10163,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B413" t="s">
         <v>820</v>
@@ -10171,7 +10177,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B414" t="s">
         <v>822</v>
@@ -10185,7 +10191,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B415" t="s">
         <v>824</v>
@@ -10199,7 +10205,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B416" t="s">
         <v>826</v>
@@ -10213,7 +10219,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>3021</v>
+        <v>3015</v>
       </c>
       <c r="B417" t="s">
         <v>828</v>
@@ -10227,7 +10233,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B418" t="s">
         <v>830</v>
@@ -10241,7 +10247,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>3041</v>
+        <v>3022</v>
       </c>
       <c r="B419" t="s">
         <v>832</v>
@@ -10255,7 +10261,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="B420" t="s">
         <v>834</v>
@@ -10269,7 +10275,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>3061</v>
+        <v>3051</v>
       </c>
       <c r="B421" t="s">
         <v>836</v>
@@ -10283,7 +10289,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B422" t="s">
         <v>838</v>
@@ -10297,7 +10303,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B423" t="s">
         <v>840</v>
@@ -10311,7 +10317,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>3071</v>
+        <v>3063</v>
       </c>
       <c r="B424" t="s">
         <v>842</v>
@@ -10325,7 +10331,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="B425" t="s">
         <v>844</v>
@@ -10339,7 +10345,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>3081</v>
+        <v>3072</v>
       </c>
       <c r="B426" t="s">
         <v>846</v>
@@ -10353,7 +10359,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="B427" t="s">
         <v>848</v>
@@ -10367,7 +10373,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B428" t="s">
         <v>850</v>
@@ -10381,7 +10387,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>3091</v>
+        <v>3083</v>
       </c>
       <c r="B429" t="s">
         <v>852</v>
@@ -10395,7 +10401,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="B430" t="s">
         <v>854</v>
@@ -10409,7 +10415,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B431" t="s">
         <v>856</v>
@@ -10423,7 +10429,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B432" t="s">
         <v>858</v>
@@ -10437,7 +10443,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B433" t="s">
         <v>860</v>
@@ -10451,7 +10457,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>3111</v>
+        <v>3104</v>
       </c>
       <c r="B434" t="s">
         <v>862</v>
@@ -10465,7 +10471,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B435" t="s">
         <v>864</v>
@@ -10479,7 +10485,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>3121</v>
+        <v>3112</v>
       </c>
       <c r="B436" t="s">
         <v>866</v>
@@ -10493,7 +10499,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>4001</v>
+        <v>3121</v>
       </c>
       <c r="B437" t="s">
         <v>868</v>
@@ -10507,7 +10513,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B438" t="s">
         <v>870</v>
@@ -10521,7 +10527,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B439" t="s">
         <v>872</v>
@@ -10535,7 +10541,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>4011</v>
+        <v>4003</v>
       </c>
       <c r="B440" t="s">
         <v>874</v>
@@ -10549,7 +10555,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B441" t="s">
         <v>876</v>
@@ -10563,7 +10569,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B442" t="s">
         <v>878</v>
@@ -10577,7 +10583,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B443" t="s">
         <v>880</v>
@@ -10591,7 +10597,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="B444" t="s">
         <v>882</v>
@@ -10605,7 +10611,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>5001</v>
+        <v>4015</v>
       </c>
       <c r="B445" t="s">
         <v>884</v>
@@ -10619,7 +10625,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B446" t="s">
         <v>886</v>
@@ -10633,7 +10639,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B447" t="s">
         <v>888</v>
@@ -10647,7 +10653,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B448" t="s">
         <v>890</v>
@@ -10661,7 +10667,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B449" t="s">
         <v>892</v>
@@ -10675,7 +10681,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B450" t="s">
         <v>894</v>
@@ -10689,7 +10695,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B451" t="s">
         <v>896</v>
@@ -10703,7 +10709,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B452" t="s">
         <v>898</v>
@@ -10717,7 +10723,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B453" t="s">
         <v>900</v>
@@ -10731,7 +10737,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B454" t="s">
         <v>902</v>
@@ -10745,7 +10751,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="B455" t="s">
         <v>904</v>
@@ -10759,7 +10765,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="B456" t="s">
         <v>906</v>
@@ -10773,7 +10779,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="B457" t="s">
         <v>908</v>
@@ -10787,7 +10793,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>5014</v>
+        <v>5013</v>
       </c>
       <c r="B458" t="s">
         <v>910</v>
@@ -10801,7 +10807,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="B459" t="s">
         <v>912</v>
@@ -10815,7 +10821,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="B460" t="s">
         <v>914</v>
@@ -10829,7 +10835,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>5021</v>
+        <v>5016</v>
       </c>
       <c r="B461" t="s">
         <v>916</v>
@@ -10843,7 +10849,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="B462" t="s">
         <v>918</v>
@@ -10857,7 +10863,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="B463" t="s">
         <v>920</v>
@@ -10871,7 +10877,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>5031</v>
+        <v>5023</v>
       </c>
       <c r="B464" t="s">
         <v>922</v>
@@ -10885,7 +10891,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>5041</v>
+        <v>5031</v>
       </c>
       <c r="B465" t="s">
         <v>924</v>
@@ -10899,7 +10905,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B466" t="s">
         <v>926</v>
@@ -10913,7 +10919,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="B467" t="s">
         <v>928</v>
@@ -10927,7 +10933,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="B468" t="s">
         <v>930</v>
@@ -10941,7 +10947,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>5051</v>
+        <v>5044</v>
       </c>
       <c r="B469" t="s">
         <v>932</v>
@@ -10955,7 +10961,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="B470" t="s">
         <v>934</v>
@@ -10969,55 +10975,55 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="B471" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C471" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D471" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="B472" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C472" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D472" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="B473" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C473" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D473" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="B474" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C474" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D474" t="s">
         <v>940</v>
@@ -11025,7 +11031,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="B475" t="s">
         <v>941</v>
@@ -11039,7 +11045,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>5061</v>
+        <v>5057</v>
       </c>
       <c r="B476" t="s">
         <v>943</v>
@@ -11053,7 +11059,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="B477" t="s">
         <v>945</v>
@@ -11067,7 +11073,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="B478" t="s">
         <v>947</v>
@@ -11081,7 +11087,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="B479" t="s">
         <v>949</v>
@@ -11095,7 +11101,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="B480" t="s">
         <v>951</v>
@@ -11109,7 +11115,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="B481" t="s">
         <v>953</v>
@@ -11123,7 +11129,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="B482" t="s">
         <v>955</v>
@@ -11137,7 +11143,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="B483" t="s">
         <v>957</v>
@@ -11151,7 +11157,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>5071</v>
+        <v>5068</v>
       </c>
       <c r="B484" t="s">
         <v>959</v>
@@ -11165,7 +11171,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="B485" t="s">
         <v>961</v>
@@ -11179,7 +11185,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="B486" t="s">
         <v>963</v>
@@ -11193,7 +11199,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="B487" t="s">
         <v>965</v>
@@ -11207,7 +11213,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>5081</v>
+        <v>5074</v>
       </c>
       <c r="B488" t="s">
         <v>967</v>
@@ -11221,7 +11227,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>5091</v>
+        <v>5081</v>
       </c>
       <c r="B489" t="s">
         <v>969</v>
@@ -11235,7 +11241,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="B490" t="s">
         <v>971</v>
@@ -11249,27 +11255,27 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>5101</v>
+        <v>5092</v>
       </c>
       <c r="B491" t="s">
-        <v>746</v>
+        <v>973</v>
       </c>
       <c r="C491" t="s">
-        <v>746</v>
+        <v>973</v>
       </c>
       <c r="D491" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B492" t="s">
-        <v>974</v>
+        <v>748</v>
       </c>
       <c r="C492" t="s">
-        <v>974</v>
+        <v>748</v>
       </c>
       <c r="D492" t="s">
         <v>975</v>
@@ -11277,7 +11283,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>5111</v>
+        <v>5102</v>
       </c>
       <c r="B493" t="s">
         <v>976</v>
@@ -11291,7 +11297,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="B494" t="s">
         <v>978</v>
@@ -11305,7 +11311,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>5201</v>
+        <v>5112</v>
       </c>
       <c r="B495" t="s">
         <v>980</v>
@@ -11319,7 +11325,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B496" t="s">
         <v>982</v>
@@ -11333,7 +11339,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B497" t="s">
         <v>984</v>
@@ -11347,7 +11353,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B498" t="s">
         <v>986</v>
@@ -11361,7 +11367,7 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B499" t="s">
         <v>988</v>
@@ -11375,7 +11381,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B500" t="s">
         <v>990</v>
@@ -11389,7 +11395,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B501" t="s">
         <v>992</v>
@@ -11403,7 +11409,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B502" t="s">
         <v>994</v>
@@ -11417,7 +11423,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B503" t="s">
         <v>996</v>
@@ -11431,7 +11437,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>5210</v>
+        <v>5209</v>
       </c>
       <c r="B504" t="s">
         <v>998</v>
@@ -11445,7 +11451,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>5221</v>
+        <v>5210</v>
       </c>
       <c r="B505" t="s">
         <v>1000</v>
@@ -11459,7 +11465,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="B506" t="s">
         <v>1002</v>
@@ -11473,7 +11479,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507">
-        <v>6001</v>
+        <v>5222</v>
       </c>
       <c r="B507" t="s">
         <v>1004</v>
@@ -11487,7 +11493,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B508" t="s">
         <v>1006</v>
@@ -11501,7 +11507,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B509" t="s">
         <v>1008</v>
@@ -11515,7 +11521,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B510" t="s">
         <v>1010</v>
@@ -11529,7 +11535,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B511" t="s">
         <v>1012</v>
@@ -11543,7 +11549,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="B512" t="s">
         <v>1014</v>
@@ -11557,7 +11563,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="B513" t="s">
         <v>1016</v>
@@ -11571,7 +11577,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B514" t="s">
         <v>1018</v>
@@ -11585,7 +11591,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="B515" t="s">
         <v>1020</v>
@@ -11599,7 +11605,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="B516" t="s">
         <v>1022</v>
@@ -11613,7 +11619,7 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="B517" t="s">
         <v>1024</v>
@@ -11627,7 +11633,7 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="B518" t="s">
         <v>1026</v>
@@ -11641,7 +11647,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519">
-        <v>6013</v>
+        <v>6012</v>
       </c>
       <c r="B519" t="s">
         <v>1028</v>
@@ -11655,7 +11661,7 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="B520" t="s">
         <v>1030</v>
@@ -11669,7 +11675,7 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521">
-        <v>6021</v>
+        <v>6014</v>
       </c>
       <c r="B521" t="s">
         <v>1032</v>
@@ -11683,7 +11689,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522">
-        <v>6099</v>
+        <v>6021</v>
       </c>
       <c r="B522" t="s">
         <v>1034</v>
@@ -11697,7 +11703,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523">
-        <v>6101</v>
+        <v>6099</v>
       </c>
       <c r="B523" t="s">
         <v>1036</v>
@@ -11711,7 +11717,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524">
-        <v>7001</v>
+        <v>6101</v>
       </c>
       <c r="B524" t="s">
         <v>1038</v>
@@ -11725,7 +11731,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B525" t="s">
         <v>1040</v>
@@ -11739,7 +11745,7 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B526" t="s">
         <v>1042</v>
@@ -11753,7 +11759,7 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B527" t="s">
         <v>1044</v>
@@ -11767,7 +11773,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="B528" t="s">
         <v>1046</v>
@@ -11781,7 +11787,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529">
-        <v>7011</v>
+        <v>7005</v>
       </c>
       <c r="B529" t="s">
         <v>1048</v>
@@ -11795,7 +11801,7 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530">
-        <v>7012</v>
+        <v>7011</v>
       </c>
       <c r="B530" t="s">
         <v>1050</v>
@@ -11809,27 +11815,27 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531">
-        <v>7021</v>
+        <v>7012</v>
       </c>
       <c r="B531" t="s">
-        <v>94</v>
+        <v>1052</v>
       </c>
       <c r="C531" t="s">
-        <v>94</v>
+        <v>1052</v>
       </c>
       <c r="D531" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B532" t="s">
-        <v>1053</v>
+        <v>94</v>
       </c>
       <c r="C532" t="s">
-        <v>1053</v>
+        <v>94</v>
       </c>
       <c r="D532" t="s">
         <v>1054</v>
@@ -11837,7 +11843,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533">
-        <v>7031</v>
+        <v>7022</v>
       </c>
       <c r="B533" t="s">
         <v>1055</v>
@@ -11851,7 +11857,7 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="B534" t="s">
         <v>1057</v>
@@ -11865,7 +11871,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535">
-        <v>8001</v>
+        <v>7032</v>
       </c>
       <c r="B535" t="s">
         <v>1059</v>
@@ -11879,7 +11885,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536">
-        <v>8011</v>
+        <v>8001</v>
       </c>
       <c r="B536" t="s">
         <v>1061</v>
@@ -11893,7 +11899,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537">
-        <v>11002</v>
+        <v>8011</v>
       </c>
       <c r="B537" t="s">
         <v>1063</v>
@@ -11907,7 +11913,7 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B538" t="s">
         <v>1065</v>
@@ -11921,7 +11927,7 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539">
-        <v>11206</v>
+        <v>11003</v>
       </c>
       <c r="B539" t="s">
         <v>1067</v>
@@ -11935,7 +11941,7 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540">
-        <v>12001</v>
+        <v>11206</v>
       </c>
       <c r="B540" t="s">
         <v>1069</v>
@@ -11949,7 +11955,7 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="B541" t="s">
         <v>1071</v>
@@ -11963,7 +11969,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="B542" t="s">
         <v>1073</v>
@@ -11977,7 +11983,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543">
-        <v>13001</v>
+        <v>12003</v>
       </c>
       <c r="B543" t="s">
         <v>1075</v>
@@ -11991,7 +11997,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544">
-        <v>13002</v>
+        <v>13001</v>
       </c>
       <c r="B544" t="s">
         <v>1077</v>
@@ -12005,7 +12011,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545">
-        <v>13301</v>
+        <v>13002</v>
       </c>
       <c r="B545" t="s">
         <v>1079</v>
@@ -12019,7 +12025,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546">
-        <v>13302</v>
+        <v>13301</v>
       </c>
       <c r="B546" t="s">
         <v>1081</v>
@@ -12033,7 +12039,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547">
-        <v>13303</v>
+        <v>13302</v>
       </c>
       <c r="B547" t="s">
         <v>1083</v>
@@ -12047,7 +12053,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548">
-        <v>13304</v>
+        <v>13303</v>
       </c>
       <c r="B548" t="s">
         <v>1085</v>
@@ -12061,7 +12067,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549">
-        <v>13305</v>
+        <v>13304</v>
       </c>
       <c r="B549" t="s">
         <v>1087</v>
@@ -12075,7 +12081,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550">
-        <v>13401</v>
+        <v>13305</v>
       </c>
       <c r="B550" t="s">
         <v>1089</v>
@@ -12089,7 +12095,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551">
-        <v>13402</v>
+        <v>13401</v>
       </c>
       <c r="B551" t="s">
         <v>1091</v>
@@ -12103,27 +12109,27 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552">
-        <v>13403</v>
+        <v>13402</v>
       </c>
       <c r="B552" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C552" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D552" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553">
-        <v>13404</v>
+        <v>13403</v>
       </c>
       <c r="B553" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C553" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D553" t="s">
         <v>1095</v>
@@ -12131,7 +12137,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554">
-        <v>13405</v>
+        <v>13404</v>
       </c>
       <c r="B554" t="s">
         <v>1096</v>
@@ -12145,7 +12151,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555">
-        <v>14001</v>
+        <v>13405</v>
       </c>
       <c r="B555" t="s">
         <v>1098</v>
@@ -12159,7 +12165,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556">
-        <v>99001</v>
+        <v>14001</v>
       </c>
       <c r="B556" t="s">
         <v>1100</v>
@@ -12173,7 +12179,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557">
-        <v>99002</v>
+        <v>99001</v>
       </c>
       <c r="B557" t="s">
         <v>1102</v>
@@ -12187,7 +12193,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558">
-        <v>99011</v>
+        <v>99002</v>
       </c>
       <c r="B558" t="s">
         <v>1104</v>
@@ -12201,7 +12207,7 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559">
-        <v>99012</v>
+        <v>99011</v>
       </c>
       <c r="B559" t="s">
         <v>1106</v>
@@ -12215,7 +12221,7 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560">
-        <v>99013</v>
+        <v>99012</v>
       </c>
       <c r="B560" t="s">
         <v>1108</v>
@@ -12229,7 +12235,7 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561">
-        <v>99014</v>
+        <v>99013</v>
       </c>
       <c r="B561" t="s">
         <v>1110</v>
@@ -12243,7 +12249,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562">
-        <v>99101</v>
+        <v>99014</v>
       </c>
       <c r="B562" t="s">
         <v>1112</v>
@@ -12257,7 +12263,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563">
-        <v>99102</v>
+        <v>99101</v>
       </c>
       <c r="B563" t="s">
         <v>1114</v>
@@ -12271,27 +12277,27 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564">
-        <v>99103</v>
+        <v>99102</v>
       </c>
       <c r="B564" t="s">
-        <v>245</v>
+        <v>1116</v>
       </c>
       <c r="C564" t="s">
-        <v>245</v>
+        <v>1116</v>
       </c>
       <c r="D564" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565">
-        <v>99104</v>
+        <v>99103</v>
       </c>
       <c r="B565" t="s">
-        <v>1117</v>
+        <v>245</v>
       </c>
       <c r="C565" t="s">
-        <v>1117</v>
+        <v>245</v>
       </c>
       <c r="D565" t="s">
         <v>1118</v>
@@ -12299,7 +12305,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566">
-        <v>99105</v>
+        <v>99104</v>
       </c>
       <c r="B566" t="s">
         <v>1119</v>
@@ -12313,7 +12319,7 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567">
-        <v>99201</v>
+        <v>99105</v>
       </c>
       <c r="B567" t="s">
         <v>1121</v>
@@ -12327,7 +12333,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568">
-        <v>99202</v>
+        <v>99201</v>
       </c>
       <c r="B568" t="s">
         <v>1123</v>
@@ -12341,7 +12347,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569">
-        <v>99203</v>
+        <v>99202</v>
       </c>
       <c r="B569" t="s">
         <v>1125</v>
@@ -12355,7 +12361,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570">
-        <v>99204</v>
+        <v>99203</v>
       </c>
       <c r="B570" t="s">
         <v>1127</v>
@@ -12369,7 +12375,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571">
-        <v>99205</v>
+        <v>99204</v>
       </c>
       <c r="B571" t="s">
         <v>1129</v>
@@ -12379,6 +12385,20 @@
       </c>
       <c r="D571" t="s">
         <v>1130</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572">
+        <v>99205</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1132</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/Assets/Data/Excel/excel_ui_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1137">
   <si>
     <t>id</t>
   </si>
@@ -1501,6 +1501,12 @@
     <t>Game_Items_Type_Other</t>
   </si>
   <si>
+    <t>种子</t>
+  </si>
+  <si>
+    <t>Game_Items_Type_Seed</t>
+  </si>
+  <si>
     <t>伴侣</t>
   </si>
   <si>
@@ -2414,6 +2420,12 @@
   </si>
   <si>
     <t>Inn_Family</t>
+  </si>
+  <si>
+    <t>庭院管理</t>
+  </si>
+  <si>
+    <t>Inn_Courtyard</t>
   </si>
   <si>
     <t>确认丢弃 {0} ？</t>
@@ -4380,10 +4392,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D572"/>
+  <dimension ref="A1:D574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="D305" sqref="D305"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="D401" sqref="D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7867,7 +7879,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="B249" t="s">
         <v>495</v>
@@ -7881,7 +7893,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B250" t="s">
         <v>497</v>
@@ -7895,7 +7907,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B251" t="s">
         <v>499</v>
@@ -7909,7 +7921,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>501</v>
+        <v>453</v>
       </c>
       <c r="B252" t="s">
         <v>501</v>
@@ -7923,7 +7935,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B253" t="s">
         <v>503</v>
@@ -7937,7 +7949,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B254" t="s">
         <v>505</v>
@@ -7951,7 +7963,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B255" t="s">
         <v>507</v>
@@ -7965,7 +7977,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B256" t="s">
         <v>509</v>
@@ -7979,7 +7991,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B257" t="s">
         <v>511</v>
@@ -7993,7 +8005,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B258" t="s">
         <v>513</v>
@@ -8007,7 +8019,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B259" t="s">
         <v>515</v>
@@ -8021,7 +8033,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B260" t="s">
         <v>517</v>
@@ -8035,7 +8047,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B261" t="s">
         <v>519</v>
@@ -8049,7 +8061,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B262" t="s">
         <v>521</v>
@@ -8063,7 +8075,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="B263" t="s">
         <v>523</v>
@@ -8077,7 +8089,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B264" t="s">
         <v>525</v>
@@ -8091,7 +8103,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B265" t="s">
         <v>527</v>
@@ -8105,7 +8117,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B266" t="s">
         <v>529</v>
@@ -8119,7 +8131,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="B267" t="s">
         <v>531</v>
@@ -8133,7 +8145,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B268" t="s">
         <v>533</v>
@@ -8147,7 +8159,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B269" t="s">
         <v>535</v>
@@ -8161,7 +8173,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B270" t="s">
         <v>537</v>
@@ -8175,7 +8187,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B271" t="s">
         <v>539</v>
@@ -8189,7 +8201,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B272" t="s">
         <v>541</v>
@@ -8203,7 +8215,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B273" t="s">
         <v>543</v>
@@ -8217,7 +8229,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B274" t="s">
         <v>545</v>
@@ -8231,7 +8243,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B275" t="s">
         <v>547</v>
@@ -8245,7 +8257,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B276" t="s">
         <v>549</v>
@@ -8259,7 +8271,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B277" t="s">
         <v>551</v>
@@ -8273,7 +8285,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>801</v>
+        <v>722</v>
       </c>
       <c r="B278" t="s">
         <v>553</v>
@@ -8287,7 +8299,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B279" t="s">
         <v>555</v>
@@ -8301,7 +8313,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B280" t="s">
         <v>557</v>
@@ -8315,7 +8327,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B281" t="s">
         <v>559</v>
@@ -8329,7 +8341,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>901</v>
+        <v>804</v>
       </c>
       <c r="B282" t="s">
         <v>561</v>
@@ -8343,7 +8355,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>1000</v>
+        <v>901</v>
       </c>
       <c r="B283" t="s">
         <v>563</v>
@@ -8357,7 +8369,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B284" t="s">
         <v>565</v>
@@ -8371,7 +8383,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B285" t="s">
         <v>567</v>
@@ -8385,7 +8397,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B286" t="s">
         <v>569</v>
@@ -8399,7 +8411,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B287" t="s">
         <v>571</v>
@@ -8413,7 +8425,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B288" t="s">
         <v>573</v>
@@ -8427,7 +8439,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B289" t="s">
         <v>575</v>
@@ -8441,7 +8453,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B290" t="s">
         <v>577</v>
@@ -8455,7 +8467,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B291" t="s">
         <v>579</v>
@@ -8469,7 +8481,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B292" t="s">
         <v>581</v>
@@ -8483,7 +8495,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B293" t="s">
         <v>583</v>
@@ -8497,7 +8509,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B294" t="s">
         <v>585</v>
@@ -8511,7 +8523,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B295" t="s">
         <v>587</v>
@@ -8525,7 +8537,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B296" t="s">
         <v>589</v>
@@ -8539,7 +8551,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B297" t="s">
         <v>591</v>
@@ -8553,7 +8565,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B298" t="s">
         <v>593</v>
@@ -8567,7 +8579,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B299" t="s">
         <v>595</v>
@@ -8581,7 +8593,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B300" t="s">
         <v>597</v>
@@ -8595,7 +8607,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B301" t="s">
         <v>599</v>
@@ -8609,7 +8621,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B302" t="s">
         <v>601</v>
@@ -8623,7 +8635,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B303" t="s">
         <v>603</v>
@@ -8637,7 +8649,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B304" t="s">
         <v>605</v>
@@ -8651,7 +8663,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B305" t="s">
         <v>607</v>
@@ -8665,7 +8677,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B306" t="s">
         <v>609</v>
@@ -8679,7 +8691,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B307" t="s">
         <v>611</v>
@@ -8693,7 +8705,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B308" t="s">
         <v>613</v>
@@ -8707,7 +8719,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B309" t="s">
         <v>615</v>
@@ -8721,7 +8733,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B310" t="s">
         <v>617</v>
@@ -8735,7 +8747,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B311" t="s">
         <v>619</v>
@@ -8749,7 +8761,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B312" t="s">
         <v>621</v>
@@ -8763,7 +8775,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B313" t="s">
         <v>623</v>
@@ -8777,7 +8789,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B314" t="s">
         <v>625</v>
@@ -8791,7 +8803,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B315" t="s">
         <v>627</v>
@@ -8805,7 +8817,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B316" t="s">
         <v>629</v>
@@ -8819,7 +8831,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B317" t="s">
         <v>631</v>
@@ -8833,7 +8845,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B318" t="s">
         <v>633</v>
@@ -8847,7 +8859,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B319" t="s">
         <v>635</v>
@@ -8861,7 +8873,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B320" t="s">
         <v>637</v>
@@ -8875,7 +8887,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B321" t="s">
         <v>639</v>
@@ -8889,7 +8901,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B322" t="s">
         <v>641</v>
@@ -8903,7 +8915,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B323" t="s">
         <v>643</v>
@@ -8917,7 +8929,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B324" t="s">
         <v>645</v>
@@ -8931,7 +8943,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B325" t="s">
         <v>647</v>
@@ -8945,7 +8957,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="B326" t="s">
         <v>649</v>
@@ -8959,27 +8971,27 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B327" t="s">
-        <v>94</v>
+        <v>651</v>
       </c>
       <c r="C327" t="s">
-        <v>94</v>
+        <v>651</v>
       </c>
       <c r="D327" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B328" t="s">
-        <v>652</v>
+        <v>94</v>
       </c>
       <c r="C328" t="s">
-        <v>652</v>
+        <v>94</v>
       </c>
       <c r="D328" t="s">
         <v>653</v>
@@ -8987,7 +8999,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B329" t="s">
         <v>654</v>
@@ -9001,7 +9013,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B330" t="s">
         <v>656</v>
@@ -9015,7 +9027,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B331" t="s">
         <v>658</v>
@@ -9029,7 +9041,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B332" t="s">
         <v>660</v>
@@ -9043,7 +9055,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B333" t="s">
         <v>662</v>
@@ -9057,7 +9069,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B334" t="s">
         <v>664</v>
@@ -9071,7 +9083,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B335" t="s">
         <v>666</v>
@@ -9085,7 +9097,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B336" t="s">
         <v>668</v>
@@ -9099,7 +9111,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B337" t="s">
         <v>670</v>
@@ -9113,7 +9125,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B338" t="s">
         <v>672</v>
@@ -9127,7 +9139,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="B339" t="s">
         <v>674</v>
@@ -9141,7 +9153,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B340" t="s">
         <v>676</v>
@@ -9155,7 +9167,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="B341" t="s">
         <v>678</v>
@@ -9169,7 +9181,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B342" t="s">
         <v>680</v>
@@ -9183,7 +9195,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B343" t="s">
         <v>682</v>
@@ -9197,7 +9209,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B344" t="s">
         <v>684</v>
@@ -9211,7 +9223,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B345" t="s">
         <v>686</v>
@@ -9225,7 +9237,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B346" t="s">
         <v>688</v>
@@ -9239,7 +9251,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B347" t="s">
         <v>690</v>
@@ -9253,7 +9265,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B348" t="s">
         <v>692</v>
@@ -9267,7 +9279,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B349" t="s">
         <v>694</v>
@@ -9281,7 +9293,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B350" t="s">
         <v>696</v>
@@ -9295,7 +9307,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="B351" t="s">
         <v>698</v>
@@ -9309,7 +9321,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B352" t="s">
         <v>700</v>
@@ -9323,7 +9335,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B353" t="s">
         <v>702</v>
@@ -9337,7 +9349,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B354" t="s">
         <v>704</v>
@@ -9351,7 +9363,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B355" t="s">
         <v>706</v>
@@ -9365,7 +9377,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B356" t="s">
         <v>708</v>
@@ -9379,7 +9391,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B357" t="s">
         <v>710</v>
@@ -9393,7 +9405,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="B358" t="s">
         <v>712</v>
@@ -9407,7 +9419,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B359" t="s">
         <v>714</v>
@@ -9421,7 +9433,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <v>1201</v>
+        <v>1142</v>
       </c>
       <c r="B360" t="s">
         <v>716</v>
@@ -9435,7 +9447,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <v>1301</v>
+        <v>1201</v>
       </c>
       <c r="B361" t="s">
         <v>718</v>
@@ -9449,7 +9461,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B362" t="s">
         <v>720</v>
@@ -9463,7 +9475,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="B363" t="s">
         <v>722</v>
@@ -9477,7 +9489,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B364" t="s">
         <v>724</v>
@@ -9491,7 +9503,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B365" t="s">
         <v>726</v>
@@ -9505,7 +9517,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B366" t="s">
         <v>728</v>
@@ -9519,7 +9531,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="B367" t="s">
         <v>730</v>
@@ -9533,7 +9545,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="B368" t="s">
         <v>732</v>
@@ -9547,7 +9559,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B369" t="s">
         <v>734</v>
@@ -9561,7 +9573,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B370" t="s">
         <v>736</v>
@@ -9575,7 +9587,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="B371" t="s">
         <v>738</v>
@@ -9589,7 +9601,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="B372" t="s">
         <v>740</v>
@@ -9603,7 +9615,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="B373" t="s">
         <v>742</v>
@@ -9617,7 +9629,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>1999</v>
+        <v>1361</v>
       </c>
       <c r="B374" t="s">
         <v>744</v>
@@ -9631,41 +9643,41 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B375" t="s">
-        <v>151</v>
+        <v>746</v>
       </c>
       <c r="C375" t="s">
-        <v>151</v>
+        <v>746</v>
       </c>
       <c r="D375" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B376" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C376" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D376" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B377" t="s">
-        <v>748</v>
+        <v>153</v>
       </c>
       <c r="C377" t="s">
-        <v>748</v>
+        <v>153</v>
       </c>
       <c r="D377" t="s">
         <v>749</v>
@@ -9673,7 +9685,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B378" t="s">
         <v>750</v>
@@ -9687,7 +9699,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B379" t="s">
         <v>752</v>
@@ -9701,7 +9713,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B380" t="s">
         <v>754</v>
@@ -9715,7 +9727,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B381" t="s">
         <v>756</v>
@@ -9729,7 +9741,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B382" t="s">
         <v>758</v>
@@ -9743,7 +9755,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B383" t="s">
         <v>760</v>
@@ -9757,7 +9769,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B384" t="s">
         <v>762</v>
@@ -9771,7 +9783,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B385" t="s">
         <v>764</v>
@@ -9785,7 +9797,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B386" t="s">
         <v>766</v>
@@ -9799,7 +9811,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B387" t="s">
         <v>768</v>
@@ -9813,7 +9825,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B388" t="s">
         <v>770</v>
@@ -9827,7 +9839,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B389" t="s">
         <v>772</v>
@@ -9841,7 +9853,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B390" t="s">
         <v>774</v>
@@ -9855,7 +9867,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="B391" t="s">
         <v>776</v>
@@ -9869,7 +9881,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B392" t="s">
         <v>778</v>
@@ -9883,7 +9895,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B393" t="s">
         <v>780</v>
@@ -9897,7 +9909,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B394" t="s">
         <v>782</v>
@@ -9911,7 +9923,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B395" t="s">
         <v>784</v>
@@ -9925,7 +9937,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B396" t="s">
         <v>786</v>
@@ -9939,7 +9951,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B397" t="s">
         <v>788</v>
@@ -9953,7 +9965,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B398" t="s">
         <v>790</v>
@@ -9967,7 +9979,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B399" t="s">
         <v>792</v>
@@ -9981,7 +9993,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B400" t="s">
         <v>794</v>
@@ -9995,7 +10007,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B401" t="s">
         <v>796</v>
@@ -10009,7 +10021,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B402" t="s">
         <v>798</v>
@@ -10023,7 +10035,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>3001</v>
+        <v>2042</v>
       </c>
       <c r="B403" t="s">
         <v>800</v>
@@ -10037,7 +10049,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>3002</v>
+        <v>2043</v>
       </c>
       <c r="B404" t="s">
         <v>802</v>
@@ -10051,7 +10063,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B405" t="s">
         <v>804</v>
@@ -10065,7 +10077,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B406" t="s">
         <v>806</v>
@@ -10079,7 +10091,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B407" t="s">
         <v>808</v>
@@ -10093,7 +10105,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B408" t="s">
         <v>810</v>
@@ -10107,7 +10119,7 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B409" t="s">
         <v>812</v>
@@ -10121,7 +10133,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="B410" t="s">
         <v>814</v>
@@ -10135,7 +10147,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="B411" t="s">
         <v>816</v>
@@ -10149,7 +10161,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="B412" t="s">
         <v>818</v>
@@ -10163,7 +10175,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B413" t="s">
         <v>820</v>
@@ -10177,7 +10189,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B414" t="s">
         <v>822</v>
@@ -10191,7 +10203,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="B415" t="s">
         <v>824</v>
@@ -10205,7 +10217,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="B416" t="s">
         <v>826</v>
@@ -10219,7 +10231,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="B417" t="s">
         <v>828</v>
@@ -10233,7 +10245,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>3021</v>
+        <v>3014</v>
       </c>
       <c r="B418" t="s">
         <v>830</v>
@@ -10247,7 +10259,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>3022</v>
+        <v>3015</v>
       </c>
       <c r="B419" t="s">
         <v>832</v>
@@ -10261,7 +10273,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>3041</v>
+        <v>3021</v>
       </c>
       <c r="B420" t="s">
         <v>834</v>
@@ -10275,7 +10287,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>3051</v>
+        <v>3022</v>
       </c>
       <c r="B421" t="s">
         <v>836</v>
@@ -10289,7 +10301,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>3061</v>
+        <v>3041</v>
       </c>
       <c r="B422" t="s">
         <v>838</v>
@@ -10303,7 +10315,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>3062</v>
+        <v>3051</v>
       </c>
       <c r="B423" t="s">
         <v>840</v>
@@ -10317,7 +10329,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="B424" t="s">
         <v>842</v>
@@ -10331,7 +10343,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>3071</v>
+        <v>3062</v>
       </c>
       <c r="B425" t="s">
         <v>844</v>
@@ -10345,7 +10357,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>3072</v>
+        <v>3063</v>
       </c>
       <c r="B426" t="s">
         <v>846</v>
@@ -10359,7 +10371,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>3081</v>
+        <v>3071</v>
       </c>
       <c r="B427" t="s">
         <v>848</v>
@@ -10373,7 +10385,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>3082</v>
+        <v>3072</v>
       </c>
       <c r="B428" t="s">
         <v>850</v>
@@ -10387,7 +10399,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="B429" t="s">
         <v>852</v>
@@ -10401,7 +10413,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>3091</v>
+        <v>3082</v>
       </c>
       <c r="B430" t="s">
         <v>854</v>
@@ -10415,7 +10427,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>3101</v>
+        <v>3083</v>
       </c>
       <c r="B431" t="s">
         <v>856</v>
@@ -10429,7 +10441,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>3102</v>
+        <v>3091</v>
       </c>
       <c r="B432" t="s">
         <v>858</v>
@@ -10443,7 +10455,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="B433" t="s">
         <v>860</v>
@@ -10457,7 +10469,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="B434" t="s">
         <v>862</v>
@@ -10471,7 +10483,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>3111</v>
+        <v>3103</v>
       </c>
       <c r="B435" t="s">
         <v>864</v>
@@ -10485,7 +10497,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>3112</v>
+        <v>3104</v>
       </c>
       <c r="B436" t="s">
         <v>866</v>
@@ -10499,7 +10511,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>3121</v>
+        <v>3111</v>
       </c>
       <c r="B437" t="s">
         <v>868</v>
@@ -10513,7 +10525,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>4001</v>
+        <v>3112</v>
       </c>
       <c r="B438" t="s">
         <v>870</v>
@@ -10527,7 +10539,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>4002</v>
+        <v>3121</v>
       </c>
       <c r="B439" t="s">
         <v>872</v>
@@ -10541,7 +10553,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="B440" t="s">
         <v>874</v>
@@ -10555,7 +10567,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>4011</v>
+        <v>4002</v>
       </c>
       <c r="B441" t="s">
         <v>876</v>
@@ -10569,7 +10581,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>4012</v>
+        <v>4003</v>
       </c>
       <c r="B442" t="s">
         <v>878</v>
@@ -10583,7 +10595,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="B443" t="s">
         <v>880</v>
@@ -10597,7 +10609,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="B444" t="s">
         <v>882</v>
@@ -10611,7 +10623,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="B445" t="s">
         <v>884</v>
@@ -10625,7 +10637,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>5001</v>
+        <v>4014</v>
       </c>
       <c r="B446" t="s">
         <v>886</v>
@@ -10639,7 +10651,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>5002</v>
+        <v>4015</v>
       </c>
       <c r="B447" t="s">
         <v>888</v>
@@ -10653,7 +10665,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B448" t="s">
         <v>890</v>
@@ -10667,7 +10679,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B449" t="s">
         <v>892</v>
@@ -10681,7 +10693,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B450" t="s">
         <v>894</v>
@@ -10695,7 +10707,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B451" t="s">
         <v>896</v>
@@ -10709,7 +10721,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B452" t="s">
         <v>898</v>
@@ -10723,7 +10735,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B453" t="s">
         <v>900</v>
@@ -10737,7 +10749,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B454" t="s">
         <v>902</v>
@@ -10751,7 +10763,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B455" t="s">
         <v>904</v>
@@ -10765,7 +10777,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B456" t="s">
         <v>906</v>
@@ -10779,7 +10791,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="B457" t="s">
         <v>908</v>
@@ -10793,7 +10805,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>5013</v>
+        <v>5011</v>
       </c>
       <c r="B458" t="s">
         <v>910</v>
@@ -10807,7 +10819,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="B459" t="s">
         <v>912</v>
@@ -10821,7 +10833,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>5015</v>
+        <v>5013</v>
       </c>
       <c r="B460" t="s">
         <v>914</v>
@@ -10835,7 +10847,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>5016</v>
+        <v>5014</v>
       </c>
       <c r="B461" t="s">
         <v>916</v>
@@ -10849,7 +10861,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>5021</v>
+        <v>5015</v>
       </c>
       <c r="B462" t="s">
         <v>918</v>
@@ -10863,7 +10875,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>5022</v>
+        <v>5016</v>
       </c>
       <c r="B463" t="s">
         <v>920</v>
@@ -10877,7 +10889,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>5023</v>
+        <v>5021</v>
       </c>
       <c r="B464" t="s">
         <v>922</v>
@@ -10891,7 +10903,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>5031</v>
+        <v>5022</v>
       </c>
       <c r="B465" t="s">
         <v>924</v>
@@ -10905,7 +10917,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>5041</v>
+        <v>5023</v>
       </c>
       <c r="B466" t="s">
         <v>926</v>
@@ -10919,7 +10931,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>5042</v>
+        <v>5031</v>
       </c>
       <c r="B467" t="s">
         <v>928</v>
@@ -10933,7 +10945,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>5043</v>
+        <v>5041</v>
       </c>
       <c r="B468" t="s">
         <v>930</v>
@@ -10947,7 +10959,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>5044</v>
+        <v>5042</v>
       </c>
       <c r="B469" t="s">
         <v>932</v>
@@ -10961,7 +10973,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>5051</v>
+        <v>5043</v>
       </c>
       <c r="B470" t="s">
         <v>934</v>
@@ -10975,7 +10987,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>5052</v>
+        <v>5044</v>
       </c>
       <c r="B471" t="s">
         <v>936</v>
@@ -10989,69 +11001,69 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>5053</v>
+        <v>5051</v>
       </c>
       <c r="B472" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C472" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D472" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>5054</v>
+        <v>5052</v>
       </c>
       <c r="B473" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C473" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D473" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="B474" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C474" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="D474" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="B475" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C475" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D475" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>5057</v>
+        <v>5055</v>
       </c>
       <c r="B476" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C476" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D476" t="s">
         <v>944</v>
@@ -11059,7 +11071,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>5061</v>
+        <v>5056</v>
       </c>
       <c r="B477" t="s">
         <v>945</v>
@@ -11073,7 +11085,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>5062</v>
+        <v>5057</v>
       </c>
       <c r="B478" t="s">
         <v>947</v>
@@ -11087,7 +11099,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>5063</v>
+        <v>5061</v>
       </c>
       <c r="B479" t="s">
         <v>949</v>
@@ -11101,7 +11113,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>5064</v>
+        <v>5062</v>
       </c>
       <c r="B480" t="s">
         <v>951</v>
@@ -11115,7 +11127,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>5065</v>
+        <v>5063</v>
       </c>
       <c r="B481" t="s">
         <v>953</v>
@@ -11129,7 +11141,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>5066</v>
+        <v>5064</v>
       </c>
       <c r="B482" t="s">
         <v>955</v>
@@ -11143,7 +11155,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>5067</v>
+        <v>5065</v>
       </c>
       <c r="B483" t="s">
         <v>957</v>
@@ -11157,7 +11169,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>5068</v>
+        <v>5066</v>
       </c>
       <c r="B484" t="s">
         <v>959</v>
@@ -11171,7 +11183,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>5071</v>
+        <v>5067</v>
       </c>
       <c r="B485" t="s">
         <v>961</v>
@@ -11185,7 +11197,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>5072</v>
+        <v>5068</v>
       </c>
       <c r="B486" t="s">
         <v>963</v>
@@ -11199,7 +11211,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="B487" t="s">
         <v>965</v>
@@ -11213,7 +11225,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>5074</v>
+        <v>5072</v>
       </c>
       <c r="B488" t="s">
         <v>967</v>
@@ -11227,7 +11239,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>5081</v>
+        <v>5073</v>
       </c>
       <c r="B489" t="s">
         <v>969</v>
@@ -11241,7 +11253,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>5091</v>
+        <v>5074</v>
       </c>
       <c r="B490" t="s">
         <v>971</v>
@@ -11255,7 +11267,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>5092</v>
+        <v>5081</v>
       </c>
       <c r="B491" t="s">
         <v>973</v>
@@ -11269,41 +11281,41 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>5101</v>
+        <v>5091</v>
       </c>
       <c r="B492" t="s">
-        <v>748</v>
+        <v>975</v>
       </c>
       <c r="C492" t="s">
-        <v>748</v>
+        <v>975</v>
       </c>
       <c r="D492" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>5102</v>
+        <v>5092</v>
       </c>
       <c r="B493" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C493" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D493" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>5111</v>
+        <v>5101</v>
       </c>
       <c r="B494" t="s">
-        <v>978</v>
+        <v>750</v>
       </c>
       <c r="C494" t="s">
-        <v>978</v>
+        <v>750</v>
       </c>
       <c r="D494" t="s">
         <v>979</v>
@@ -11311,7 +11323,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>5112</v>
+        <v>5102</v>
       </c>
       <c r="B495" t="s">
         <v>980</v>
@@ -11325,7 +11337,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>5201</v>
+        <v>5111</v>
       </c>
       <c r="B496" t="s">
         <v>982</v>
@@ -11339,7 +11351,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>5202</v>
+        <v>5112</v>
       </c>
       <c r="B497" t="s">
         <v>984</v>
@@ -11353,7 +11365,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>5203</v>
+        <v>5201</v>
       </c>
       <c r="B498" t="s">
         <v>986</v>
@@ -11367,7 +11379,7 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="B499" t="s">
         <v>988</v>
@@ -11381,7 +11393,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="B500" t="s">
         <v>990</v>
@@ -11395,7 +11407,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="B501" t="s">
         <v>992</v>
@@ -11409,7 +11421,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="B502" t="s">
         <v>994</v>
@@ -11423,7 +11435,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="B503" t="s">
         <v>996</v>
@@ -11437,7 +11449,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="B504" t="s">
         <v>998</v>
@@ -11451,7 +11463,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>5210</v>
+        <v>5208</v>
       </c>
       <c r="B505" t="s">
         <v>1000</v>
@@ -11465,7 +11477,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506">
-        <v>5221</v>
+        <v>5209</v>
       </c>
       <c r="B506" t="s">
         <v>1002</v>
@@ -11479,7 +11491,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507">
-        <v>5222</v>
+        <v>5210</v>
       </c>
       <c r="B507" t="s">
         <v>1004</v>
@@ -11493,7 +11505,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508">
-        <v>6001</v>
+        <v>5221</v>
       </c>
       <c r="B508" t="s">
         <v>1006</v>
@@ -11507,7 +11519,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509">
-        <v>6002</v>
+        <v>5222</v>
       </c>
       <c r="B509" t="s">
         <v>1008</v>
@@ -11521,7 +11533,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="B510" t="s">
         <v>1010</v>
@@ -11535,7 +11547,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="B511" t="s">
         <v>1012</v>
@@ -11549,7 +11561,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="B512" t="s">
         <v>1014</v>
@@ -11563,7 +11575,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="B513" t="s">
         <v>1016</v>
@@ -11577,7 +11589,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514">
-        <v>6007</v>
+        <v>6005</v>
       </c>
       <c r="B514" t="s">
         <v>1018</v>
@@ -11591,7 +11603,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515">
-        <v>6008</v>
+        <v>6006</v>
       </c>
       <c r="B515" t="s">
         <v>1020</v>
@@ -11605,7 +11617,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516">
-        <v>6009</v>
+        <v>6007</v>
       </c>
       <c r="B516" t="s">
         <v>1022</v>
@@ -11619,7 +11631,7 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517">
-        <v>6010</v>
+        <v>6008</v>
       </c>
       <c r="B517" t="s">
         <v>1024</v>
@@ -11633,7 +11645,7 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518">
-        <v>6011</v>
+        <v>6009</v>
       </c>
       <c r="B518" t="s">
         <v>1026</v>
@@ -11647,7 +11659,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519">
-        <v>6012</v>
+        <v>6010</v>
       </c>
       <c r="B519" t="s">
         <v>1028</v>
@@ -11661,7 +11673,7 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520">
-        <v>6013</v>
+        <v>6011</v>
       </c>
       <c r="B520" t="s">
         <v>1030</v>
@@ -11675,7 +11687,7 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521">
-        <v>6014</v>
+        <v>6012</v>
       </c>
       <c r="B521" t="s">
         <v>1032</v>
@@ -11689,7 +11701,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522">
-        <v>6021</v>
+        <v>6013</v>
       </c>
       <c r="B522" t="s">
         <v>1034</v>
@@ -11703,7 +11715,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523">
-        <v>6099</v>
+        <v>6014</v>
       </c>
       <c r="B523" t="s">
         <v>1036</v>
@@ -11717,7 +11729,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524">
-        <v>6101</v>
+        <v>6021</v>
       </c>
       <c r="B524" t="s">
         <v>1038</v>
@@ -11731,7 +11743,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525">
-        <v>7001</v>
+        <v>6099</v>
       </c>
       <c r="B525" t="s">
         <v>1040</v>
@@ -11745,7 +11757,7 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526">
-        <v>7002</v>
+        <v>6101</v>
       </c>
       <c r="B526" t="s">
         <v>1042</v>
@@ -11759,7 +11771,7 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="B527" t="s">
         <v>1044</v>
@@ -11773,7 +11785,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="B528" t="s">
         <v>1046</v>
@@ -11787,7 +11799,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="B529" t="s">
         <v>1048</v>
@@ -11801,7 +11813,7 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530">
-        <v>7011</v>
+        <v>7004</v>
       </c>
       <c r="B530" t="s">
         <v>1050</v>
@@ -11815,7 +11827,7 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531">
-        <v>7012</v>
+        <v>7005</v>
       </c>
       <c r="B531" t="s">
         <v>1052</v>
@@ -11829,41 +11841,41 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532">
-        <v>7021</v>
+        <v>7011</v>
       </c>
       <c r="B532" t="s">
-        <v>94</v>
+        <v>1054</v>
       </c>
       <c r="C532" t="s">
-        <v>94</v>
+        <v>1054</v>
       </c>
       <c r="D532" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="533" spans="1:4">
       <c r="A533">
-        <v>7022</v>
+        <v>7012</v>
       </c>
       <c r="B533" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C533" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D533" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="534" spans="1:4">
       <c r="A534">
-        <v>7031</v>
+        <v>7021</v>
       </c>
       <c r="B534" t="s">
-        <v>1057</v>
+        <v>94</v>
       </c>
       <c r="C534" t="s">
-        <v>1057</v>
+        <v>94</v>
       </c>
       <c r="D534" t="s">
         <v>1058</v>
@@ -11871,7 +11883,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535">
-        <v>7032</v>
+        <v>7022</v>
       </c>
       <c r="B535" t="s">
         <v>1059</v>
@@ -11885,7 +11897,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536">
-        <v>8001</v>
+        <v>7031</v>
       </c>
       <c r="B536" t="s">
         <v>1061</v>
@@ -11899,7 +11911,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537">
-        <v>8011</v>
+        <v>7032</v>
       </c>
       <c r="B537" t="s">
         <v>1063</v>
@@ -11913,7 +11925,7 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538">
-        <v>11002</v>
+        <v>8001</v>
       </c>
       <c r="B538" t="s">
         <v>1065</v>
@@ -11927,7 +11939,7 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539">
-        <v>11003</v>
+        <v>8011</v>
       </c>
       <c r="B539" t="s">
         <v>1067</v>
@@ -11941,7 +11953,7 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540">
-        <v>11206</v>
+        <v>11002</v>
       </c>
       <c r="B540" t="s">
         <v>1069</v>
@@ -11955,7 +11967,7 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541">
-        <v>12001</v>
+        <v>11003</v>
       </c>
       <c r="B541" t="s">
         <v>1071</v>
@@ -11969,7 +11981,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542">
-        <v>12002</v>
+        <v>11206</v>
       </c>
       <c r="B542" t="s">
         <v>1073</v>
@@ -11983,7 +11995,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543">
-        <v>12003</v>
+        <v>12001</v>
       </c>
       <c r="B543" t="s">
         <v>1075</v>
@@ -11997,7 +12009,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544">
-        <v>13001</v>
+        <v>12002</v>
       </c>
       <c r="B544" t="s">
         <v>1077</v>
@@ -12011,7 +12023,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545">
-        <v>13002</v>
+        <v>12003</v>
       </c>
       <c r="B545" t="s">
         <v>1079</v>
@@ -12025,7 +12037,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546">
-        <v>13301</v>
+        <v>13001</v>
       </c>
       <c r="B546" t="s">
         <v>1081</v>
@@ -12039,7 +12051,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547">
-        <v>13302</v>
+        <v>13002</v>
       </c>
       <c r="B547" t="s">
         <v>1083</v>
@@ -12053,7 +12065,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548">
-        <v>13303</v>
+        <v>13301</v>
       </c>
       <c r="B548" t="s">
         <v>1085</v>
@@ -12067,7 +12079,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549">
-        <v>13304</v>
+        <v>13302</v>
       </c>
       <c r="B549" t="s">
         <v>1087</v>
@@ -12081,7 +12093,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550">
-        <v>13305</v>
+        <v>13303</v>
       </c>
       <c r="B550" t="s">
         <v>1089</v>
@@ -12095,7 +12107,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551">
-        <v>13401</v>
+        <v>13304</v>
       </c>
       <c r="B551" t="s">
         <v>1091</v>
@@ -12109,7 +12121,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552">
-        <v>13402</v>
+        <v>13305</v>
       </c>
       <c r="B552" t="s">
         <v>1093</v>
@@ -12123,41 +12135,41 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553">
-        <v>13403</v>
+        <v>13401</v>
       </c>
       <c r="B553" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C553" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D553" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="554" spans="1:4">
       <c r="A554">
-        <v>13404</v>
+        <v>13402</v>
       </c>
       <c r="B554" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C554" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D554" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555">
-        <v>13405</v>
+        <v>13403</v>
       </c>
       <c r="B555" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C555" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D555" t="s">
         <v>1099</v>
@@ -12165,7 +12177,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556">
-        <v>14001</v>
+        <v>13404</v>
       </c>
       <c r="B556" t="s">
         <v>1100</v>
@@ -12179,7 +12191,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557">
-        <v>99001</v>
+        <v>13405</v>
       </c>
       <c r="B557" t="s">
         <v>1102</v>
@@ -12193,7 +12205,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558">
-        <v>99002</v>
+        <v>14001</v>
       </c>
       <c r="B558" t="s">
         <v>1104</v>
@@ -12207,7 +12219,7 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559">
-        <v>99011</v>
+        <v>99001</v>
       </c>
       <c r="B559" t="s">
         <v>1106</v>
@@ -12221,7 +12233,7 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560">
-        <v>99012</v>
+        <v>99002</v>
       </c>
       <c r="B560" t="s">
         <v>1108</v>
@@ -12235,7 +12247,7 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561">
-        <v>99013</v>
+        <v>99011</v>
       </c>
       <c r="B561" t="s">
         <v>1110</v>
@@ -12249,7 +12261,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562">
-        <v>99014</v>
+        <v>99012</v>
       </c>
       <c r="B562" t="s">
         <v>1112</v>
@@ -12263,7 +12275,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563">
-        <v>99101</v>
+        <v>99013</v>
       </c>
       <c r="B563" t="s">
         <v>1114</v>
@@ -12277,7 +12289,7 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564">
-        <v>99102</v>
+        <v>99014</v>
       </c>
       <c r="B564" t="s">
         <v>1116</v>
@@ -12291,41 +12303,41 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565">
-        <v>99103</v>
+        <v>99101</v>
       </c>
       <c r="B565" t="s">
-        <v>245</v>
+        <v>1118</v>
       </c>
       <c r="C565" t="s">
-        <v>245</v>
+        <v>1118</v>
       </c>
       <c r="D565" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566">
-        <v>99104</v>
+        <v>99102</v>
       </c>
       <c r="B566" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C566" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D566" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567">
-        <v>99105</v>
+        <v>99103</v>
       </c>
       <c r="B567" t="s">
-        <v>1121</v>
+        <v>245</v>
       </c>
       <c r="C567" t="s">
-        <v>1121</v>
+        <v>245</v>
       </c>
       <c r="D567" t="s">
         <v>1122</v>
@@ -12333,7 +12345,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568">
-        <v>99201</v>
+        <v>99104</v>
       </c>
       <c r="B568" t="s">
         <v>1123</v>
@@ -12347,7 +12359,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569">
-        <v>99202</v>
+        <v>99105</v>
       </c>
       <c r="B569" t="s">
         <v>1125</v>
@@ -12361,7 +12373,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570">
-        <v>99203</v>
+        <v>99201</v>
       </c>
       <c r="B570" t="s">
         <v>1127</v>
@@ -12375,7 +12387,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571">
-        <v>99204</v>
+        <v>99202</v>
       </c>
       <c r="B571" t="s">
         <v>1129</v>
@@ -12389,7 +12401,7 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572">
-        <v>99205</v>
+        <v>99203</v>
       </c>
       <c r="B572" t="s">
         <v>1131</v>
@@ -12399,6 +12411,34 @@
       </c>
       <c r="D572" t="s">
         <v>1132</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573">
+        <v>99204</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574">
+        <v>99205</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1136</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="16665"/>
+    <workbookView windowWidth="23430" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1144">
   <si>
     <t>id</t>
   </si>
@@ -1099,6 +1099,12 @@
     <t>Game_Worker_Towers</t>
   </si>
   <si>
+    <t>庭院管理</t>
+  </si>
+  <si>
+    <t>Game_Worker_Courtyard</t>
+  </si>
+  <si>
     <t>总计接待食客</t>
   </si>
   <si>
@@ -1705,6 +1711,18 @@
     <t>Game_BedPillow</t>
   </si>
   <si>
+    <t>自动续种</t>
+  </si>
+  <si>
+    <t>BuildCourtyard_AutoSeed</t>
+  </si>
+  <si>
+    <t>更换管理</t>
+  </si>
+  <si>
+    <t>BuildCourtyard_ChangeManager</t>
+  </si>
+  <si>
     <t>游戏结束</t>
   </si>
   <si>
@@ -2254,6 +2272,12 @@
     <t>Toast_NO_in</t>
   </si>
   <si>
+    <t>空空如也</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
     <t>开发中（会有的~）</t>
   </si>
   <si>
@@ -2420,9 +2444,6 @@
   </si>
   <si>
     <t>Inn_Family</t>
-  </si>
-  <si>
-    <t>庭院管理</t>
   </si>
   <si>
     <t>Inn_Courtyard</t>
@@ -3430,7 +3451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3443,34 +3464,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3487,14 +3480,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3534,6 +3519,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3584,7 +3584,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3599,55 +3620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3665,31 +3644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3713,6 +3680,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3725,7 +3704,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3749,7 +3752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3773,6 +3788,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3790,21 +3811,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3837,6 +3843,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3895,148 +3916,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4047,52 +4068,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -4392,10 +4413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D574"/>
+  <dimension ref="A1:D578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="D401" sqref="D401"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6927,7 +6948,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B181" t="s">
         <v>361</v>
@@ -6941,7 +6962,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B182" t="s">
         <v>363</v>
@@ -6955,7 +6976,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B183" t="s">
         <v>365</v>
@@ -6969,7 +6990,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B184" t="s">
         <v>367</v>
@@ -6983,7 +7004,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B185" t="s">
         <v>369</v>
@@ -6997,7 +7018,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B186" t="s">
         <v>371</v>
@@ -7011,7 +7032,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B187" t="s">
         <v>373</v>
@@ -7025,7 +7046,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B188" t="s">
         <v>375</v>
@@ -7039,7 +7060,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B189" t="s">
         <v>377</v>
@@ -7053,7 +7074,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B190" t="s">
         <v>379</v>
@@ -7067,7 +7088,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B191" t="s">
         <v>381</v>
@@ -7081,7 +7102,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B192" t="s">
         <v>383</v>
@@ -7095,7 +7116,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B193" t="s">
         <v>385</v>
@@ -7109,7 +7130,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B194" t="s">
         <v>387</v>
@@ -7123,7 +7144,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B195" t="s">
         <v>389</v>
@@ -7137,7 +7158,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B196" t="s">
         <v>391</v>
@@ -7151,7 +7172,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B197" t="s">
         <v>393</v>
@@ -7165,7 +7186,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B198" t="s">
         <v>395</v>
@@ -7179,7 +7200,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B199" t="s">
         <v>397</v>
@@ -7193,7 +7214,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B200" t="s">
         <v>399</v>
@@ -7207,7 +7228,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B201" t="s">
         <v>401</v>
@@ -7221,7 +7242,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B202" t="s">
         <v>403</v>
@@ -7235,27 +7256,27 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B203" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="C203" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="D203" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B204" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="C204" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="D204" t="s">
         <v>407</v>
@@ -7263,7 +7284,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B205" t="s">
         <v>408</v>
@@ -7277,7 +7298,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B206" t="s">
         <v>410</v>
@@ -7291,7 +7312,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B207" t="s">
         <v>412</v>
@@ -7305,7 +7326,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B208" t="s">
         <v>414</v>
@@ -7319,7 +7340,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B209" t="s">
         <v>416</v>
@@ -7333,7 +7354,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B210" t="s">
         <v>418</v>
@@ -7347,7 +7368,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B211" t="s">
         <v>420</v>
@@ -7361,7 +7382,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B212" t="s">
         <v>422</v>
@@ -7375,7 +7396,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B213" t="s">
         <v>424</v>
@@ -7389,7 +7410,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B214" t="s">
         <v>426</v>
@@ -7403,7 +7424,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B215" t="s">
         <v>428</v>
@@ -7417,7 +7438,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B216" t="s">
         <v>430</v>
@@ -7431,7 +7452,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B217" t="s">
         <v>432</v>
@@ -7445,7 +7466,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B218" t="s">
         <v>434</v>
@@ -7459,7 +7480,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B219" t="s">
         <v>436</v>
@@ -7473,7 +7494,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B220" t="s">
         <v>438</v>
@@ -7487,7 +7508,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B221" t="s">
         <v>440</v>
@@ -7501,7 +7522,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B222" t="s">
         <v>442</v>
@@ -7515,7 +7536,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B223" t="s">
         <v>444</v>
@@ -7529,7 +7550,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B224" t="s">
         <v>446</v>
@@ -7543,7 +7564,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B225" t="s">
         <v>448</v>
@@ -7557,7 +7578,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B226" t="s">
         <v>450</v>
@@ -7571,7 +7592,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B227" t="s">
         <v>452</v>
@@ -7585,7 +7606,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B228" t="s">
         <v>454</v>
@@ -7599,7 +7620,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B229" t="s">
         <v>456</v>
@@ -7613,7 +7634,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B230" t="s">
         <v>458</v>
@@ -7627,7 +7648,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B231" t="s">
         <v>460</v>
@@ -7641,7 +7662,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B232" t="s">
         <v>462</v>
@@ -7655,7 +7676,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B233" t="s">
         <v>464</v>
@@ -7669,7 +7690,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B234" t="s">
         <v>466</v>
@@ -7683,7 +7704,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="B235" t="s">
         <v>468</v>
@@ -7697,7 +7718,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B236" t="s">
         <v>470</v>
@@ -7711,7 +7732,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B237" t="s">
         <v>472</v>
@@ -7725,7 +7746,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B238" t="s">
         <v>474</v>
@@ -7739,7 +7760,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B239" t="s">
         <v>476</v>
@@ -7753,7 +7774,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B240" t="s">
         <v>478</v>
@@ -7767,7 +7788,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B241" t="s">
         <v>480</v>
@@ -7781,7 +7802,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B242" t="s">
         <v>482</v>
@@ -7795,27 +7816,27 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B243" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
       <c r="C243" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
       <c r="D243" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B244" t="s">
-        <v>485</v>
+        <v>22</v>
       </c>
       <c r="C244" t="s">
-        <v>485</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
         <v>486</v>
@@ -7823,7 +7844,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B245" t="s">
         <v>487</v>
@@ -7837,7 +7858,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B246" t="s">
         <v>489</v>
@@ -7851,7 +7872,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B247" t="s">
         <v>491</v>
@@ -7865,7 +7886,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B248" t="s">
         <v>493</v>
@@ -7879,7 +7900,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B249" t="s">
         <v>495</v>
@@ -7893,7 +7914,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="B250" t="s">
         <v>497</v>
@@ -7907,7 +7928,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B251" t="s">
         <v>499</v>
@@ -7921,7 +7942,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B252" t="s">
         <v>501</v>
@@ -7935,7 +7956,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>501</v>
+        <v>453</v>
       </c>
       <c r="B253" t="s">
         <v>503</v>
@@ -7949,7 +7970,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B254" t="s">
         <v>505</v>
@@ -7963,7 +7984,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B255" t="s">
         <v>507</v>
@@ -7977,7 +7998,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B256" t="s">
         <v>509</v>
@@ -7991,7 +8012,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B257" t="s">
         <v>511</v>
@@ -8005,7 +8026,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B258" t="s">
         <v>513</v>
@@ -8019,7 +8040,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B259" t="s">
         <v>515</v>
@@ -8033,7 +8054,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B260" t="s">
         <v>517</v>
@@ -8047,7 +8068,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B261" t="s">
         <v>519</v>
@@ -8061,7 +8082,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B262" t="s">
         <v>521</v>
@@ -8075,7 +8096,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B263" t="s">
         <v>523</v>
@@ -8089,7 +8110,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="B264" t="s">
         <v>525</v>
@@ -8103,7 +8124,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B265" t="s">
         <v>527</v>
@@ -8117,7 +8138,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B266" t="s">
         <v>529</v>
@@ -8131,7 +8152,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B267" t="s">
         <v>531</v>
@@ -8145,7 +8166,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="B268" t="s">
         <v>533</v>
@@ -8159,7 +8180,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B269" t="s">
         <v>535</v>
@@ -8173,7 +8194,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B270" t="s">
         <v>537</v>
@@ -8187,7 +8208,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B271" t="s">
         <v>539</v>
@@ -8201,7 +8222,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B272" t="s">
         <v>541</v>
@@ -8215,7 +8236,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B273" t="s">
         <v>543</v>
@@ -8229,7 +8250,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B274" t="s">
         <v>545</v>
@@ -8243,7 +8264,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B275" t="s">
         <v>547</v>
@@ -8257,7 +8278,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B276" t="s">
         <v>549</v>
@@ -8271,7 +8292,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B277" t="s">
         <v>551</v>
@@ -8285,7 +8306,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B278" t="s">
         <v>553</v>
@@ -8299,7 +8320,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>801</v>
+        <v>722</v>
       </c>
       <c r="B279" t="s">
         <v>555</v>
@@ -8313,7 +8334,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B280" t="s">
         <v>557</v>
@@ -8327,7 +8348,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B281" t="s">
         <v>559</v>
@@ -8341,7 +8362,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B282" t="s">
         <v>561</v>
@@ -8355,7 +8376,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>901</v>
+        <v>804</v>
       </c>
       <c r="B283" t="s">
         <v>563</v>
@@ -8369,7 +8390,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="B284" t="s">
         <v>565</v>
@@ -8383,7 +8404,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>1001</v>
+        <v>851</v>
       </c>
       <c r="B285" t="s">
         <v>567</v>
@@ -8397,7 +8418,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>1002</v>
+        <v>901</v>
       </c>
       <c r="B286" t="s">
         <v>569</v>
@@ -8411,7 +8432,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B287" t="s">
         <v>571</v>
@@ -8425,7 +8446,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B288" t="s">
         <v>573</v>
@@ -8439,7 +8460,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B289" t="s">
         <v>575</v>
@@ -8453,7 +8474,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B290" t="s">
         <v>577</v>
@@ -8467,7 +8488,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B291" t="s">
         <v>579</v>
@@ -8481,7 +8502,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B292" t="s">
         <v>581</v>
@@ -8495,7 +8516,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B293" t="s">
         <v>583</v>
@@ -8509,7 +8530,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B294" t="s">
         <v>585</v>
@@ -8523,7 +8544,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B295" t="s">
         <v>587</v>
@@ -8537,7 +8558,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B296" t="s">
         <v>589</v>
@@ -8551,7 +8572,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B297" t="s">
         <v>591</v>
@@ -8565,7 +8586,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B298" t="s">
         <v>593</v>
@@ -8579,7 +8600,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B299" t="s">
         <v>595</v>
@@ -8593,7 +8614,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B300" t="s">
         <v>597</v>
@@ -8607,7 +8628,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B301" t="s">
         <v>599</v>
@@ -8621,7 +8642,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B302" t="s">
         <v>601</v>
@@ -8635,7 +8656,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B303" t="s">
         <v>603</v>
@@ -8649,7 +8670,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B304" t="s">
         <v>605</v>
@@ -8663,7 +8684,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B305" t="s">
         <v>607</v>
@@ -8677,7 +8698,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B306" t="s">
         <v>609</v>
@@ -8691,7 +8712,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B307" t="s">
         <v>611</v>
@@ -8705,7 +8726,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B308" t="s">
         <v>613</v>
@@ -8719,7 +8740,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B309" t="s">
         <v>615</v>
@@ -8733,7 +8754,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B310" t="s">
         <v>617</v>
@@ -8747,7 +8768,7 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B311" t="s">
         <v>619</v>
@@ -8761,7 +8782,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B312" t="s">
         <v>621</v>
@@ -8775,7 +8796,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B313" t="s">
         <v>623</v>
@@ -8789,7 +8810,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B314" t="s">
         <v>625</v>
@@ -8803,7 +8824,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B315" t="s">
         <v>627</v>
@@ -8817,7 +8838,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="B316" t="s">
         <v>629</v>
@@ -8831,7 +8852,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="B317" t="s">
         <v>631</v>
@@ -8845,7 +8866,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="B318" t="s">
         <v>633</v>
@@ -8859,7 +8880,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B319" t="s">
         <v>635</v>
@@ -8873,7 +8894,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B320" t="s">
         <v>637</v>
@@ -8887,7 +8908,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B321" t="s">
         <v>639</v>
@@ -8901,7 +8922,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B322" t="s">
         <v>641</v>
@@ -8915,7 +8936,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B323" t="s">
         <v>643</v>
@@ -8929,7 +8950,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B324" t="s">
         <v>645</v>
@@ -8943,7 +8964,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B325" t="s">
         <v>647</v>
@@ -8957,7 +8978,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B326" t="s">
         <v>649</v>
@@ -8971,7 +8992,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="B327" t="s">
         <v>651</v>
@@ -8985,55 +9006,55 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="B328" t="s">
-        <v>94</v>
+        <v>653</v>
       </c>
       <c r="C328" t="s">
-        <v>94</v>
+        <v>653</v>
       </c>
       <c r="D328" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="B329" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C329" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D329" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B330" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C330" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D330" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B331" t="s">
-        <v>658</v>
+        <v>94</v>
       </c>
       <c r="C331" t="s">
-        <v>658</v>
+        <v>94</v>
       </c>
       <c r="D331" t="s">
         <v>659</v>
@@ -9041,7 +9062,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B332" t="s">
         <v>660</v>
@@ -9055,7 +9076,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B333" t="s">
         <v>662</v>
@@ -9069,7 +9090,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B334" t="s">
         <v>664</v>
@@ -9083,7 +9104,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="B335" t="s">
         <v>666</v>
@@ -9097,7 +9118,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="B336" t="s">
         <v>668</v>
@@ -9111,7 +9132,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="B337" t="s">
         <v>670</v>
@@ -9125,7 +9146,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="B338" t="s">
         <v>672</v>
@@ -9139,7 +9160,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="B339" t="s">
         <v>674</v>
@@ -9153,7 +9174,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="B340" t="s">
         <v>676</v>
@@ -9167,7 +9188,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="B341" t="s">
         <v>678</v>
@@ -9181,7 +9202,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>1101</v>
+        <v>1083</v>
       </c>
       <c r="B342" t="s">
         <v>680</v>
@@ -9195,7 +9216,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="B343" t="s">
         <v>682</v>
@@ -9209,7 +9230,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="B344" t="s">
         <v>684</v>
@@ -9223,7 +9244,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B345" t="s">
         <v>686</v>
@@ -9237,7 +9258,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B346" t="s">
         <v>688</v>
@@ -9251,7 +9272,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B347" t="s">
         <v>690</v>
@@ -9265,7 +9286,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B348" t="s">
         <v>692</v>
@@ -9279,7 +9300,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B349" t="s">
         <v>694</v>
@@ -9293,7 +9314,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B350" t="s">
         <v>696</v>
@@ -9307,7 +9328,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B351" t="s">
         <v>698</v>
@@ -9321,7 +9342,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="B352" t="s">
         <v>700</v>
@@ -9335,7 +9356,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="B353" t="s">
         <v>702</v>
@@ -9349,7 +9370,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="B354" t="s">
         <v>704</v>
@@ -9363,7 +9384,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B355" t="s">
         <v>706</v>
@@ -9377,7 +9398,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B356" t="s">
         <v>708</v>
@@ -9391,7 +9412,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="B357" t="s">
         <v>710</v>
@@ -9405,7 +9426,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="B358" t="s">
         <v>712</v>
@@ -9419,7 +9440,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>1141</v>
+        <v>1125</v>
       </c>
       <c r="B359" t="s">
         <v>714</v>
@@ -9433,7 +9454,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="B360" t="s">
         <v>716</v>
@@ -9447,7 +9468,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <v>1201</v>
+        <v>1132</v>
       </c>
       <c r="B361" t="s">
         <v>718</v>
@@ -9461,7 +9482,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <v>1301</v>
+        <v>1141</v>
       </c>
       <c r="B362" t="s">
         <v>720</v>
@@ -9475,7 +9496,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <v>1302</v>
+        <v>1142</v>
       </c>
       <c r="B363" t="s">
         <v>722</v>
@@ -9489,7 +9510,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <v>1311</v>
+        <v>1201</v>
       </c>
       <c r="B364" t="s">
         <v>724</v>
@@ -9503,7 +9524,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="B365" t="s">
         <v>726</v>
@@ -9517,7 +9538,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="B366" t="s">
         <v>728</v>
@@ -9531,7 +9552,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B367" t="s">
         <v>730</v>
@@ -9545,7 +9566,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="B368" t="s">
         <v>732</v>
@@ -9559,7 +9580,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>1331</v>
+        <v>1313</v>
       </c>
       <c r="B369" t="s">
         <v>734</v>
@@ -9573,7 +9594,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="B370" t="s">
         <v>736</v>
@@ -9587,7 +9608,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="B371" t="s">
         <v>738</v>
@@ -9601,7 +9622,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="B372" t="s">
         <v>740</v>
@@ -9615,7 +9636,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>1351</v>
+        <v>1332</v>
       </c>
       <c r="B373" t="s">
         <v>742</v>
@@ -9629,7 +9650,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>1361</v>
+        <v>1333</v>
       </c>
       <c r="B374" t="s">
         <v>744</v>
@@ -9643,7 +9664,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>1999</v>
+        <v>1341</v>
       </c>
       <c r="B375" t="s">
         <v>746</v>
@@ -9657,83 +9678,83 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>2001</v>
+        <v>1351</v>
       </c>
       <c r="B376" t="s">
-        <v>151</v>
+        <v>748</v>
       </c>
       <c r="C376" t="s">
-        <v>151</v>
+        <v>748</v>
       </c>
       <c r="D376" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>2002</v>
+        <v>1361</v>
       </c>
       <c r="B377" t="s">
-        <v>153</v>
+        <v>750</v>
       </c>
       <c r="C377" t="s">
-        <v>153</v>
+        <v>750</v>
       </c>
       <c r="D377" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="B378" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C378" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D378" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="B379" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C379" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D379" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B380" t="s">
-        <v>754</v>
+        <v>151</v>
       </c>
       <c r="C380" t="s">
-        <v>754</v>
+        <v>151</v>
       </c>
       <c r="D380" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B381" t="s">
-        <v>756</v>
+        <v>153</v>
       </c>
       <c r="C381" t="s">
-        <v>756</v>
+        <v>153</v>
       </c>
       <c r="D381" t="s">
         <v>757</v>
@@ -9741,7 +9762,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B382" t="s">
         <v>758</v>
@@ -9755,7 +9776,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B383" t="s">
         <v>760</v>
@@ -9769,7 +9790,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B384" t="s">
         <v>762</v>
@@ -9783,7 +9804,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B385" t="s">
         <v>764</v>
@@ -9797,7 +9818,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B386" t="s">
         <v>766</v>
@@ -9811,7 +9832,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B387" t="s">
         <v>768</v>
@@ -9825,7 +9846,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B388" t="s">
         <v>770</v>
@@ -9839,7 +9860,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B389" t="s">
         <v>772</v>
@@ -9853,7 +9874,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="B390" t="s">
         <v>774</v>
@@ -9867,7 +9888,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="B391" t="s">
         <v>776</v>
@@ -9881,7 +9902,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>2031</v>
+        <v>2013</v>
       </c>
       <c r="B392" t="s">
         <v>778</v>
@@ -9895,7 +9916,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>2032</v>
+        <v>2014</v>
       </c>
       <c r="B393" t="s">
         <v>780</v>
@@ -9909,7 +9930,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>2033</v>
+        <v>2020</v>
       </c>
       <c r="B394" t="s">
         <v>782</v>
@@ -9923,7 +9944,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>2034</v>
+        <v>2021</v>
       </c>
       <c r="B395" t="s">
         <v>784</v>
@@ -9937,7 +9958,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="B396" t="s">
         <v>786</v>
@@ -9951,7 +9972,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="B397" t="s">
         <v>788</v>
@@ -9965,7 +9986,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="B398" t="s">
         <v>790</v>
@@ -9979,7 +10000,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="B399" t="s">
         <v>792</v>
@@ -9993,7 +10014,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="B400" t="s">
         <v>794</v>
@@ -10007,7 +10028,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="B401" t="s">
         <v>796</v>
@@ -10021,7 +10042,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="B402" t="s">
         <v>798</v>
@@ -10035,7 +10056,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="B403" t="s">
         <v>800</v>
@@ -10049,7 +10070,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="B404" t="s">
         <v>802</v>
@@ -10063,7 +10084,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>3001</v>
+        <v>2040</v>
       </c>
       <c r="B405" t="s">
         <v>804</v>
@@ -10077,7 +10098,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>3002</v>
+        <v>2041</v>
       </c>
       <c r="B406" t="s">
         <v>806</v>
@@ -10091,7 +10112,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>3003</v>
+        <v>2042</v>
       </c>
       <c r="B407" t="s">
         <v>808</v>
@@ -10105,937 +10126,937 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>3004</v>
+        <v>2043</v>
       </c>
       <c r="B408" t="s">
+        <v>361</v>
+      </c>
+      <c r="C408" t="s">
+        <v>361</v>
+      </c>
+      <c r="D408" t="s">
         <v>810</v>
-      </c>
-      <c r="C408" t="s">
-        <v>810</v>
-      </c>
-      <c r="D408" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="B409" t="s">
+        <v>811</v>
+      </c>
+      <c r="C409" t="s">
+        <v>811</v>
+      </c>
+      <c r="D409" t="s">
         <v>812</v>
-      </c>
-      <c r="C409" t="s">
-        <v>812</v>
-      </c>
-      <c r="D409" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="B410" t="s">
+        <v>813</v>
+      </c>
+      <c r="C410" t="s">
+        <v>813</v>
+      </c>
+      <c r="D410" t="s">
         <v>814</v>
-      </c>
-      <c r="C410" t="s">
-        <v>814</v>
-      </c>
-      <c r="D410" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="B411" t="s">
+        <v>815</v>
+      </c>
+      <c r="C411" t="s">
+        <v>815</v>
+      </c>
+      <c r="D411" t="s">
         <v>816</v>
-      </c>
-      <c r="C411" t="s">
-        <v>816</v>
-      </c>
-      <c r="D411" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="B412" t="s">
+        <v>817</v>
+      </c>
+      <c r="C412" t="s">
+        <v>817</v>
+      </c>
+      <c r="D412" t="s">
         <v>818</v>
-      </c>
-      <c r="C412" t="s">
-        <v>818</v>
-      </c>
-      <c r="D412" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="B413" t="s">
+        <v>819</v>
+      </c>
+      <c r="C413" t="s">
+        <v>819</v>
+      </c>
+      <c r="D413" t="s">
         <v>820</v>
-      </c>
-      <c r="C413" t="s">
-        <v>820</v>
-      </c>
-      <c r="D413" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="B414" t="s">
+        <v>821</v>
+      </c>
+      <c r="C414" t="s">
+        <v>821</v>
+      </c>
+      <c r="D414" t="s">
         <v>822</v>
-      </c>
-      <c r="C414" t="s">
-        <v>822</v>
-      </c>
-      <c r="D414" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="B415" t="s">
+        <v>823</v>
+      </c>
+      <c r="C415" t="s">
+        <v>823</v>
+      </c>
+      <c r="D415" t="s">
         <v>824</v>
-      </c>
-      <c r="C415" t="s">
-        <v>824</v>
-      </c>
-      <c r="D415" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="B416" t="s">
+        <v>825</v>
+      </c>
+      <c r="C416" t="s">
+        <v>825</v>
+      </c>
+      <c r="D416" t="s">
         <v>826</v>
-      </c>
-      <c r="C416" t="s">
-        <v>826</v>
-      </c>
-      <c r="D416" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="B417" t="s">
+        <v>827</v>
+      </c>
+      <c r="C417" t="s">
+        <v>827</v>
+      </c>
+      <c r="D417" t="s">
         <v>828</v>
-      </c>
-      <c r="C417" t="s">
-        <v>828</v>
-      </c>
-      <c r="D417" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="B418" t="s">
+        <v>829</v>
+      </c>
+      <c r="C418" t="s">
+        <v>829</v>
+      </c>
+      <c r="D418" t="s">
         <v>830</v>
-      </c>
-      <c r="C418" t="s">
-        <v>830</v>
-      </c>
-      <c r="D418" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="B419" t="s">
+        <v>831</v>
+      </c>
+      <c r="C419" t="s">
+        <v>831</v>
+      </c>
+      <c r="D419" t="s">
         <v>832</v>
-      </c>
-      <c r="C419" t="s">
-        <v>832</v>
-      </c>
-      <c r="D419" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>3021</v>
+        <v>3012</v>
       </c>
       <c r="B420" t="s">
+        <v>833</v>
+      </c>
+      <c r="C420" t="s">
+        <v>833</v>
+      </c>
+      <c r="D420" t="s">
         <v>834</v>
-      </c>
-      <c r="C420" t="s">
-        <v>834</v>
-      </c>
-      <c r="D420" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>3022</v>
+        <v>3013</v>
       </c>
       <c r="B421" t="s">
+        <v>835</v>
+      </c>
+      <c r="C421" t="s">
+        <v>835</v>
+      </c>
+      <c r="D421" t="s">
         <v>836</v>
-      </c>
-      <c r="C421" t="s">
-        <v>836</v>
-      </c>
-      <c r="D421" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>3041</v>
+        <v>3014</v>
       </c>
       <c r="B422" t="s">
+        <v>837</v>
+      </c>
+      <c r="C422" t="s">
+        <v>837</v>
+      </c>
+      <c r="D422" t="s">
         <v>838</v>
-      </c>
-      <c r="C422" t="s">
-        <v>838</v>
-      </c>
-      <c r="D422" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>3051</v>
+        <v>3015</v>
       </c>
       <c r="B423" t="s">
+        <v>839</v>
+      </c>
+      <c r="C423" t="s">
+        <v>839</v>
+      </c>
+      <c r="D423" t="s">
         <v>840</v>
-      </c>
-      <c r="C423" t="s">
-        <v>840</v>
-      </c>
-      <c r="D423" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>3061</v>
+        <v>3021</v>
       </c>
       <c r="B424" t="s">
+        <v>841</v>
+      </c>
+      <c r="C424" t="s">
+        <v>841</v>
+      </c>
+      <c r="D424" t="s">
         <v>842</v>
-      </c>
-      <c r="C424" t="s">
-        <v>842</v>
-      </c>
-      <c r="D424" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>3062</v>
+        <v>3022</v>
       </c>
       <c r="B425" t="s">
+        <v>843</v>
+      </c>
+      <c r="C425" t="s">
+        <v>843</v>
+      </c>
+      <c r="D425" t="s">
         <v>844</v>
-      </c>
-      <c r="C425" t="s">
-        <v>844</v>
-      </c>
-      <c r="D425" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>3063</v>
+        <v>3041</v>
       </c>
       <c r="B426" t="s">
+        <v>845</v>
+      </c>
+      <c r="C426" t="s">
+        <v>845</v>
+      </c>
+      <c r="D426" t="s">
         <v>846</v>
-      </c>
-      <c r="C426" t="s">
-        <v>846</v>
-      </c>
-      <c r="D426" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>3071</v>
+        <v>3051</v>
       </c>
       <c r="B427" t="s">
+        <v>847</v>
+      </c>
+      <c r="C427" t="s">
+        <v>847</v>
+      </c>
+      <c r="D427" t="s">
         <v>848</v>
-      </c>
-      <c r="C427" t="s">
-        <v>848</v>
-      </c>
-      <c r="D427" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>3072</v>
+        <v>3061</v>
       </c>
       <c r="B428" t="s">
+        <v>849</v>
+      </c>
+      <c r="C428" t="s">
+        <v>849</v>
+      </c>
+      <c r="D428" t="s">
         <v>850</v>
-      </c>
-      <c r="C428" t="s">
-        <v>850</v>
-      </c>
-      <c r="D428" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>3081</v>
+        <v>3062</v>
       </c>
       <c r="B429" t="s">
+        <v>851</v>
+      </c>
+      <c r="C429" t="s">
+        <v>851</v>
+      </c>
+      <c r="D429" t="s">
         <v>852</v>
-      </c>
-      <c r="C429" t="s">
-        <v>852</v>
-      </c>
-      <c r="D429" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>3082</v>
+        <v>3063</v>
       </c>
       <c r="B430" t="s">
+        <v>853</v>
+      </c>
+      <c r="C430" t="s">
+        <v>853</v>
+      </c>
+      <c r="D430" t="s">
         <v>854</v>
-      </c>
-      <c r="C430" t="s">
-        <v>854</v>
-      </c>
-      <c r="D430" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>3083</v>
+        <v>3071</v>
       </c>
       <c r="B431" t="s">
+        <v>855</v>
+      </c>
+      <c r="C431" t="s">
+        <v>855</v>
+      </c>
+      <c r="D431" t="s">
         <v>856</v>
-      </c>
-      <c r="C431" t="s">
-        <v>856</v>
-      </c>
-      <c r="D431" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>3091</v>
+        <v>3072</v>
       </c>
       <c r="B432" t="s">
+        <v>857</v>
+      </c>
+      <c r="C432" t="s">
+        <v>857</v>
+      </c>
+      <c r="D432" t="s">
         <v>858</v>
-      </c>
-      <c r="C432" t="s">
-        <v>858</v>
-      </c>
-      <c r="D432" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>3101</v>
+        <v>3081</v>
       </c>
       <c r="B433" t="s">
+        <v>859</v>
+      </c>
+      <c r="C433" t="s">
+        <v>859</v>
+      </c>
+      <c r="D433" t="s">
         <v>860</v>
-      </c>
-      <c r="C433" t="s">
-        <v>860</v>
-      </c>
-      <c r="D433" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>3102</v>
+        <v>3082</v>
       </c>
       <c r="B434" t="s">
+        <v>861</v>
+      </c>
+      <c r="C434" t="s">
+        <v>861</v>
+      </c>
+      <c r="D434" t="s">
         <v>862</v>
-      </c>
-      <c r="C434" t="s">
-        <v>862</v>
-      </c>
-      <c r="D434" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>3103</v>
+        <v>3083</v>
       </c>
       <c r="B435" t="s">
+        <v>863</v>
+      </c>
+      <c r="C435" t="s">
+        <v>863</v>
+      </c>
+      <c r="D435" t="s">
         <v>864</v>
-      </c>
-      <c r="C435" t="s">
-        <v>864</v>
-      </c>
-      <c r="D435" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>3104</v>
+        <v>3091</v>
       </c>
       <c r="B436" t="s">
+        <v>865</v>
+      </c>
+      <c r="C436" t="s">
+        <v>865</v>
+      </c>
+      <c r="D436" t="s">
         <v>866</v>
-      </c>
-      <c r="C436" t="s">
-        <v>866</v>
-      </c>
-      <c r="D436" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>3111</v>
+        <v>3101</v>
       </c>
       <c r="B437" t="s">
+        <v>867</v>
+      </c>
+      <c r="C437" t="s">
+        <v>867</v>
+      </c>
+      <c r="D437" t="s">
         <v>868</v>
-      </c>
-      <c r="C437" t="s">
-        <v>868</v>
-      </c>
-      <c r="D437" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>3112</v>
+        <v>3102</v>
       </c>
       <c r="B438" t="s">
+        <v>869</v>
+      </c>
+      <c r="C438" t="s">
+        <v>869</v>
+      </c>
+      <c r="D438" t="s">
         <v>870</v>
-      </c>
-      <c r="C438" t="s">
-        <v>870</v>
-      </c>
-      <c r="D438" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>3121</v>
+        <v>3103</v>
       </c>
       <c r="B439" t="s">
+        <v>871</v>
+      </c>
+      <c r="C439" t="s">
+        <v>871</v>
+      </c>
+      <c r="D439" t="s">
         <v>872</v>
-      </c>
-      <c r="C439" t="s">
-        <v>872</v>
-      </c>
-      <c r="D439" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>4001</v>
+        <v>3104</v>
       </c>
       <c r="B440" t="s">
+        <v>873</v>
+      </c>
+      <c r="C440" t="s">
+        <v>873</v>
+      </c>
+      <c r="D440" t="s">
         <v>874</v>
-      </c>
-      <c r="C440" t="s">
-        <v>874</v>
-      </c>
-      <c r="D440" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>4002</v>
+        <v>3111</v>
       </c>
       <c r="B441" t="s">
+        <v>875</v>
+      </c>
+      <c r="C441" t="s">
+        <v>875</v>
+      </c>
+      <c r="D441" t="s">
         <v>876</v>
-      </c>
-      <c r="C441" t="s">
-        <v>876</v>
-      </c>
-      <c r="D441" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>4003</v>
+        <v>3112</v>
       </c>
       <c r="B442" t="s">
+        <v>877</v>
+      </c>
+      <c r="C442" t="s">
+        <v>877</v>
+      </c>
+      <c r="D442" t="s">
         <v>878</v>
-      </c>
-      <c r="C442" t="s">
-        <v>878</v>
-      </c>
-      <c r="D442" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>4011</v>
+        <v>3121</v>
       </c>
       <c r="B443" t="s">
+        <v>879</v>
+      </c>
+      <c r="C443" t="s">
+        <v>879</v>
+      </c>
+      <c r="D443" t="s">
         <v>880</v>
-      </c>
-      <c r="C443" t="s">
-        <v>880</v>
-      </c>
-      <c r="D443" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>4012</v>
+        <v>4001</v>
       </c>
       <c r="B444" t="s">
+        <v>881</v>
+      </c>
+      <c r="C444" t="s">
+        <v>881</v>
+      </c>
+      <c r="D444" t="s">
         <v>882</v>
-      </c>
-      <c r="C444" t="s">
-        <v>882</v>
-      </c>
-      <c r="D444" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>4013</v>
+        <v>4002</v>
       </c>
       <c r="B445" t="s">
+        <v>883</v>
+      </c>
+      <c r="C445" t="s">
+        <v>883</v>
+      </c>
+      <c r="D445" t="s">
         <v>884</v>
-      </c>
-      <c r="C445" t="s">
-        <v>884</v>
-      </c>
-      <c r="D445" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>4014</v>
+        <v>4003</v>
       </c>
       <c r="B446" t="s">
+        <v>885</v>
+      </c>
+      <c r="C446" t="s">
+        <v>885</v>
+      </c>
+      <c r="D446" t="s">
         <v>886</v>
-      </c>
-      <c r="C446" t="s">
-        <v>886</v>
-      </c>
-      <c r="D446" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>4015</v>
+        <v>4011</v>
       </c>
       <c r="B447" t="s">
+        <v>887</v>
+      </c>
+      <c r="C447" t="s">
+        <v>887</v>
+      </c>
+      <c r="D447" t="s">
         <v>888</v>
-      </c>
-      <c r="C447" t="s">
-        <v>888</v>
-      </c>
-      <c r="D447" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>5001</v>
+        <v>4012</v>
       </c>
       <c r="B448" t="s">
+        <v>889</v>
+      </c>
+      <c r="C448" t="s">
+        <v>889</v>
+      </c>
+      <c r="D448" t="s">
         <v>890</v>
-      </c>
-      <c r="C448" t="s">
-        <v>890</v>
-      </c>
-      <c r="D448" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>5002</v>
+        <v>4013</v>
       </c>
       <c r="B449" t="s">
+        <v>891</v>
+      </c>
+      <c r="C449" t="s">
+        <v>891</v>
+      </c>
+      <c r="D449" t="s">
         <v>892</v>
-      </c>
-      <c r="C449" t="s">
-        <v>892</v>
-      </c>
-      <c r="D449" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>5003</v>
+        <v>4014</v>
       </c>
       <c r="B450" t="s">
+        <v>893</v>
+      </c>
+      <c r="C450" t="s">
+        <v>893</v>
+      </c>
+      <c r="D450" t="s">
         <v>894</v>
-      </c>
-      <c r="C450" t="s">
-        <v>894</v>
-      </c>
-      <c r="D450" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>5004</v>
+        <v>4015</v>
       </c>
       <c r="B451" t="s">
+        <v>895</v>
+      </c>
+      <c r="C451" t="s">
+        <v>895</v>
+      </c>
+      <c r="D451" t="s">
         <v>896</v>
-      </c>
-      <c r="C451" t="s">
-        <v>896</v>
-      </c>
-      <c r="D451" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>5005</v>
+        <v>5001</v>
       </c>
       <c r="B452" t="s">
+        <v>897</v>
+      </c>
+      <c r="C452" t="s">
+        <v>897</v>
+      </c>
+      <c r="D452" t="s">
         <v>898</v>
-      </c>
-      <c r="C452" t="s">
-        <v>898</v>
-      </c>
-      <c r="D452" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>5006</v>
+        <v>5002</v>
       </c>
       <c r="B453" t="s">
+        <v>899</v>
+      </c>
+      <c r="C453" t="s">
+        <v>899</v>
+      </c>
+      <c r="D453" t="s">
         <v>900</v>
-      </c>
-      <c r="C453" t="s">
-        <v>900</v>
-      </c>
-      <c r="D453" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>5007</v>
+        <v>5003</v>
       </c>
       <c r="B454" t="s">
+        <v>901</v>
+      </c>
+      <c r="C454" t="s">
+        <v>901</v>
+      </c>
+      <c r="D454" t="s">
         <v>902</v>
-      </c>
-      <c r="C454" t="s">
-        <v>902</v>
-      </c>
-      <c r="D454" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>5008</v>
+        <v>5004</v>
       </c>
       <c r="B455" t="s">
+        <v>903</v>
+      </c>
+      <c r="C455" t="s">
+        <v>903</v>
+      </c>
+      <c r="D455" t="s">
         <v>904</v>
-      </c>
-      <c r="C455" t="s">
-        <v>904</v>
-      </c>
-      <c r="D455" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>5009</v>
+        <v>5005</v>
       </c>
       <c r="B456" t="s">
+        <v>905</v>
+      </c>
+      <c r="C456" t="s">
+        <v>905</v>
+      </c>
+      <c r="D456" t="s">
         <v>906</v>
-      </c>
-      <c r="C456" t="s">
-        <v>906</v>
-      </c>
-      <c r="D456" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>5010</v>
+        <v>5006</v>
       </c>
       <c r="B457" t="s">
+        <v>907</v>
+      </c>
+      <c r="C457" t="s">
+        <v>907</v>
+      </c>
+      <c r="D457" t="s">
         <v>908</v>
-      </c>
-      <c r="C457" t="s">
-        <v>908</v>
-      </c>
-      <c r="D457" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>5011</v>
+        <v>5007</v>
       </c>
       <c r="B458" t="s">
+        <v>909</v>
+      </c>
+      <c r="C458" t="s">
+        <v>909</v>
+      </c>
+      <c r="D458" t="s">
         <v>910</v>
-      </c>
-      <c r="C458" t="s">
-        <v>910</v>
-      </c>
-      <c r="D458" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>5012</v>
+        <v>5008</v>
       </c>
       <c r="B459" t="s">
+        <v>911</v>
+      </c>
+      <c r="C459" t="s">
+        <v>911</v>
+      </c>
+      <c r="D459" t="s">
         <v>912</v>
-      </c>
-      <c r="C459" t="s">
-        <v>912</v>
-      </c>
-      <c r="D459" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>5013</v>
+        <v>5009</v>
       </c>
       <c r="B460" t="s">
+        <v>913</v>
+      </c>
+      <c r="C460" t="s">
+        <v>913</v>
+      </c>
+      <c r="D460" t="s">
         <v>914</v>
-      </c>
-      <c r="C460" t="s">
-        <v>914</v>
-      </c>
-      <c r="D460" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>5014</v>
+        <v>5010</v>
       </c>
       <c r="B461" t="s">
+        <v>915</v>
+      </c>
+      <c r="C461" t="s">
+        <v>915</v>
+      </c>
+      <c r="D461" t="s">
         <v>916</v>
-      </c>
-      <c r="C461" t="s">
-        <v>916</v>
-      </c>
-      <c r="D461" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>5015</v>
+        <v>5011</v>
       </c>
       <c r="B462" t="s">
+        <v>917</v>
+      </c>
+      <c r="C462" t="s">
+        <v>917</v>
+      </c>
+      <c r="D462" t="s">
         <v>918</v>
-      </c>
-      <c r="C462" t="s">
-        <v>918</v>
-      </c>
-      <c r="D462" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>5016</v>
+        <v>5012</v>
       </c>
       <c r="B463" t="s">
+        <v>919</v>
+      </c>
+      <c r="C463" t="s">
+        <v>919</v>
+      </c>
+      <c r="D463" t="s">
         <v>920</v>
-      </c>
-      <c r="C463" t="s">
-        <v>920</v>
-      </c>
-      <c r="D463" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>5021</v>
+        <v>5013</v>
       </c>
       <c r="B464" t="s">
+        <v>921</v>
+      </c>
+      <c r="C464" t="s">
+        <v>921</v>
+      </c>
+      <c r="D464" t="s">
         <v>922</v>
-      </c>
-      <c r="C464" t="s">
-        <v>922</v>
-      </c>
-      <c r="D464" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>5022</v>
+        <v>5014</v>
       </c>
       <c r="B465" t="s">
+        <v>923</v>
+      </c>
+      <c r="C465" t="s">
+        <v>923</v>
+      </c>
+      <c r="D465" t="s">
         <v>924</v>
-      </c>
-      <c r="C465" t="s">
-        <v>924</v>
-      </c>
-      <c r="D465" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>5023</v>
+        <v>5015</v>
       </c>
       <c r="B466" t="s">
+        <v>925</v>
+      </c>
+      <c r="C466" t="s">
+        <v>925</v>
+      </c>
+      <c r="D466" t="s">
         <v>926</v>
-      </c>
-      <c r="C466" t="s">
-        <v>926</v>
-      </c>
-      <c r="D466" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>5031</v>
+        <v>5016</v>
       </c>
       <c r="B467" t="s">
+        <v>927</v>
+      </c>
+      <c r="C467" t="s">
+        <v>927</v>
+      </c>
+      <c r="D467" t="s">
         <v>928</v>
-      </c>
-      <c r="C467" t="s">
-        <v>928</v>
-      </c>
-      <c r="D467" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>5041</v>
+        <v>5021</v>
       </c>
       <c r="B468" t="s">
+        <v>929</v>
+      </c>
+      <c r="C468" t="s">
+        <v>929</v>
+      </c>
+      <c r="D468" t="s">
         <v>930</v>
-      </c>
-      <c r="C468" t="s">
-        <v>930</v>
-      </c>
-      <c r="D468" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>5042</v>
+        <v>5022</v>
       </c>
       <c r="B469" t="s">
+        <v>931</v>
+      </c>
+      <c r="C469" t="s">
+        <v>931</v>
+      </c>
+      <c r="D469" t="s">
         <v>932</v>
-      </c>
-      <c r="C469" t="s">
-        <v>932</v>
-      </c>
-      <c r="D469" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>5043</v>
+        <v>5023</v>
       </c>
       <c r="B470" t="s">
+        <v>933</v>
+      </c>
+      <c r="C470" t="s">
+        <v>933</v>
+      </c>
+      <c r="D470" t="s">
         <v>934</v>
-      </c>
-      <c r="C470" t="s">
-        <v>934</v>
-      </c>
-      <c r="D470" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>5044</v>
+        <v>5031</v>
       </c>
       <c r="B471" t="s">
+        <v>935</v>
+      </c>
+      <c r="C471" t="s">
+        <v>935</v>
+      </c>
+      <c r="D471" t="s">
         <v>936</v>
-      </c>
-      <c r="C471" t="s">
-        <v>936</v>
-      </c>
-      <c r="D471" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>5051</v>
+        <v>5041</v>
       </c>
       <c r="B472" t="s">
+        <v>937</v>
+      </c>
+      <c r="C472" t="s">
+        <v>937</v>
+      </c>
+      <c r="D472" t="s">
         <v>938</v>
-      </c>
-      <c r="C472" t="s">
-        <v>938</v>
-      </c>
-      <c r="D472" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>5052</v>
+        <v>5042</v>
       </c>
       <c r="B473" t="s">
+        <v>939</v>
+      </c>
+      <c r="C473" t="s">
+        <v>939</v>
+      </c>
+      <c r="D473" t="s">
         <v>940</v>
-      </c>
-      <c r="C473" t="s">
-        <v>940</v>
-      </c>
-      <c r="D473" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>5053</v>
+        <v>5043</v>
       </c>
       <c r="B474" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C474" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D474" t="s">
         <v>942</v>
@@ -11043,49 +11064,49 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>5054</v>
+        <v>5044</v>
       </c>
       <c r="B475" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C475" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D475" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>5055</v>
+        <v>5051</v>
       </c>
       <c r="B476" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="C476" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="D476" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>5056</v>
+        <v>5052</v>
       </c>
       <c r="B477" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C477" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D477" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>5057</v>
+        <v>5053</v>
       </c>
       <c r="B478" t="s">
         <v>947</v>
@@ -11094,18 +11115,18 @@
         <v>947</v>
       </c>
       <c r="D478" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>5061</v>
+        <v>5054</v>
       </c>
       <c r="B479" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C479" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D479" t="s">
         <v>950</v>
@@ -11113,209 +11134,209 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>5062</v>
+        <v>5055</v>
       </c>
       <c r="B480" t="s">
+        <v>947</v>
+      </c>
+      <c r="C480" t="s">
+        <v>947</v>
+      </c>
+      <c r="D480" t="s">
         <v>951</v>
-      </c>
-      <c r="C480" t="s">
-        <v>951</v>
-      </c>
-      <c r="D480" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>5063</v>
+        <v>5056</v>
       </c>
       <c r="B481" t="s">
+        <v>952</v>
+      </c>
+      <c r="C481" t="s">
+        <v>952</v>
+      </c>
+      <c r="D481" t="s">
         <v>953</v>
-      </c>
-      <c r="C481" t="s">
-        <v>953</v>
-      </c>
-      <c r="D481" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>5064</v>
+        <v>5057</v>
       </c>
       <c r="B482" t="s">
+        <v>954</v>
+      </c>
+      <c r="C482" t="s">
+        <v>954</v>
+      </c>
+      <c r="D482" t="s">
         <v>955</v>
-      </c>
-      <c r="C482" t="s">
-        <v>955</v>
-      </c>
-      <c r="D482" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>5065</v>
+        <v>5061</v>
       </c>
       <c r="B483" t="s">
+        <v>956</v>
+      </c>
+      <c r="C483" t="s">
+        <v>956</v>
+      </c>
+      <c r="D483" t="s">
         <v>957</v>
-      </c>
-      <c r="C483" t="s">
-        <v>957</v>
-      </c>
-      <c r="D483" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>5066</v>
+        <v>5062</v>
       </c>
       <c r="B484" t="s">
+        <v>958</v>
+      </c>
+      <c r="C484" t="s">
+        <v>958</v>
+      </c>
+      <c r="D484" t="s">
         <v>959</v>
-      </c>
-      <c r="C484" t="s">
-        <v>959</v>
-      </c>
-      <c r="D484" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>5067</v>
+        <v>5063</v>
       </c>
       <c r="B485" t="s">
+        <v>960</v>
+      </c>
+      <c r="C485" t="s">
+        <v>960</v>
+      </c>
+      <c r="D485" t="s">
         <v>961</v>
-      </c>
-      <c r="C485" t="s">
-        <v>961</v>
-      </c>
-      <c r="D485" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>5068</v>
+        <v>5064</v>
       </c>
       <c r="B486" t="s">
+        <v>962</v>
+      </c>
+      <c r="C486" t="s">
+        <v>962</v>
+      </c>
+      <c r="D486" t="s">
         <v>963</v>
-      </c>
-      <c r="C486" t="s">
-        <v>963</v>
-      </c>
-      <c r="D486" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>5071</v>
+        <v>5065</v>
       </c>
       <c r="B487" t="s">
+        <v>964</v>
+      </c>
+      <c r="C487" t="s">
+        <v>964</v>
+      </c>
+      <c r="D487" t="s">
         <v>965</v>
-      </c>
-      <c r="C487" t="s">
-        <v>965</v>
-      </c>
-      <c r="D487" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>5072</v>
+        <v>5066</v>
       </c>
       <c r="B488" t="s">
+        <v>966</v>
+      </c>
+      <c r="C488" t="s">
+        <v>966</v>
+      </c>
+      <c r="D488" t="s">
         <v>967</v>
-      </c>
-      <c r="C488" t="s">
-        <v>967</v>
-      </c>
-      <c r="D488" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>5073</v>
+        <v>5067</v>
       </c>
       <c r="B489" t="s">
+        <v>968</v>
+      </c>
+      <c r="C489" t="s">
+        <v>968</v>
+      </c>
+      <c r="D489" t="s">
         <v>969</v>
-      </c>
-      <c r="C489" t="s">
-        <v>969</v>
-      </c>
-      <c r="D489" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>5074</v>
+        <v>5068</v>
       </c>
       <c r="B490" t="s">
+        <v>970</v>
+      </c>
+      <c r="C490" t="s">
+        <v>970</v>
+      </c>
+      <c r="D490" t="s">
         <v>971</v>
-      </c>
-      <c r="C490" t="s">
-        <v>971</v>
-      </c>
-      <c r="D490" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>5081</v>
+        <v>5071</v>
       </c>
       <c r="B491" t="s">
+        <v>972</v>
+      </c>
+      <c r="C491" t="s">
+        <v>972</v>
+      </c>
+      <c r="D491" t="s">
         <v>973</v>
-      </c>
-      <c r="C491" t="s">
-        <v>973</v>
-      </c>
-      <c r="D491" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>5091</v>
+        <v>5072</v>
       </c>
       <c r="B492" t="s">
+        <v>974</v>
+      </c>
+      <c r="C492" t="s">
+        <v>974</v>
+      </c>
+      <c r="D492" t="s">
         <v>975</v>
-      </c>
-      <c r="C492" t="s">
-        <v>975</v>
-      </c>
-      <c r="D492" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>5092</v>
+        <v>5073</v>
       </c>
       <c r="B493" t="s">
+        <v>976</v>
+      </c>
+      <c r="C493" t="s">
+        <v>976</v>
+      </c>
+      <c r="D493" t="s">
         <v>977</v>
-      </c>
-      <c r="C493" t="s">
-        <v>977</v>
-      </c>
-      <c r="D493" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>5101</v>
+        <v>5074</v>
       </c>
       <c r="B494" t="s">
-        <v>750</v>
+        <v>978</v>
       </c>
       <c r="C494" t="s">
-        <v>750</v>
+        <v>978</v>
       </c>
       <c r="D494" t="s">
         <v>979</v>
@@ -11323,7 +11344,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>5102</v>
+        <v>5081</v>
       </c>
       <c r="B495" t="s">
         <v>980</v>
@@ -11337,7 +11358,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>5111</v>
+        <v>5091</v>
       </c>
       <c r="B496" t="s">
         <v>982</v>
@@ -11351,7 +11372,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>5112</v>
+        <v>5092</v>
       </c>
       <c r="B497" t="s">
         <v>984</v>
@@ -11365,517 +11386,517 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>5201</v>
+        <v>5101</v>
       </c>
       <c r="B498" t="s">
+        <v>758</v>
+      </c>
+      <c r="C498" t="s">
+        <v>758</v>
+      </c>
+      <c r="D498" t="s">
         <v>986</v>
-      </c>
-      <c r="C498" t="s">
-        <v>986</v>
-      </c>
-      <c r="D498" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>5202</v>
+        <v>5102</v>
       </c>
       <c r="B499" t="s">
+        <v>987</v>
+      </c>
+      <c r="C499" t="s">
+        <v>987</v>
+      </c>
+      <c r="D499" t="s">
         <v>988</v>
-      </c>
-      <c r="C499" t="s">
-        <v>988</v>
-      </c>
-      <c r="D499" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>5203</v>
+        <v>5111</v>
       </c>
       <c r="B500" t="s">
+        <v>989</v>
+      </c>
+      <c r="C500" t="s">
+        <v>989</v>
+      </c>
+      <c r="D500" t="s">
         <v>990</v>
-      </c>
-      <c r="C500" t="s">
-        <v>990</v>
-      </c>
-      <c r="D500" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>5204</v>
+        <v>5112</v>
       </c>
       <c r="B501" t="s">
+        <v>991</v>
+      </c>
+      <c r="C501" t="s">
+        <v>991</v>
+      </c>
+      <c r="D501" t="s">
         <v>992</v>
-      </c>
-      <c r="C501" t="s">
-        <v>992</v>
-      </c>
-      <c r="D501" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>5205</v>
+        <v>5201</v>
       </c>
       <c r="B502" t="s">
+        <v>993</v>
+      </c>
+      <c r="C502" t="s">
+        <v>993</v>
+      </c>
+      <c r="D502" t="s">
         <v>994</v>
-      </c>
-      <c r="C502" t="s">
-        <v>994</v>
-      </c>
-      <c r="D502" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>5206</v>
+        <v>5202</v>
       </c>
       <c r="B503" t="s">
+        <v>995</v>
+      </c>
+      <c r="C503" t="s">
+        <v>995</v>
+      </c>
+      <c r="D503" t="s">
         <v>996</v>
-      </c>
-      <c r="C503" t="s">
-        <v>996</v>
-      </c>
-      <c r="D503" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>5207</v>
+        <v>5203</v>
       </c>
       <c r="B504" t="s">
+        <v>997</v>
+      </c>
+      <c r="C504" t="s">
+        <v>997</v>
+      </c>
+      <c r="D504" t="s">
         <v>998</v>
-      </c>
-      <c r="C504" t="s">
-        <v>998</v>
-      </c>
-      <c r="D504" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>5208</v>
+        <v>5204</v>
       </c>
       <c r="B505" t="s">
+        <v>999</v>
+      </c>
+      <c r="C505" t="s">
+        <v>999</v>
+      </c>
+      <c r="D505" t="s">
         <v>1000</v>
-      </c>
-      <c r="C505" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D505" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506">
-        <v>5209</v>
+        <v>5205</v>
       </c>
       <c r="B506" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D506" t="s">
         <v>1002</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D506" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507">
-        <v>5210</v>
+        <v>5206</v>
       </c>
       <c r="B507" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D507" t="s">
         <v>1004</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D507" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508">
-        <v>5221</v>
+        <v>5207</v>
       </c>
       <c r="B508" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D508" t="s">
         <v>1006</v>
-      </c>
-      <c r="C508" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D508" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509">
-        <v>5222</v>
+        <v>5208</v>
       </c>
       <c r="B509" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D509" t="s">
         <v>1008</v>
-      </c>
-      <c r="C509" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D509" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510">
-        <v>6001</v>
+        <v>5209</v>
       </c>
       <c r="B510" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D510" t="s">
         <v>1010</v>
-      </c>
-      <c r="C510" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D510" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511">
-        <v>6002</v>
+        <v>5210</v>
       </c>
       <c r="B511" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D511" t="s">
         <v>1012</v>
-      </c>
-      <c r="C511" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D511" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512">
-        <v>6003</v>
+        <v>5221</v>
       </c>
       <c r="B512" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D512" t="s">
         <v>1014</v>
-      </c>
-      <c r="C512" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D512" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513">
-        <v>6004</v>
+        <v>5222</v>
       </c>
       <c r="B513" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D513" t="s">
         <v>1016</v>
-      </c>
-      <c r="C513" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D513" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514">
-        <v>6005</v>
+        <v>6001</v>
       </c>
       <c r="B514" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D514" t="s">
         <v>1018</v>
-      </c>
-      <c r="C514" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D514" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515">
-        <v>6006</v>
+        <v>6002</v>
       </c>
       <c r="B515" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D515" t="s">
         <v>1020</v>
-      </c>
-      <c r="C515" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D515" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516">
-        <v>6007</v>
+        <v>6003</v>
       </c>
       <c r="B516" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D516" t="s">
         <v>1022</v>
-      </c>
-      <c r="C516" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D516" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517">
-        <v>6008</v>
+        <v>6004</v>
       </c>
       <c r="B517" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D517" t="s">
         <v>1024</v>
-      </c>
-      <c r="C517" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D517" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="A518">
-        <v>6009</v>
+        <v>6005</v>
       </c>
       <c r="B518" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D518" t="s">
         <v>1026</v>
-      </c>
-      <c r="C518" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D518" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="519" spans="1:4">
       <c r="A519">
-        <v>6010</v>
+        <v>6006</v>
       </c>
       <c r="B519" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D519" t="s">
         <v>1028</v>
-      </c>
-      <c r="C519" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D519" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="520" spans="1:4">
       <c r="A520">
-        <v>6011</v>
+        <v>6007</v>
       </c>
       <c r="B520" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D520" t="s">
         <v>1030</v>
-      </c>
-      <c r="C520" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D520" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="A521">
-        <v>6012</v>
+        <v>6008</v>
       </c>
       <c r="B521" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D521" t="s">
         <v>1032</v>
-      </c>
-      <c r="C521" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D521" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522">
-        <v>6013</v>
+        <v>6009</v>
       </c>
       <c r="B522" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D522" t="s">
         <v>1034</v>
-      </c>
-      <c r="C522" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D522" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523">
-        <v>6014</v>
+        <v>6010</v>
       </c>
       <c r="B523" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D523" t="s">
         <v>1036</v>
-      </c>
-      <c r="C523" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D523" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524">
-        <v>6021</v>
+        <v>6011</v>
       </c>
       <c r="B524" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D524" t="s">
         <v>1038</v>
-      </c>
-      <c r="C524" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D524" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="525" spans="1:4">
       <c r="A525">
-        <v>6099</v>
+        <v>6012</v>
       </c>
       <c r="B525" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D525" t="s">
         <v>1040</v>
-      </c>
-      <c r="C525" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D525" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526">
-        <v>6101</v>
+        <v>6013</v>
       </c>
       <c r="B526" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D526" t="s">
         <v>1042</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D526" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527">
-        <v>7001</v>
+        <v>6014</v>
       </c>
       <c r="B527" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D527" t="s">
         <v>1044</v>
-      </c>
-      <c r="C527" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D527" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="A528">
-        <v>7002</v>
+        <v>6021</v>
       </c>
       <c r="B528" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D528" t="s">
         <v>1046</v>
-      </c>
-      <c r="C528" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D528" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529">
-        <v>7003</v>
+        <v>6099</v>
       </c>
       <c r="B529" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D529" t="s">
         <v>1048</v>
-      </c>
-      <c r="C529" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D529" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="A530">
-        <v>7004</v>
+        <v>6101</v>
       </c>
       <c r="B530" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D530" t="s">
         <v>1050</v>
-      </c>
-      <c r="C530" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D530" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531">
-        <v>7005</v>
+        <v>7001</v>
       </c>
       <c r="B531" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D531" t="s">
         <v>1052</v>
-      </c>
-      <c r="C531" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D531" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532">
-        <v>7011</v>
+        <v>7002</v>
       </c>
       <c r="B532" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D532" t="s">
         <v>1054</v>
-      </c>
-      <c r="C532" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D532" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="533" spans="1:4">
       <c r="A533">
-        <v>7012</v>
+        <v>7003</v>
       </c>
       <c r="B533" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D533" t="s">
         <v>1056</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D533" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="534" spans="1:4">
       <c r="A534">
-        <v>7021</v>
+        <v>7004</v>
       </c>
       <c r="B534" t="s">
-        <v>94</v>
+        <v>1057</v>
       </c>
       <c r="C534" t="s">
-        <v>94</v>
+        <v>1057</v>
       </c>
       <c r="D534" t="s">
         <v>1058</v>
@@ -11883,7 +11904,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535">
-        <v>7022</v>
+        <v>7005</v>
       </c>
       <c r="B535" t="s">
         <v>1059</v>
@@ -11897,7 +11918,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536">
-        <v>7031</v>
+        <v>7011</v>
       </c>
       <c r="B536" t="s">
         <v>1061</v>
@@ -11911,7 +11932,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537">
-        <v>7032</v>
+        <v>7012</v>
       </c>
       <c r="B537" t="s">
         <v>1063</v>
@@ -11925,251 +11946,251 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538">
-        <v>8001</v>
+        <v>7021</v>
       </c>
       <c r="B538" t="s">
+        <v>94</v>
+      </c>
+      <c r="C538" t="s">
+        <v>94</v>
+      </c>
+      <c r="D538" t="s">
         <v>1065</v>
-      </c>
-      <c r="C538" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D538" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="A539">
-        <v>8011</v>
+        <v>7022</v>
       </c>
       <c r="B539" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D539" t="s">
         <v>1067</v>
-      </c>
-      <c r="C539" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D539" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="A540">
-        <v>11002</v>
+        <v>7031</v>
       </c>
       <c r="B540" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D540" t="s">
         <v>1069</v>
-      </c>
-      <c r="C540" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D540" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541">
-        <v>11003</v>
+        <v>7032</v>
       </c>
       <c r="B541" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D541" t="s">
         <v>1071</v>
-      </c>
-      <c r="C541" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D541" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="542" spans="1:4">
       <c r="A542">
-        <v>11206</v>
+        <v>8001</v>
       </c>
       <c r="B542" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D542" t="s">
         <v>1073</v>
-      </c>
-      <c r="C542" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D542" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="543" spans="1:4">
       <c r="A543">
-        <v>12001</v>
+        <v>8011</v>
       </c>
       <c r="B543" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D543" t="s">
         <v>1075</v>
-      </c>
-      <c r="C543" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D543" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="544" spans="1:4">
       <c r="A544">
-        <v>12002</v>
+        <v>11002</v>
       </c>
       <c r="B544" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D544" t="s">
         <v>1077</v>
-      </c>
-      <c r="C544" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D544" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="A545">
-        <v>12003</v>
+        <v>11003</v>
       </c>
       <c r="B545" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D545" t="s">
         <v>1079</v>
-      </c>
-      <c r="C545" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D545" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="546" spans="1:4">
       <c r="A546">
-        <v>13001</v>
+        <v>11206</v>
       </c>
       <c r="B546" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D546" t="s">
         <v>1081</v>
-      </c>
-      <c r="C546" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D546" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547">
-        <v>13002</v>
+        <v>12001</v>
       </c>
       <c r="B547" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D547" t="s">
         <v>1083</v>
-      </c>
-      <c r="C547" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D547" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="A548">
-        <v>13301</v>
+        <v>12002</v>
       </c>
       <c r="B548" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D548" t="s">
         <v>1085</v>
-      </c>
-      <c r="C548" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D548" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549">
-        <v>13302</v>
+        <v>12003</v>
       </c>
       <c r="B549" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D549" t="s">
         <v>1087</v>
-      </c>
-      <c r="C549" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D549" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="550" spans="1:4">
       <c r="A550">
-        <v>13303</v>
+        <v>13001</v>
       </c>
       <c r="B550" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D550" t="s">
         <v>1089</v>
-      </c>
-      <c r="C550" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D550" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="A551">
-        <v>13304</v>
+        <v>13002</v>
       </c>
       <c r="B551" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D551" t="s">
         <v>1091</v>
-      </c>
-      <c r="C551" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D551" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552">
-        <v>13305</v>
+        <v>13301</v>
       </c>
       <c r="B552" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D552" t="s">
         <v>1093</v>
-      </c>
-      <c r="C552" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D552" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553">
-        <v>13401</v>
+        <v>13302</v>
       </c>
       <c r="B553" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D553" t="s">
         <v>1095</v>
-      </c>
-      <c r="C553" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D553" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="554" spans="1:4">
       <c r="A554">
-        <v>13402</v>
+        <v>13303</v>
       </c>
       <c r="B554" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D554" t="s">
         <v>1097</v>
-      </c>
-      <c r="C554" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D554" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555">
-        <v>13403</v>
+        <v>13304</v>
       </c>
       <c r="B555" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C555" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D555" t="s">
         <v>1099</v>
@@ -12177,7 +12198,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556">
-        <v>13404</v>
+        <v>13305</v>
       </c>
       <c r="B556" t="s">
         <v>1100</v>
@@ -12191,7 +12212,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557">
-        <v>13405</v>
+        <v>13401</v>
       </c>
       <c r="B557" t="s">
         <v>1102</v>
@@ -12205,7 +12226,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558">
-        <v>14001</v>
+        <v>13402</v>
       </c>
       <c r="B558" t="s">
         <v>1104</v>
@@ -12219,125 +12240,125 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559">
-        <v>99001</v>
+        <v>13403</v>
       </c>
       <c r="B559" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D559" t="s">
         <v>1106</v>
-      </c>
-      <c r="C559" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D559" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560">
-        <v>99002</v>
+        <v>13404</v>
       </c>
       <c r="B560" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D560" t="s">
         <v>1108</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D560" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561">
-        <v>99011</v>
+        <v>13405</v>
       </c>
       <c r="B561" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D561" t="s">
         <v>1110</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D561" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="562" spans="1:4">
       <c r="A562">
-        <v>99012</v>
+        <v>14001</v>
       </c>
       <c r="B562" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D562" t="s">
         <v>1112</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D562" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="A563">
-        <v>99013</v>
+        <v>99001</v>
       </c>
       <c r="B563" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D563" t="s">
         <v>1114</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D563" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564">
-        <v>99014</v>
+        <v>99002</v>
       </c>
       <c r="B564" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D564" t="s">
         <v>1116</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D564" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565">
-        <v>99101</v>
+        <v>99011</v>
       </c>
       <c r="B565" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D565" t="s">
         <v>1118</v>
-      </c>
-      <c r="C565" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D565" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566">
-        <v>99102</v>
+        <v>99012</v>
       </c>
       <c r="B566" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D566" t="s">
         <v>1120</v>
-      </c>
-      <c r="C566" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D566" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567">
-        <v>99103</v>
+        <v>99013</v>
       </c>
       <c r="B567" t="s">
-        <v>245</v>
+        <v>1121</v>
       </c>
       <c r="C567" t="s">
-        <v>245</v>
+        <v>1121</v>
       </c>
       <c r="D567" t="s">
         <v>1122</v>
@@ -12345,7 +12366,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568">
-        <v>99104</v>
+        <v>99014</v>
       </c>
       <c r="B568" t="s">
         <v>1123</v>
@@ -12359,7 +12380,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569">
-        <v>99105</v>
+        <v>99101</v>
       </c>
       <c r="B569" t="s">
         <v>1125</v>
@@ -12373,7 +12394,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570">
-        <v>99201</v>
+        <v>99102</v>
       </c>
       <c r="B570" t="s">
         <v>1127</v>
@@ -12387,58 +12408,114 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571">
-        <v>99202</v>
+        <v>99103</v>
       </c>
       <c r="B571" t="s">
+        <v>245</v>
+      </c>
+      <c r="C571" t="s">
+        <v>245</v>
+      </c>
+      <c r="D571" t="s">
         <v>1129</v>
-      </c>
-      <c r="C571" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D571" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="A572">
-        <v>99203</v>
+        <v>99104</v>
       </c>
       <c r="B572" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D572" t="s">
         <v>1131</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D572" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573">
-        <v>99204</v>
+        <v>99105</v>
       </c>
       <c r="B573" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D573" t="s">
         <v>1133</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D573" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="574" spans="1:4">
       <c r="A574">
+        <v>99201</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575">
+        <v>99202</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576">
+        <v>99203</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577">
+        <v>99204</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578">
         <v>99205</v>
       </c>
-      <c r="B574" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C574" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D574" t="s">
-        <v>1136</v>
+      <c r="B578" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1143</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/Assets/Data/Excel/excel_ui_text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23430" windowHeight="10290"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1146">
   <si>
     <t>id</t>
   </si>
@@ -2537,6 +2537,12 @@
   </si>
   <si>
     <t>Dialog_ImproveCharacterCheckForSend</t>
+  </si>
+  <si>
+    <t>是否扩建庭院?</t>
+  </si>
+  <si>
+    <t>Dialog_BuildCourtyCheck</t>
   </si>
   <si>
     <t>是否亲自参加{0}，此次活动将消耗{1}</t>
@@ -4413,10 +4419,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D578"/>
+  <dimension ref="A1:D579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="H186" sqref="H186"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10350,7 +10356,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>3021</v>
+        <v>3016</v>
       </c>
       <c r="B424" t="s">
         <v>841</v>
@@ -10364,7 +10370,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B425" t="s">
         <v>843</v>
@@ -10378,7 +10384,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>3041</v>
+        <v>3022</v>
       </c>
       <c r="B426" t="s">
         <v>845</v>
@@ -10392,7 +10398,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="B427" t="s">
         <v>847</v>
@@ -10406,7 +10412,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>3061</v>
+        <v>3051</v>
       </c>
       <c r="B428" t="s">
         <v>849</v>
@@ -10420,7 +10426,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B429" t="s">
         <v>851</v>
@@ -10434,7 +10440,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B430" t="s">
         <v>853</v>
@@ -10448,7 +10454,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>3071</v>
+        <v>3063</v>
       </c>
       <c r="B431" t="s">
         <v>855</v>
@@ -10462,7 +10468,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="B432" t="s">
         <v>857</v>
@@ -10476,7 +10482,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>3081</v>
+        <v>3072</v>
       </c>
       <c r="B433" t="s">
         <v>859</v>
@@ -10490,7 +10496,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="B434" t="s">
         <v>861</v>
@@ -10504,7 +10510,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B435" t="s">
         <v>863</v>
@@ -10518,7 +10524,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>3091</v>
+        <v>3083</v>
       </c>
       <c r="B436" t="s">
         <v>865</v>
@@ -10532,7 +10538,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="B437" t="s">
         <v>867</v>
@@ -10546,7 +10552,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B438" t="s">
         <v>869</v>
@@ -10560,7 +10566,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B439" t="s">
         <v>871</v>
@@ -10574,7 +10580,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B440" t="s">
         <v>873</v>
@@ -10588,7 +10594,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>3111</v>
+        <v>3104</v>
       </c>
       <c r="B441" t="s">
         <v>875</v>
@@ -10602,7 +10608,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B442" t="s">
         <v>877</v>
@@ -10616,7 +10622,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>3121</v>
+        <v>3112</v>
       </c>
       <c r="B443" t="s">
         <v>879</v>
@@ -10630,7 +10636,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>4001</v>
+        <v>3121</v>
       </c>
       <c r="B444" t="s">
         <v>881</v>
@@ -10644,7 +10650,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B445" t="s">
         <v>883</v>
@@ -10658,7 +10664,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B446" t="s">
         <v>885</v>
@@ -10672,7 +10678,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>4011</v>
+        <v>4003</v>
       </c>
       <c r="B447" t="s">
         <v>887</v>
@@ -10686,7 +10692,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B448" t="s">
         <v>889</v>
@@ -10700,7 +10706,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B449" t="s">
         <v>891</v>
@@ -10714,7 +10720,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B450" t="s">
         <v>893</v>
@@ -10728,7 +10734,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="B451" t="s">
         <v>895</v>
@@ -10742,7 +10748,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>5001</v>
+        <v>4015</v>
       </c>
       <c r="B452" t="s">
         <v>897</v>
@@ -10756,7 +10762,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B453" t="s">
         <v>899</v>
@@ -10770,7 +10776,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B454" t="s">
         <v>901</v>
@@ -10784,7 +10790,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B455" t="s">
         <v>903</v>
@@ -10798,7 +10804,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B456" t="s">
         <v>905</v>
@@ -10812,7 +10818,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B457" t="s">
         <v>907</v>
@@ -10826,7 +10832,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B458" t="s">
         <v>909</v>
@@ -10840,7 +10846,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B459" t="s">
         <v>911</v>
@@ -10854,7 +10860,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B460" t="s">
         <v>913</v>
@@ -10868,7 +10874,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B461" t="s">
         <v>915</v>
@@ -10882,7 +10888,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="B462" t="s">
         <v>917</v>
@@ -10896,7 +10902,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="B463" t="s">
         <v>919</v>
@@ -10910,7 +10916,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="B464" t="s">
         <v>921</v>
@@ -10924,7 +10930,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>5014</v>
+        <v>5013</v>
       </c>
       <c r="B465" t="s">
         <v>923</v>
@@ -10938,7 +10944,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="B466" t="s">
         <v>925</v>
@@ -10952,7 +10958,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="B467" t="s">
         <v>927</v>
@@ -10966,7 +10972,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>5021</v>
+        <v>5016</v>
       </c>
       <c r="B468" t="s">
         <v>929</v>
@@ -10980,7 +10986,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="B469" t="s">
         <v>931</v>
@@ -10994,7 +11000,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="B470" t="s">
         <v>933</v>
@@ -11008,7 +11014,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>5031</v>
+        <v>5023</v>
       </c>
       <c r="B471" t="s">
         <v>935</v>
@@ -11022,7 +11028,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>5041</v>
+        <v>5031</v>
       </c>
       <c r="B472" t="s">
         <v>937</v>
@@ -11036,7 +11042,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B473" t="s">
         <v>939</v>
@@ -11050,7 +11056,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="B474" t="s">
         <v>941</v>
@@ -11064,7 +11070,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="B475" t="s">
         <v>943</v>
@@ -11078,7 +11084,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>5051</v>
+        <v>5044</v>
       </c>
       <c r="B476" t="s">
         <v>945</v>
@@ -11092,7 +11098,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="B477" t="s">
         <v>947</v>
@@ -11106,55 +11112,55 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="B478" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C478" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D478" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="B479" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C479" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D479" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="B480" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C480" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D480" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="B481" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C481" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D481" t="s">
         <v>953</v>
@@ -11162,7 +11168,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="B482" t="s">
         <v>954</v>
@@ -11176,7 +11182,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>5061</v>
+        <v>5057</v>
       </c>
       <c r="B483" t="s">
         <v>956</v>
@@ -11190,7 +11196,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="B484" t="s">
         <v>958</v>
@@ -11204,7 +11210,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="B485" t="s">
         <v>960</v>
@@ -11218,7 +11224,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="B486" t="s">
         <v>962</v>
@@ -11232,7 +11238,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="B487" t="s">
         <v>964</v>
@@ -11246,7 +11252,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="B488" t="s">
         <v>966</v>
@@ -11260,7 +11266,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="B489" t="s">
         <v>968</v>
@@ -11274,7 +11280,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="B490" t="s">
         <v>970</v>
@@ -11288,7 +11294,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>5071</v>
+        <v>5068</v>
       </c>
       <c r="B491" t="s">
         <v>972</v>
@@ -11302,7 +11308,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="B492" t="s">
         <v>974</v>
@@ -11316,7 +11322,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="B493" t="s">
         <v>976</v>
@@ -11330,7 +11336,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="B494" t="s">
         <v>978</v>
@@ -11344,7 +11350,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>5081</v>
+        <v>5074</v>
       </c>
       <c r="B495" t="s">
         <v>980</v>
@@ -11358,7 +11364,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>5091</v>
+        <v>5081</v>
       </c>
       <c r="B496" t="s">
         <v>982</v>
@@ -11372,7 +11378,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="B497" t="s">
         <v>984</v>
@@ -11386,27 +11392,27 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>5101</v>
+        <v>5092</v>
       </c>
       <c r="B498" t="s">
-        <v>758</v>
+        <v>986</v>
       </c>
       <c r="C498" t="s">
-        <v>758</v>
+        <v>986</v>
       </c>
       <c r="D498" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B499" t="s">
-        <v>987</v>
+        <v>758</v>
       </c>
       <c r="C499" t="s">
-        <v>987</v>
+        <v>758</v>
       </c>
       <c r="D499" t="s">
         <v>988</v>
@@ -11414,7 +11420,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>5111</v>
+        <v>5102</v>
       </c>
       <c r="B500" t="s">
         <v>989</v>
@@ -11428,7 +11434,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="B501" t="s">
         <v>991</v>
@@ -11442,7 +11448,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>5201</v>
+        <v>5112</v>
       </c>
       <c r="B502" t="s">
         <v>993</v>
@@ -11456,7 +11462,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B503" t="s">
         <v>995</v>
@@ -11470,7 +11476,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B504" t="s">
         <v>997</v>
@@ -11484,7 +11490,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B505" t="s">
         <v>999</v>
@@ -11498,7 +11504,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B506" t="s">
         <v>1001</v>
@@ -11512,7 +11518,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B507" t="s">
         <v>1003</v>
@@ -11526,7 +11532,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B508" t="s">
         <v>1005</v>
@@ -11540,7 +11546,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B509" t="s">
         <v>1007</v>
@@ -11554,7 +11560,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B510" t="s">
         <v>1009</v>
@@ -11568,7 +11574,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511">
-        <v>5210</v>
+        <v>5209</v>
       </c>
       <c r="B511" t="s">
         <v>1011</v>
@@ -11582,7 +11588,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512">
-        <v>5221</v>
+        <v>5210</v>
       </c>
       <c r="B512" t="s">
         <v>1013</v>
@@ -11596,7 +11602,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="B513" t="s">
         <v>1015</v>
@@ -11610,7 +11616,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514">
-        <v>6001</v>
+        <v>5222</v>
       </c>
       <c r="B514" t="s">
         <v>1017</v>
@@ -11624,7 +11630,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B515" t="s">
         <v>1019</v>
@@ -11638,7 +11644,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B516" t="s">
         <v>1021</v>
@@ -11652,7 +11658,7 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B517" t="s">
         <v>1023</v>
@@ -11666,7 +11672,7 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B518" t="s">
         <v>1025</v>
@@ -11680,7 +11686,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="B519" t="s">
         <v>1027</v>
@@ -11694,7 +11700,7 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="B520" t="s">
         <v>1029</v>
@@ -11708,7 +11714,7 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B521" t="s">
         <v>1031</v>
@@ -11722,7 +11728,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="B522" t="s">
         <v>1033</v>
@@ -11736,7 +11742,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="B523" t="s">
         <v>1035</v>
@@ -11750,7 +11756,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="B524" t="s">
         <v>1037</v>
@@ -11764,7 +11770,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="B525" t="s">
         <v>1039</v>
@@ -11778,7 +11784,7 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526">
-        <v>6013</v>
+        <v>6012</v>
       </c>
       <c r="B526" t="s">
         <v>1041</v>
@@ -11792,7 +11798,7 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="B527" t="s">
         <v>1043</v>
@@ -11806,7 +11812,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528">
-        <v>6021</v>
+        <v>6014</v>
       </c>
       <c r="B528" t="s">
         <v>1045</v>
@@ -11820,7 +11826,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529">
-        <v>6099</v>
+        <v>6021</v>
       </c>
       <c r="B529" t="s">
         <v>1047</v>
@@ -11834,7 +11840,7 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530">
-        <v>6101</v>
+        <v>6099</v>
       </c>
       <c r="B530" t="s">
         <v>1049</v>
@@ -11848,7 +11854,7 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531">
-        <v>7001</v>
+        <v>6101</v>
       </c>
       <c r="B531" t="s">
         <v>1051</v>
@@ -11862,7 +11868,7 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B532" t="s">
         <v>1053</v>
@@ -11876,7 +11882,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B533" t="s">
         <v>1055</v>
@@ -11890,7 +11896,7 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B534" t="s">
         <v>1057</v>
@@ -11904,7 +11910,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="B535" t="s">
         <v>1059</v>
@@ -11918,7 +11924,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536">
-        <v>7011</v>
+        <v>7005</v>
       </c>
       <c r="B536" t="s">
         <v>1061</v>
@@ -11932,7 +11938,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537">
-        <v>7012</v>
+        <v>7011</v>
       </c>
       <c r="B537" t="s">
         <v>1063</v>
@@ -11946,27 +11952,27 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538">
-        <v>7021</v>
+        <v>7012</v>
       </c>
       <c r="B538" t="s">
-        <v>94</v>
+        <v>1065</v>
       </c>
       <c r="C538" t="s">
-        <v>94</v>
+        <v>1065</v>
       </c>
       <c r="D538" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="A539">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B539" t="s">
-        <v>1066</v>
+        <v>94</v>
       </c>
       <c r="C539" t="s">
-        <v>1066</v>
+        <v>94</v>
       </c>
       <c r="D539" t="s">
         <v>1067</v>
@@ -11974,7 +11980,7 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540">
-        <v>7031</v>
+        <v>7022</v>
       </c>
       <c r="B540" t="s">
         <v>1068</v>
@@ -11988,7 +11994,7 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="B541" t="s">
         <v>1070</v>
@@ -12002,7 +12008,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542">
-        <v>8001</v>
+        <v>7032</v>
       </c>
       <c r="B542" t="s">
         <v>1072</v>
@@ -12016,7 +12022,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543">
-        <v>8011</v>
+        <v>8001</v>
       </c>
       <c r="B543" t="s">
         <v>1074</v>
@@ -12030,7 +12036,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544">
-        <v>11002</v>
+        <v>8011</v>
       </c>
       <c r="B544" t="s">
         <v>1076</v>
@@ -12044,7 +12050,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B545" t="s">
         <v>1078</v>
@@ -12058,7 +12064,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546">
-        <v>11206</v>
+        <v>11003</v>
       </c>
       <c r="B546" t="s">
         <v>1080</v>
@@ -12072,7 +12078,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547">
-        <v>12001</v>
+        <v>11206</v>
       </c>
       <c r="B547" t="s">
         <v>1082</v>
@@ -12086,7 +12092,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="B548" t="s">
         <v>1084</v>
@@ -12100,7 +12106,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="B549" t="s">
         <v>1086</v>
@@ -12114,7 +12120,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550">
-        <v>13001</v>
+        <v>12003</v>
       </c>
       <c r="B550" t="s">
         <v>1088</v>
@@ -12128,7 +12134,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551">
-        <v>13002</v>
+        <v>13001</v>
       </c>
       <c r="B551" t="s">
         <v>1090</v>
@@ -12142,7 +12148,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552">
-        <v>13301</v>
+        <v>13002</v>
       </c>
       <c r="B552" t="s">
         <v>1092</v>
@@ -12156,7 +12162,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553">
-        <v>13302</v>
+        <v>13301</v>
       </c>
       <c r="B553" t="s">
         <v>1094</v>
@@ -12170,7 +12176,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554">
-        <v>13303</v>
+        <v>13302</v>
       </c>
       <c r="B554" t="s">
         <v>1096</v>
@@ -12184,7 +12190,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555">
-        <v>13304</v>
+        <v>13303</v>
       </c>
       <c r="B555" t="s">
         <v>1098</v>
@@ -12198,7 +12204,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556">
-        <v>13305</v>
+        <v>13304</v>
       </c>
       <c r="B556" t="s">
         <v>1100</v>
@@ -12212,7 +12218,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557">
-        <v>13401</v>
+        <v>13305</v>
       </c>
       <c r="B557" t="s">
         <v>1102</v>
@@ -12226,7 +12232,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558">
-        <v>13402</v>
+        <v>13401</v>
       </c>
       <c r="B558" t="s">
         <v>1104</v>
@@ -12240,27 +12246,27 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559">
-        <v>13403</v>
+        <v>13402</v>
       </c>
       <c r="B559" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C559" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D559" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560">
-        <v>13404</v>
+        <v>13403</v>
       </c>
       <c r="B560" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C560" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D560" t="s">
         <v>1108</v>
@@ -12268,7 +12274,7 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561">
-        <v>13405</v>
+        <v>13404</v>
       </c>
       <c r="B561" t="s">
         <v>1109</v>
@@ -12282,7 +12288,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562">
-        <v>14001</v>
+        <v>13405</v>
       </c>
       <c r="B562" t="s">
         <v>1111</v>
@@ -12296,7 +12302,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563">
-        <v>99001</v>
+        <v>14001</v>
       </c>
       <c r="B563" t="s">
         <v>1113</v>
@@ -12310,7 +12316,7 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564">
-        <v>99002</v>
+        <v>99001</v>
       </c>
       <c r="B564" t="s">
         <v>1115</v>
@@ -12324,7 +12330,7 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565">
-        <v>99011</v>
+        <v>99002</v>
       </c>
       <c r="B565" t="s">
         <v>1117</v>
@@ -12338,7 +12344,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566">
-        <v>99012</v>
+        <v>99011</v>
       </c>
       <c r="B566" t="s">
         <v>1119</v>
@@ -12352,7 +12358,7 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567">
-        <v>99013</v>
+        <v>99012</v>
       </c>
       <c r="B567" t="s">
         <v>1121</v>
@@ -12366,7 +12372,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568">
-        <v>99014</v>
+        <v>99013</v>
       </c>
       <c r="B568" t="s">
         <v>1123</v>
@@ -12380,7 +12386,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569">
-        <v>99101</v>
+        <v>99014</v>
       </c>
       <c r="B569" t="s">
         <v>1125</v>
@@ -12394,7 +12400,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570">
-        <v>99102</v>
+        <v>99101</v>
       </c>
       <c r="B570" t="s">
         <v>1127</v>
@@ -12408,27 +12414,27 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571">
-        <v>99103</v>
+        <v>99102</v>
       </c>
       <c r="B571" t="s">
-        <v>245</v>
+        <v>1129</v>
       </c>
       <c r="C571" t="s">
-        <v>245</v>
+        <v>1129</v>
       </c>
       <c r="D571" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="A572">
-        <v>99104</v>
+        <v>99103</v>
       </c>
       <c r="B572" t="s">
-        <v>1130</v>
+        <v>245</v>
       </c>
       <c r="C572" t="s">
-        <v>1130</v>
+        <v>245</v>
       </c>
       <c r="D572" t="s">
         <v>1131</v>
@@ -12436,7 +12442,7 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573">
-        <v>99105</v>
+        <v>99104</v>
       </c>
       <c r="B573" t="s">
         <v>1132</v>
@@ -12450,7 +12456,7 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574">
-        <v>99201</v>
+        <v>99105</v>
       </c>
       <c r="B574" t="s">
         <v>1134</v>
@@ -12464,7 +12470,7 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575">
-        <v>99202</v>
+        <v>99201</v>
       </c>
       <c r="B575" t="s">
         <v>1136</v>
@@ -12478,7 +12484,7 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576">
-        <v>99203</v>
+        <v>99202</v>
       </c>
       <c r="B576" t="s">
         <v>1138</v>
@@ -12492,7 +12498,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577">
-        <v>99204</v>
+        <v>99203</v>
       </c>
       <c r="B577" t="s">
         <v>1140</v>
@@ -12506,7 +12512,7 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578">
-        <v>99205</v>
+        <v>99204</v>
       </c>
       <c r="B578" t="s">
         <v>1142</v>
@@ -12516,6 +12522,20 @@
       </c>
       <c r="D578" t="s">
         <v>1143</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579">
+        <v>99205</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1145</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/Assets/Data/Excel/excel_ui_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1148">
   <si>
     <t>id</t>
   </si>
@@ -2270,6 +2270,12 @@
   </si>
   <si>
     <t>Toast_NO_in</t>
+  </si>
+  <si>
+    <t>还未扩建庭院！</t>
+  </si>
+  <si>
+    <t>Toast_NO_in_2</t>
   </si>
   <si>
     <t>空空如也</t>
@@ -4419,10 +4425,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D579"/>
+  <dimension ref="A1:D580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="E374" sqref="E374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9712,7 +9718,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>1998</v>
+        <v>1362</v>
       </c>
       <c r="B378" t="s">
         <v>752</v>
@@ -9726,7 +9732,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B379" t="s">
         <v>754</v>
@@ -9740,41 +9746,41 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B380" t="s">
-        <v>151</v>
+        <v>756</v>
       </c>
       <c r="C380" t="s">
-        <v>151</v>
+        <v>756</v>
       </c>
       <c r="D380" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B381" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C381" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D381" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B382" t="s">
-        <v>758</v>
+        <v>153</v>
       </c>
       <c r="C382" t="s">
-        <v>758</v>
+        <v>153</v>
       </c>
       <c r="D382" t="s">
         <v>759</v>
@@ -9782,7 +9788,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B383" t="s">
         <v>760</v>
@@ -9796,7 +9802,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B384" t="s">
         <v>762</v>
@@ -9810,7 +9816,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B385" t="s">
         <v>764</v>
@@ -9824,7 +9830,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B386" t="s">
         <v>766</v>
@@ -9838,7 +9844,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B387" t="s">
         <v>768</v>
@@ -9852,7 +9858,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B388" t="s">
         <v>770</v>
@@ -9866,7 +9872,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B389" t="s">
         <v>772</v>
@@ -9880,7 +9886,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B390" t="s">
         <v>774</v>
@@ -9894,7 +9900,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B391" t="s">
         <v>776</v>
@@ -9908,7 +9914,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B392" t="s">
         <v>778</v>
@@ -9922,7 +9928,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B393" t="s">
         <v>780</v>
@@ -9936,7 +9942,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="B394" t="s">
         <v>782</v>
@@ -9950,7 +9956,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B395" t="s">
         <v>784</v>
@@ -9964,7 +9970,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="B396" t="s">
         <v>786</v>
@@ -9978,7 +9984,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B397" t="s">
         <v>788</v>
@@ -9992,7 +9998,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B398" t="s">
         <v>790</v>
@@ -10006,7 +10012,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B399" t="s">
         <v>792</v>
@@ -10020,7 +10026,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B400" t="s">
         <v>794</v>
@@ -10034,7 +10040,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B401" t="s">
         <v>796</v>
@@ -10048,7 +10054,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B402" t="s">
         <v>798</v>
@@ -10062,7 +10068,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B403" t="s">
         <v>800</v>
@@ -10076,7 +10082,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B404" t="s">
         <v>802</v>
@@ -10090,7 +10096,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B405" t="s">
         <v>804</v>
@@ -10104,7 +10110,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B406" t="s">
         <v>806</v>
@@ -10118,7 +10124,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B407" t="s">
         <v>808</v>
@@ -10132,27 +10138,27 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B408" t="s">
-        <v>361</v>
+        <v>810</v>
       </c>
       <c r="C408" t="s">
-        <v>361</v>
+        <v>810</v>
       </c>
       <c r="D408" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>3001</v>
+        <v>2043</v>
       </c>
       <c r="B409" t="s">
-        <v>811</v>
+        <v>361</v>
       </c>
       <c r="C409" t="s">
-        <v>811</v>
+        <v>361</v>
       </c>
       <c r="D409" t="s">
         <v>812</v>
@@ -10160,7 +10166,7 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B410" t="s">
         <v>813</v>
@@ -10174,7 +10180,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B411" t="s">
         <v>815</v>
@@ -10188,7 +10194,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B412" t="s">
         <v>817</v>
@@ -10202,7 +10208,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B413" t="s">
         <v>819</v>
@@ -10216,7 +10222,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B414" t="s">
         <v>821</v>
@@ -10230,7 +10236,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B415" t="s">
         <v>823</v>
@@ -10244,7 +10250,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B416" t="s">
         <v>825</v>
@@ -10258,7 +10264,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B417" t="s">
         <v>827</v>
@@ -10272,7 +10278,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B418" t="s">
         <v>829</v>
@@ -10286,7 +10292,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B419" t="s">
         <v>831</v>
@@ -10300,7 +10306,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B420" t="s">
         <v>833</v>
@@ -10314,7 +10320,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="B421" t="s">
         <v>835</v>
@@ -10328,7 +10334,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B422" t="s">
         <v>837</v>
@@ -10342,7 +10348,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B423" t="s">
         <v>839</v>
@@ -10356,7 +10362,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B424" t="s">
         <v>841</v>
@@ -10370,7 +10376,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>3021</v>
+        <v>3016</v>
       </c>
       <c r="B425" t="s">
         <v>843</v>
@@ -10384,7 +10390,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B426" t="s">
         <v>845</v>
@@ -10398,7 +10404,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>3041</v>
+        <v>3022</v>
       </c>
       <c r="B427" t="s">
         <v>847</v>
@@ -10412,7 +10418,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="B428" t="s">
         <v>849</v>
@@ -10426,7 +10432,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>3061</v>
+        <v>3051</v>
       </c>
       <c r="B429" t="s">
         <v>851</v>
@@ -10440,7 +10446,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B430" t="s">
         <v>853</v>
@@ -10454,7 +10460,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B431" t="s">
         <v>855</v>
@@ -10468,7 +10474,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>3071</v>
+        <v>3063</v>
       </c>
       <c r="B432" t="s">
         <v>857</v>
@@ -10482,7 +10488,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="B433" t="s">
         <v>859</v>
@@ -10496,7 +10502,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>3081</v>
+        <v>3072</v>
       </c>
       <c r="B434" t="s">
         <v>861</v>
@@ -10510,7 +10516,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="B435" t="s">
         <v>863</v>
@@ -10524,7 +10530,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B436" t="s">
         <v>865</v>
@@ -10538,7 +10544,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>3091</v>
+        <v>3083</v>
       </c>
       <c r="B437" t="s">
         <v>867</v>
@@ -10552,7 +10558,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>3101</v>
+        <v>3091</v>
       </c>
       <c r="B438" t="s">
         <v>869</v>
@@ -10566,7 +10572,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B439" t="s">
         <v>871</v>
@@ -10580,7 +10586,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B440" t="s">
         <v>873</v>
@@ -10594,7 +10600,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B441" t="s">
         <v>875</v>
@@ -10608,7 +10614,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>3111</v>
+        <v>3104</v>
       </c>
       <c r="B442" t="s">
         <v>877</v>
@@ -10622,7 +10628,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B443" t="s">
         <v>879</v>
@@ -10636,7 +10642,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>3121</v>
+        <v>3112</v>
       </c>
       <c r="B444" t="s">
         <v>881</v>
@@ -10650,7 +10656,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>4001</v>
+        <v>3121</v>
       </c>
       <c r="B445" t="s">
         <v>883</v>
@@ -10664,7 +10670,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B446" t="s">
         <v>885</v>
@@ -10678,7 +10684,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B447" t="s">
         <v>887</v>
@@ -10692,7 +10698,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>4011</v>
+        <v>4003</v>
       </c>
       <c r="B448" t="s">
         <v>889</v>
@@ -10706,7 +10712,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B449" t="s">
         <v>891</v>
@@ -10720,7 +10726,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B450" t="s">
         <v>893</v>
@@ -10734,7 +10740,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B451" t="s">
         <v>895</v>
@@ -10748,7 +10754,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="B452" t="s">
         <v>897</v>
@@ -10762,7 +10768,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>5001</v>
+        <v>4015</v>
       </c>
       <c r="B453" t="s">
         <v>899</v>
@@ -10776,7 +10782,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B454" t="s">
         <v>901</v>
@@ -10790,7 +10796,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B455" t="s">
         <v>903</v>
@@ -10804,7 +10810,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B456" t="s">
         <v>905</v>
@@ -10818,7 +10824,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B457" t="s">
         <v>907</v>
@@ -10832,7 +10838,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B458" t="s">
         <v>909</v>
@@ -10846,7 +10852,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B459" t="s">
         <v>911</v>
@@ -10860,7 +10866,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B460" t="s">
         <v>913</v>
@@ -10874,7 +10880,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B461" t="s">
         <v>915</v>
@@ -10888,7 +10894,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B462" t="s">
         <v>917</v>
@@ -10902,7 +10908,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="B463" t="s">
         <v>919</v>
@@ -10916,7 +10922,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="B464" t="s">
         <v>921</v>
@@ -10930,7 +10936,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="B465" t="s">
         <v>923</v>
@@ -10944,7 +10950,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>5014</v>
+        <v>5013</v>
       </c>
       <c r="B466" t="s">
         <v>925</v>
@@ -10958,7 +10964,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="B467" t="s">
         <v>927</v>
@@ -10972,7 +10978,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="B468" t="s">
         <v>929</v>
@@ -10986,7 +10992,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>5021</v>
+        <v>5016</v>
       </c>
       <c r="B469" t="s">
         <v>931</v>
@@ -11000,7 +11006,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>5022</v>
+        <v>5021</v>
       </c>
       <c r="B470" t="s">
         <v>933</v>
@@ -11014,7 +11020,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="B471" t="s">
         <v>935</v>
@@ -11028,7 +11034,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>5031</v>
+        <v>5023</v>
       </c>
       <c r="B472" t="s">
         <v>937</v>
@@ -11042,7 +11048,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>5041</v>
+        <v>5031</v>
       </c>
       <c r="B473" t="s">
         <v>939</v>
@@ -11056,7 +11062,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="B474" t="s">
         <v>941</v>
@@ -11070,7 +11076,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="B475" t="s">
         <v>943</v>
@@ -11084,7 +11090,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="B476" t="s">
         <v>945</v>
@@ -11098,7 +11104,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>5051</v>
+        <v>5044</v>
       </c>
       <c r="B477" t="s">
         <v>947</v>
@@ -11112,7 +11118,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="B478" t="s">
         <v>949</v>
@@ -11126,55 +11132,55 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="B479" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C479" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D479" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="B480" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C480" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D480" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="B481" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C481" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D481" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="B482" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C482" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D482" t="s">
         <v>955</v>
@@ -11182,7 +11188,7 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="B483" t="s">
         <v>956</v>
@@ -11196,7 +11202,7 @@
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>5061</v>
+        <v>5057</v>
       </c>
       <c r="B484" t="s">
         <v>958</v>
@@ -11210,7 +11216,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="B485" t="s">
         <v>960</v>
@@ -11224,7 +11230,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="B486" t="s">
         <v>962</v>
@@ -11238,7 +11244,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="B487" t="s">
         <v>964</v>
@@ -11252,7 +11258,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="B488" t="s">
         <v>966</v>
@@ -11266,7 +11272,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="B489" t="s">
         <v>968</v>
@@ -11280,7 +11286,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="B490" t="s">
         <v>970</v>
@@ -11294,7 +11300,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="B491" t="s">
         <v>972</v>
@@ -11308,7 +11314,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>5071</v>
+        <v>5068</v>
       </c>
       <c r="B492" t="s">
         <v>974</v>
@@ -11322,7 +11328,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="B493" t="s">
         <v>976</v>
@@ -11336,7 +11342,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="B494" t="s">
         <v>978</v>
@@ -11350,7 +11356,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="B495" t="s">
         <v>980</v>
@@ -11364,7 +11370,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>5081</v>
+        <v>5074</v>
       </c>
       <c r="B496" t="s">
         <v>982</v>
@@ -11378,7 +11384,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>5091</v>
+        <v>5081</v>
       </c>
       <c r="B497" t="s">
         <v>984</v>
@@ -11392,7 +11398,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="B498" t="s">
         <v>986</v>
@@ -11406,27 +11412,27 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>5101</v>
+        <v>5092</v>
       </c>
       <c r="B499" t="s">
-        <v>758</v>
+        <v>988</v>
       </c>
       <c r="C499" t="s">
-        <v>758</v>
+        <v>988</v>
       </c>
       <c r="D499" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B500" t="s">
-        <v>989</v>
+        <v>760</v>
       </c>
       <c r="C500" t="s">
-        <v>989</v>
+        <v>760</v>
       </c>
       <c r="D500" t="s">
         <v>990</v>
@@ -11434,7 +11440,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>5111</v>
+        <v>5102</v>
       </c>
       <c r="B501" t="s">
         <v>991</v>
@@ -11448,7 +11454,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="B502" t="s">
         <v>993</v>
@@ -11462,7 +11468,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>5201</v>
+        <v>5112</v>
       </c>
       <c r="B503" t="s">
         <v>995</v>
@@ -11476,7 +11482,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B504" t="s">
         <v>997</v>
@@ -11490,7 +11496,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B505" t="s">
         <v>999</v>
@@ -11504,7 +11510,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B506" t="s">
         <v>1001</v>
@@ -11518,7 +11524,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B507" t="s">
         <v>1003</v>
@@ -11532,7 +11538,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B508" t="s">
         <v>1005</v>
@@ -11546,7 +11552,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B509" t="s">
         <v>1007</v>
@@ -11560,7 +11566,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B510" t="s">
         <v>1009</v>
@@ -11574,7 +11580,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B511" t="s">
         <v>1011</v>
@@ -11588,7 +11594,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512">
-        <v>5210</v>
+        <v>5209</v>
       </c>
       <c r="B512" t="s">
         <v>1013</v>
@@ -11602,7 +11608,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513">
-        <v>5221</v>
+        <v>5210</v>
       </c>
       <c r="B513" t="s">
         <v>1015</v>
@@ -11616,7 +11622,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="B514" t="s">
         <v>1017</v>
@@ -11630,7 +11636,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515">
-        <v>6001</v>
+        <v>5222</v>
       </c>
       <c r="B515" t="s">
         <v>1019</v>
@@ -11644,7 +11650,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B516" t="s">
         <v>1021</v>
@@ -11658,7 +11664,7 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B517" t="s">
         <v>1023</v>
@@ -11672,7 +11678,7 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B518" t="s">
         <v>1025</v>
@@ -11686,7 +11692,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B519" t="s">
         <v>1027</v>
@@ -11700,7 +11706,7 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="B520" t="s">
         <v>1029</v>
@@ -11714,7 +11720,7 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="B521" t="s">
         <v>1031</v>
@@ -11728,7 +11734,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B522" t="s">
         <v>1033</v>
@@ -11742,7 +11748,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523">
-        <v>6009</v>
+        <v>6008</v>
       </c>
       <c r="B523" t="s">
         <v>1035</v>
@@ -11756,7 +11762,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="B524" t="s">
         <v>1037</v>
@@ -11770,7 +11776,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="B525" t="s">
         <v>1039</v>
@@ -11784,7 +11790,7 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="B526" t="s">
         <v>1041</v>
@@ -11798,7 +11804,7 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527">
-        <v>6013</v>
+        <v>6012</v>
       </c>
       <c r="B527" t="s">
         <v>1043</v>
@@ -11812,7 +11818,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="B528" t="s">
         <v>1045</v>
@@ -11826,7 +11832,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529">
-        <v>6021</v>
+        <v>6014</v>
       </c>
       <c r="B529" t="s">
         <v>1047</v>
@@ -11840,7 +11846,7 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530">
-        <v>6099</v>
+        <v>6021</v>
       </c>
       <c r="B530" t="s">
         <v>1049</v>
@@ -11854,7 +11860,7 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531">
-        <v>6101</v>
+        <v>6099</v>
       </c>
       <c r="B531" t="s">
         <v>1051</v>
@@ -11868,7 +11874,7 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532">
-        <v>7001</v>
+        <v>6101</v>
       </c>
       <c r="B532" t="s">
         <v>1053</v>
@@ -11882,7 +11888,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B533" t="s">
         <v>1055</v>
@@ -11896,7 +11902,7 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B534" t="s">
         <v>1057</v>
@@ -11910,7 +11916,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B535" t="s">
         <v>1059</v>
@@ -11924,7 +11930,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="B536" t="s">
         <v>1061</v>
@@ -11938,7 +11944,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537">
-        <v>7011</v>
+        <v>7005</v>
       </c>
       <c r="B537" t="s">
         <v>1063</v>
@@ -11952,7 +11958,7 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538">
-        <v>7012</v>
+        <v>7011</v>
       </c>
       <c r="B538" t="s">
         <v>1065</v>
@@ -11966,27 +11972,27 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539">
-        <v>7021</v>
+        <v>7012</v>
       </c>
       <c r="B539" t="s">
-        <v>94</v>
+        <v>1067</v>
       </c>
       <c r="C539" t="s">
-        <v>94</v>
+        <v>1067</v>
       </c>
       <c r="D539" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="A540">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B540" t="s">
-        <v>1068</v>
+        <v>94</v>
       </c>
       <c r="C540" t="s">
-        <v>1068</v>
+        <v>94</v>
       </c>
       <c r="D540" t="s">
         <v>1069</v>
@@ -11994,7 +12000,7 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541">
-        <v>7031</v>
+        <v>7022</v>
       </c>
       <c r="B541" t="s">
         <v>1070</v>
@@ -12008,7 +12014,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="B542" t="s">
         <v>1072</v>
@@ -12022,7 +12028,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543">
-        <v>8001</v>
+        <v>7032</v>
       </c>
       <c r="B543" t="s">
         <v>1074</v>
@@ -12036,7 +12042,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544">
-        <v>8011</v>
+        <v>8001</v>
       </c>
       <c r="B544" t="s">
         <v>1076</v>
@@ -12050,7 +12056,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545">
-        <v>11002</v>
+        <v>8011</v>
       </c>
       <c r="B545" t="s">
         <v>1078</v>
@@ -12064,7 +12070,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B546" t="s">
         <v>1080</v>
@@ -12078,7 +12084,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547">
-        <v>11206</v>
+        <v>11003</v>
       </c>
       <c r="B547" t="s">
         <v>1082</v>
@@ -12092,7 +12098,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548">
-        <v>12001</v>
+        <v>11206</v>
       </c>
       <c r="B548" t="s">
         <v>1084</v>
@@ -12106,7 +12112,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="B549" t="s">
         <v>1086</v>
@@ -12120,7 +12126,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="B550" t="s">
         <v>1088</v>
@@ -12134,7 +12140,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551">
-        <v>13001</v>
+        <v>12003</v>
       </c>
       <c r="B551" t="s">
         <v>1090</v>
@@ -12148,7 +12154,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552">
-        <v>13002</v>
+        <v>13001</v>
       </c>
       <c r="B552" t="s">
         <v>1092</v>
@@ -12162,7 +12168,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553">
-        <v>13301</v>
+        <v>13002</v>
       </c>
       <c r="B553" t="s">
         <v>1094</v>
@@ -12176,7 +12182,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554">
-        <v>13302</v>
+        <v>13301</v>
       </c>
       <c r="B554" t="s">
         <v>1096</v>
@@ -12190,7 +12196,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555">
-        <v>13303</v>
+        <v>13302</v>
       </c>
       <c r="B555" t="s">
         <v>1098</v>
@@ -12204,7 +12210,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556">
-        <v>13304</v>
+        <v>13303</v>
       </c>
       <c r="B556" t="s">
         <v>1100</v>
@@ -12218,7 +12224,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557">
-        <v>13305</v>
+        <v>13304</v>
       </c>
       <c r="B557" t="s">
         <v>1102</v>
@@ -12232,7 +12238,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558">
-        <v>13401</v>
+        <v>13305</v>
       </c>
       <c r="B558" t="s">
         <v>1104</v>
@@ -12246,7 +12252,7 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559">
-        <v>13402</v>
+        <v>13401</v>
       </c>
       <c r="B559" t="s">
         <v>1106</v>
@@ -12260,27 +12266,27 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560">
-        <v>13403</v>
+        <v>13402</v>
       </c>
       <c r="B560" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C560" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D560" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561">
-        <v>13404</v>
+        <v>13403</v>
       </c>
       <c r="B561" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C561" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D561" t="s">
         <v>1110</v>
@@ -12288,7 +12294,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562">
-        <v>13405</v>
+        <v>13404</v>
       </c>
       <c r="B562" t="s">
         <v>1111</v>
@@ -12302,7 +12308,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563">
-        <v>14001</v>
+        <v>13405</v>
       </c>
       <c r="B563" t="s">
         <v>1113</v>
@@ -12316,7 +12322,7 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564">
-        <v>99001</v>
+        <v>14001</v>
       </c>
       <c r="B564" t="s">
         <v>1115</v>
@@ -12330,7 +12336,7 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565">
-        <v>99002</v>
+        <v>99001</v>
       </c>
       <c r="B565" t="s">
         <v>1117</v>
@@ -12344,7 +12350,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566">
-        <v>99011</v>
+        <v>99002</v>
       </c>
       <c r="B566" t="s">
         <v>1119</v>
@@ -12358,7 +12364,7 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567">
-        <v>99012</v>
+        <v>99011</v>
       </c>
       <c r="B567" t="s">
         <v>1121</v>
@@ -12372,7 +12378,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568">
-        <v>99013</v>
+        <v>99012</v>
       </c>
       <c r="B568" t="s">
         <v>1123</v>
@@ -12386,7 +12392,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569">
-        <v>99014</v>
+        <v>99013</v>
       </c>
       <c r="B569" t="s">
         <v>1125</v>
@@ -12400,7 +12406,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570">
-        <v>99101</v>
+        <v>99014</v>
       </c>
       <c r="B570" t="s">
         <v>1127</v>
@@ -12414,7 +12420,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571">
-        <v>99102</v>
+        <v>99101</v>
       </c>
       <c r="B571" t="s">
         <v>1129</v>
@@ -12428,27 +12434,27 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572">
-        <v>99103</v>
+        <v>99102</v>
       </c>
       <c r="B572" t="s">
-        <v>245</v>
+        <v>1131</v>
       </c>
       <c r="C572" t="s">
-        <v>245</v>
+        <v>1131</v>
       </c>
       <c r="D572" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573">
-        <v>99104</v>
+        <v>99103</v>
       </c>
       <c r="B573" t="s">
-        <v>1132</v>
+        <v>245</v>
       </c>
       <c r="C573" t="s">
-        <v>1132</v>
+        <v>245</v>
       </c>
       <c r="D573" t="s">
         <v>1133</v>
@@ -12456,7 +12462,7 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574">
-        <v>99105</v>
+        <v>99104</v>
       </c>
       <c r="B574" t="s">
         <v>1134</v>
@@ -12470,7 +12476,7 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575">
-        <v>99201</v>
+        <v>99105</v>
       </c>
       <c r="B575" t="s">
         <v>1136</v>
@@ -12484,7 +12490,7 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576">
-        <v>99202</v>
+        <v>99201</v>
       </c>
       <c r="B576" t="s">
         <v>1138</v>
@@ -12498,7 +12504,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577">
-        <v>99203</v>
+        <v>99202</v>
       </c>
       <c r="B577" t="s">
         <v>1140</v>
@@ -12512,7 +12518,7 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578">
-        <v>99204</v>
+        <v>99203</v>
       </c>
       <c r="B578" t="s">
         <v>1142</v>
@@ -12526,7 +12532,7 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579">
-        <v>99205</v>
+        <v>99204</v>
       </c>
       <c r="B579" t="s">
         <v>1144</v>
@@ -12536,6 +12542,20 @@
       </c>
       <c r="D579" t="s">
         <v>1145</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580">
+        <v>99205</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1147</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excel/excel_ui_text.xlsx
+++ b/Assets/Data/Excel/excel_ui_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="1152">
   <si>
     <t>id</t>
   </si>
@@ -1985,6 +1985,18 @@
   </si>
   <si>
     <t>Toast_Recruit_Success</t>
+  </si>
+  <si>
+    <t>{0}使用{1}成功，似乎发生了什么。</t>
+  </si>
+  <si>
+    <t>Toast_UseItemSuccess</t>
+  </si>
+  <si>
+    <t>{0}已使用过{1}。</t>
+  </si>
+  <si>
+    <t>Toast_UseItemFail</t>
   </si>
   <si>
     <t>晋升失败！没有满足所有的前置条件！</t>
@@ -4425,10 +4437,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D580"/>
+  <dimension ref="A1:D582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="E374" sqref="E374"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="F330" sqref="F330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9046,7 +9058,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="B330" t="s">
         <v>657</v>
@@ -9060,41 +9072,41 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="B331" t="s">
-        <v>94</v>
+        <v>659</v>
       </c>
       <c r="C331" t="s">
-        <v>94</v>
+        <v>659</v>
       </c>
       <c r="D331" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B332" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C332" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D332" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B333" t="s">
-        <v>662</v>
+        <v>94</v>
       </c>
       <c r="C333" t="s">
-        <v>662</v>
+        <v>94</v>
       </c>
       <c r="D333" t="s">
         <v>663</v>
@@ -9102,7 +9114,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B334" t="s">
         <v>664</v>
@@ -9116,7 +9128,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B335" t="s">
         <v>666</v>
@@ -9130,7 +9142,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B336" t="s">
         <v>668</v>
@@ -9144,7 +9156,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B337" t="s">
         <v>670</v>
@@ -9158,7 +9170,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="B338" t="s">
         <v>672</v>
@@ -9172,7 +9184,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B339" t="s">
         <v>674</v>
@@ -9186,7 +9198,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="B340" t="s">
         <v>676</v>
@@ -9200,7 +9212,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="B341" t="s">
         <v>678</v>
@@ -9214,7 +9226,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B342" t="s">
         <v>680</v>
@@ -9228,7 +9240,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="B343" t="s">
         <v>682</v>
@@ -9242,7 +9254,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="B344" t="s">
         <v>684</v>
@@ -9256,7 +9268,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="B345" t="s">
         <v>686</v>
@@ -9270,7 +9282,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="B346" t="s">
         <v>688</v>
@@ -9284,7 +9296,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B347" t="s">
         <v>690</v>
@@ -9298,7 +9310,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B348" t="s">
         <v>692</v>
@@ -9312,7 +9324,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B349" t="s">
         <v>694</v>
@@ -9326,7 +9338,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B350" t="s">
         <v>696</v>
@@ -9340,7 +9352,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B351" t="s">
         <v>698</v>
@@ -9354,7 +9366,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B352" t="s">
         <v>700</v>
@@ -9368,7 +9380,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B353" t="s">
         <v>702</v>
@@ -9382,7 +9394,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B354" t="s">
         <v>704</v>
@@ -9396,7 +9408,7 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B355" t="s">
         <v>706</v>
@@ -9410,7 +9422,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="B356" t="s">
         <v>708</v>
@@ -9424,7 +9436,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B357" t="s">
         <v>710</v>
@@ -9438,7 +9450,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B358" t="s">
         <v>712</v>
@@ -9452,7 +9464,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B359" t="s">
         <v>714</v>
@@ -9466,7 +9478,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="B360" t="s">
         <v>716</v>
@@ -9480,7 +9492,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="B361" t="s">
         <v>718</v>
@@ -9494,7 +9506,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="B362" t="s">
         <v>720</v>
@@ -9508,7 +9520,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="B363" t="s">
         <v>722</v>
@@ -9522,7 +9534,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <v>1201</v>
+        <v>1141</v>
       </c>
       <c r="B364" t="s">
         <v>724</v>
@@ -9536,7 +9548,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>1301</v>
+        <v>1142</v>
       </c>
       <c r="B365" t="s">
         <v>726</v>
@@ -9550,7 +9562,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>1302</v>
+        <v>1201</v>
       </c>
       <c r="B366" t="s">
         <v>728</v>
@@ -9564,7 +9576,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="B367" t="s">
         <v>730</v>
@@ -9578,7 +9590,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="B368" t="s">
         <v>732</v>
@@ -9592,7 +9604,7 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B369" t="s">
         <v>734</v>
@@ -9606,7 +9618,7 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B370" t="s">
         <v>736</v>
@@ -9620,7 +9632,7 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="B371" t="s">
         <v>738</v>
@@ -9634,7 +9646,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>1331</v>
+        <v>1314</v>
       </c>
       <c r="B372" t="s">
         <v>740</v>
@@ -9648,7 +9660,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="B373" t="s">
         <v>742</v>
@@ -9662,7 +9674,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B374" t="s">
         <v>744</v>
@@ -9676,7 +9688,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="B375" t="s">
         <v>746</v>
@@ -9690,7 +9702,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>1351</v>
+        <v>1333</v>
       </c>
       <c r="B376" t="s">
         <v>748</v>
@@ -9704,7 +9716,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>1361</v>
+        <v>1341</v>
       </c>
       <c r="B377" t="s">
         <v>750</v>
@@ -9718,7 +9730,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="B378" t="s">
         <v>752</v>
@@ -9732,7 +9744,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>1998</v>
+        <v>1361</v>
       </c>
       <c r="B379" t="s">
         <v>754</v>
@@ -9746,7 +9758,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>1999</v>
+        <v>1362</v>
       </c>
       <c r="B380" t="s">
         <v>756</v>
@@ -9760,55 +9772,55 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="B381" t="s">
-        <v>151</v>
+        <v>758</v>
       </c>
       <c r="C381" t="s">
-        <v>151</v>
+        <v>758</v>
       </c>
       <c r="D381" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="B382" t="s">
-        <v>153</v>
+        <v>760</v>
       </c>
       <c r="C382" t="s">
-        <v>153</v>
+        <v>760</v>
       </c>
       <c r="D382" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B383" t="s">
-        <v>760</v>
+        <v>151</v>
       </c>
       <c r="C383" t="s">
-        <v>760</v>
+        <v>151</v>
       </c>
       <c r="D383" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B384" t="s">
-        <v>762</v>
+        <v>153</v>
       </c>
       <c r="C384" t="s">
-        <v>762</v>
+        <v>153</v>
       </c>
       <c r="D384" t="s">
         <v>763</v>
@@ -9816,7 +9828,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B385" t="s">
         <v>764</v>
@@ -9830,7 +9842,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B386" t="s">
         <v>766</v>
@@ -9844,7 +9856,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B387" t="s">
         <v>768</v>
@@ -9858,7 +9870,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B388" t="s">
         <v>770</v>
@@ -9872,7 +9884,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B389" t="s">
         <v>772</v>
@@ -9886,7 +9898,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B390" t="s">
         <v>774</v>
@@ -9900,7 +9912,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B391" t="s">
         <v>776</v>
@@ -9914,7 +9926,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B392" t="s">
         <v>778</v>
@@ -9928,7 +9940,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B393" t="s">
         <v>780</v>
@@ -9942,7 +9954,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B394" t="s">
         <v>782</v>
@@ -9956,7 +9968,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="B395" t="s">
         <v>784</v>
@@ -9970,7 +9982,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="B396" t="s">
         <v>786</v>
@@ -9984,7 +9996,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="B397" t="s">
         <v>788</v>
@@ -9998,7 +10010,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>2032</v>
+        <v>2021</v>
       </c>
       <c r="B398" t="s">
         <v>790</v>
@@ -10012,7 +10024,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="B399" t="s">
         <v>792</v>
@@ -10026,7 +10038,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B400" t="s">
         <v>794</v>
@@ -10040,7 +10052,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="B401" t="s">
         <v>796</v>
@@ -10054,7 +10066,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B402" t="s">
         <v>798</v>
@@ -10068,7 +10080,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="B403" t="s">
         <v>800</v>
@@ -10082,7 +10094,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B404" t="s">
         <v>802</v>
@@ -10096,7 +10108,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="B405" t="s">
         <v>804</v>
@@ -10110,7 +10122,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B406" t="s">
         <v>806</v>
@@ -10124,7 +10136,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B407" t="s">
         <v>808</v>
@@ -10138,7 +10150,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B408" t="s">
         <v>810</v>
@@ -10152,41 +10164,41 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B409" t="s">
-        <v>361</v>
+        <v>812</v>
       </c>
       <c r="C409" t="s">
-        <v>361</v>
+        <v>812</v>
       </c>
       <c r="D409" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>3001</v>
+        <v>2042</v>
       </c>
       <c r="B410" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C410" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D410" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>3002</v>
+        <v>2043</v>
       </c>
       <c r="B411" t="s">
-        <v>815</v>
+        <v>361</v>
       </c>
       <c r="C411" t="s">
-        <v>815</v>
+        <v>361</v>
       </c>
       <c r="D411" t="s">
         <v>816</v>
@@ -10194,7 +10206,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B412" t="s">
         <v>817</v>
@@ -10208,7 +10220,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B413" t="s">
         <v>819</v>
@@ -10222,7 +10234,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B414" t="s">
         <v>821</v>
@@ -10236,7 +10248,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B415" t="s">
         <v>823</v>
@@ -10250,7 +10262,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B416" t="s">
         <v>825</v>
@@ -10264,7 +10276,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="B417" t="s">
         <v>827</v>
@@ -10278,7 +10290,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="B418" t="s">
         <v>829</v>
@@ -10292,7 +10304,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="B419" t="s">
         <v>831</v>
@@ -10306,7 +10318,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B420" t="s">
         <v>833</v>
@@ -10320,7 +10332,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B421" t="s">
         <v>835</v>
@@ -10334,7 +10346,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="B422" t="s">
         <v>837</v>
@@ -10348,7 +10360,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="B423" t="s">
         <v>839</v>
@@ -10362,7 +10374,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="B424" t="s">
         <v>841</v>
@@ -10376,7 +10388,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="B425" t="s">
         <v>843</v>
@@ -10390,7 +10402,7 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>3021</v>
+        <v>3015</v>
       </c>
       <c r="B426" t="s">
         <v>845</v>
@@ -10404,7 +10416,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>3022</v>
+        <v>3016</v>
       </c>
       <c r="B427" t="s">
         <v>847</v>
@@ -10418,7 +10430,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>3041</v>
+        <v>3021</v>
       </c>
       <c r="B428" t="s">
         <v>849</v>
@@ -10432,7 +10444,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>3051</v>
+        <v>3022</v>
       </c>
       <c r="B429" t="s">
         <v>851</v>
@@ -10446,7 +10458,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>3061</v>
+        <v>3041</v>
       </c>
       <c r="B430" t="s">
         <v>853</v>
@@ -10460,7 +10472,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>3062</v>
+        <v>3051</v>
       </c>
       <c r="B431" t="s">
         <v>855</v>
@@ -10474,7 +10486,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="B432" t="s">
         <v>857</v>
@@ -10488,7 +10500,7 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>3071</v>
+        <v>3062</v>
       </c>
       <c r="B433" t="s">
         <v>859</v>
@@ -10502,7 +10514,7 @@
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>3072</v>
+        <v>3063</v>
       </c>
       <c r="B434" t="s">
         <v>861</v>
@@ -10516,7 +10528,7 @@
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>3081</v>
+        <v>3071</v>
       </c>
       <c r="B435" t="s">
         <v>863</v>
@@ -10530,7 +10542,7 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>3082</v>
+        <v>3072</v>
       </c>
       <c r="B436" t="s">
         <v>865</v>
@@ -10544,7 +10556,7 @@
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="B437" t="s">
         <v>867</v>
@@ -10558,7 +10570,7 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>3091</v>
+        <v>3082</v>
       </c>
       <c r="B438" t="s">
         <v>869</v>
@@ -10572,7 +10584,7 @@
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>3101</v>
+        <v>3083</v>
       </c>
       <c r="B439" t="s">
         <v>871</v>
@@ -10586,7 +10598,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>3102</v>
+        <v>3091</v>
       </c>
       <c r="B440" t="s">
         <v>873</v>
@@ -10600,7 +10612,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="B441" t="s">
         <v>875</v>
@@ -10614,7 +10626,7 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="B442" t="s">
         <v>877</v>
@@ -10628,7 +10640,7 @@
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>3111</v>
+        <v>3103</v>
       </c>
       <c r="B443" t="s">
         <v>879</v>
@@ -10642,7 +10654,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>3112</v>
+        <v>3104</v>
       </c>
       <c r="B444" t="s">
         <v>881</v>
@@ -10656,7 +10668,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>3121</v>
+        <v>3111</v>
       </c>
       <c r="B445" t="s">
         <v>883</v>
@@ -10670,7 +10682,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>4001</v>
+        <v>3112</v>
       </c>
       <c r="B446" t="s">
         <v>885</v>
@@ -10684,7 +10696,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>4002</v>
+        <v>3121</v>
       </c>
       <c r="B447" t="s">
         <v>887</v>
@@ -10698,7 +10710,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="B448" t="s">
         <v>889</v>
@@ -10712,7 +10724,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>4011</v>
+        <v>4002</v>
       </c>
       <c r="B449" t="s">
         <v>891</v>
@@ -10726,7 +10738,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>4012</v>
+        <v>4003</v>
       </c>
       <c r="B450" t="s">
         <v>893</v>
@@ -10740,7 +10752,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="B451" t="s">
         <v>895</v>
@@ -10754,7 +10766,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="B452" t="s">
         <v>897</v>
@@ -10768,7 +10780,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="B453" t="s">
         <v>899</v>
@@ -10782,7 +10794,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>5001</v>
+        <v>4014</v>
       </c>
       <c r="B454" t="s">
         <v>901</v>
@@ -10796,7 +10808,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>5002</v>
+        <v>4015</v>
       </c>
       <c r="B455" t="s">
         <v>903</v>
@@ -10810,7 +10822,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B456" t="s">
         <v>905</v>
@@ -10824,7 +10836,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B457" t="s">
         <v>907</v>
@@ -10838,7 +10850,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B458" t="s">
         <v>909</v>
@@ -10852,7 +10864,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B459" t="s">
         <v>911</v>
@@ -10866,7 +10878,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B460" t="s">
         <v>913</v>
@@ -10880,7 +10892,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B461" t="s">
         <v>915</v>
@@ -10894,7 +10906,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B462" t="s">
         <v>917</v>
@@ -10908,7 +10920,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B463" t="s">
         <v>919</v>
@@ -10922,7 +10934,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B464" t="s">
         <v>921</v>
@@ -10936,7 +10948,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="B465" t="s">
         <v>923</v>
@@ -10950,7 +10962,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>5013</v>
+        <v>5011</v>
       </c>
       <c r="B466" t="s">
         <v>925</v>
@@ -10964,7 +10976,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="B467" t="s">
         <v>927</v>
@@ -10978,7 +10990,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>5015</v>
+        <v>5013</v>
       </c>
       <c r="B468" t="s">
         <v>929</v>
@@ -10992,7 +11004,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>5016</v>
+        <v>5014</v>
       </c>
       <c r="B469" t="s">
         <v>931</v>
@@ -11006,7 +11018,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>5021</v>
+        <v>5015</v>
       </c>
       <c r="B470" t="s">
         <v>933</v>
@@ -11020,7 +11032,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>5022</v>
+        <v>5016</v>
       </c>
       <c r="B471" t="s">
         <v>935</v>
@@ -11034,7 +11046,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>5023</v>
+        <v>5021</v>
       </c>
       <c r="B472" t="s">
         <v>937</v>
@@ -11048,7 +11060,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>5031</v>
+        <v>5022</v>
       </c>
       <c r="B473" t="s">
         <v>939</v>
@@ -11062,7 +11074,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>5041</v>
+        <v>5023</v>
       </c>
       <c r="B474" t="s">
         <v>941</v>
@@ -11076,7 +11088,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>5042</v>
+        <v>5031</v>
       </c>
       <c r="B475" t="s">
         <v>943</v>
@@ -11090,7 +11102,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>5043</v>
+        <v>5041</v>
       </c>
       <c r="B476" t="s">
         <v>945</v>
@@ -11104,7 +11116,7 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>5044</v>
+        <v>5042</v>
       </c>
       <c r="B477" t="s">
         <v>947</v>
@@ -11118,7 +11130,7 @@
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>5051</v>
+        <v>5043</v>
       </c>
       <c r="B478" t="s">
         <v>949</v>
@@ -11132,7 +11144,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>5052</v>
+        <v>5044</v>
       </c>
       <c r="B479" t="s">
         <v>951</v>
@@ -11146,69 +11158,69 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>5053</v>
+        <v>5051</v>
       </c>
       <c r="B480" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C480" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D480" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>5054</v>
+        <v>5052</v>
       </c>
       <c r="B481" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C481" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="D481" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="B482" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C482" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="D482" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="B483" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C483" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D483" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>5057</v>
+        <v>5055</v>
       </c>
       <c r="B484" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C484" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D484" t="s">
         <v>959</v>
@@ -11216,7 +11228,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>5061</v>
+        <v>5056</v>
       </c>
       <c r="B485" t="s">
         <v>960</v>
@@ -11230,7 +11242,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>5062</v>
+        <v>5057</v>
       </c>
       <c r="B486" t="s">
         <v>962</v>
@@ -11244,7 +11256,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>5063</v>
+        <v>5061</v>
       </c>
       <c r="B487" t="s">
         <v>964</v>
@@ -11258,7 +11270,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>5064</v>
+        <v>5062</v>
       </c>
       <c r="B488" t="s">
         <v>966</v>
@@ -11272,7 +11284,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>5065</v>
+        <v>5063</v>
       </c>
       <c r="B489" t="s">
         <v>968</v>
@@ -11286,7 +11298,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>5066</v>
+        <v>5064</v>
       </c>
       <c r="B490" t="s">
         <v>970</v>
@@ -11300,7 +11312,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>5067</v>
+        <v>5065</v>
       </c>
       <c r="B491" t="s">
         <v>972</v>
@@ -11314,7 +11326,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>5068</v>
+        <v>5066</v>
       </c>
       <c r="B492" t="s">
         <v>974</v>
@@ -11328,7 +11340,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>5071</v>
+        <v>5067</v>
       </c>
       <c r="B493" t="s">
         <v>976</v>
@@ -11342,7 +11354,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>5072</v>
+        <v>5068</v>
       </c>
       <c r="B494" t="s">
         <v>978</v>
@@ -11356,7 +11368,7 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="B495" t="s">
         <v>980</v>
@@ -11370,7 +11382,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>5074</v>
+        <v>5072</v>
       </c>
       <c r="B496" t="s">
         <v>982</v>
@@ -11384,7 +11396,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>5081</v>
+        <v>5073</v>
       </c>
       <c r="B497" t="s">
         <v>984</v>
@@ -11398,7 +11410,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>5091</v>
+        <v>5074</v>
       </c>
       <c r="B498" t="s">
         <v>986</v>
@@ -11412,7 +11424,7 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>5092</v>
+        <v>5081</v>
       </c>
       <c r="B499" t="s">
         <v>988</v>
@@ -11426,41 +11438,41 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>5101</v>
+        <v>5091</v>
       </c>
       <c r="B500" t="s">
-        <v>760</v>
+        <v>990</v>
       </c>
       <c r="C500" t="s">
-        <v>760</v>
+        <v>990</v>
       </c>
       <c r="D500" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>5102</v>
+        <v>5092</v>
       </c>
       <c r="B501" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C501" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D501" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>5111</v>
+        <v>5101</v>
       </c>
       <c r="B502" t="s">
-        <v>993</v>
+        <v>764</v>
       </c>
       <c r="C502" t="s">
-        <v>993</v>
+        <v>764</v>
       </c>
       <c r="D502" t="s">
         <v>994</v>
@@ -11468,7 +11480,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>5112</v>
+        <v>5102</v>
       </c>
       <c r="B503" t="s">
         <v>995</v>
@@ -11482,7 +11494,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>5201</v>
+        <v>5111</v>
       </c>
       <c r="B504" t="s">
         <v>997</v>
@@ -11496,7 +11508,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>5202</v>
+        <v>5112</v>
       </c>
       <c r="B505" t="s">
         <v>999</v>
@@ -11510,7 +11522,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506">
-        <v>5203</v>
+        <v>5201</v>
       </c>
       <c r="B506" t="s">
         <v>1001</v>
@@ -11524,7 +11536,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="B507" t="s">
         <v>1003</v>
@@ -11538,7 +11550,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="B508" t="s">
         <v>1005</v>
@@ -11552,7 +11564,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="B509" t="s">
         <v>1007</v>
@@ -11566,7 +11578,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="B510" t="s">
         <v>1009</v>
@@ -11580,7 +11592,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="B511" t="s">
         <v>1011</v>
@@ -11594,7 +11606,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="B512" t="s">
         <v>1013</v>
@@ -11608,7 +11620,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513">
-        <v>5210</v>
+        <v>5208</v>
       </c>
       <c r="B513" t="s">
         <v>1015</v>
@@ -11622,7 +11634,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514">
-        <v>5221</v>
+        <v>5209</v>
       </c>
       <c r="B514" t="s">
         <v>1017</v>
@@ -11636,7 +11648,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515">
-        <v>5222</v>
+        <v>5210</v>
       </c>
       <c r="B515" t="s">
         <v>1019</v>
@@ -11650,7 +11662,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516">
-        <v>6001</v>
+        <v>5221</v>
       </c>
       <c r="B516" t="s">
         <v>1021</v>
@@ -11664,7 +11676,7 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517">
-        <v>6002</v>
+        <v>5222</v>
       </c>
       <c r="B517" t="s">
         <v>1023</v>
@@ -11678,7 +11690,7 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="B518" t="s">
         <v>1025</v>
@@ -11692,7 +11704,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="B519" t="s">
         <v>1027</v>
@@ -11706,7 +11718,7 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="B520" t="s">
         <v>1029</v>
@@ -11720,7 +11732,7 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="B521" t="s">
         <v>1031</v>
@@ -11734,7 +11746,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522">
-        <v>6007</v>
+        <v>6005</v>
       </c>
       <c r="B522" t="s">
         <v>1033</v>
@@ -11748,7 +11760,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523">
-        <v>6008</v>
+        <v>6006</v>
       </c>
       <c r="B523" t="s">
         <v>1035</v>
@@ -11762,7 +11774,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524">
-        <v>6009</v>
+        <v>6007</v>
       </c>
       <c r="B524" t="s">
         <v>1037</v>
@@ -11776,7 +11788,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525">
-        <v>6010</v>
+        <v>6008</v>
       </c>
       <c r="B525" t="s">
         <v>1039</v>
@@ -11790,7 +11802,7 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526">
-        <v>6011</v>
+        <v>6009</v>
       </c>
       <c r="B526" t="s">
         <v>1041</v>
@@ -11804,7 +11816,7 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527">
-        <v>6012</v>
+        <v>6010</v>
       </c>
       <c r="B527" t="s">
         <v>1043</v>
@@ -11818,7 +11830,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528">
-        <v>6013</v>
+        <v>6011</v>
       </c>
       <c r="B528" t="s">
         <v>1045</v>
@@ -11832,7 +11844,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529">
-        <v>6014</v>
+        <v>6012</v>
       </c>
       <c r="B529" t="s">
         <v>1047</v>
@@ -11846,7 +11858,7 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530">
-        <v>6021</v>
+        <v>6013</v>
       </c>
       <c r="B530" t="s">
         <v>1049</v>
@@ -11860,7 +11872,7 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531">
-        <v>6099</v>
+        <v>6014</v>
       </c>
       <c r="B531" t="s">
         <v>1051</v>
@@ -11874,7 +11886,7 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532">
-        <v>6101</v>
+        <v>6021</v>
       </c>
       <c r="B532" t="s">
         <v>1053</v>
@@ -11888,7 +11900,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533">
-        <v>7001</v>
+        <v>6099</v>
       </c>
       <c r="B533" t="s">
         <v>1055</v>
@@ -11902,7 +11914,7 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534">
-        <v>7002</v>
+        <v>6101</v>
       </c>
       <c r="B534" t="s">
         <v>1057</v>
@@ -11916,7 +11928,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="B535" t="s">
         <v>1059</v>
@@ -11930,7 +11942,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="B536" t="s">
         <v>1061</v>
@@ -11944,7 +11956,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="B537" t="s">
         <v>1063</v>
@@ -11958,7 +11970,7 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538">
-        <v>7011</v>
+        <v>7004</v>
       </c>
       <c r="B538" t="s">
         <v>1065</v>
@@ -11972,7 +11984,7 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539">
-        <v>7012</v>
+        <v>7005</v>
       </c>
       <c r="B539" t="s">
         <v>1067</v>
@@ -11986,41 +11998,41 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540">
-        <v>7021</v>
+        <v>7011</v>
       </c>
       <c r="B540" t="s">
-        <v>94</v>
+        <v>1069</v>
       </c>
       <c r="C540" t="s">
-        <v>94</v>
+        <v>1069</v>
       </c>
       <c r="D540" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541">
-        <v>7022</v>
+        <v>7012</v>
       </c>
       <c r="B541" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C541" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D541" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="542" spans="1:4">
       <c r="A542">
-        <v>7031</v>
+        <v>7021</v>
       </c>
       <c r="B542" t="s">
-        <v>1072</v>
+        <v>94</v>
       </c>
       <c r="C542" t="s">
-        <v>1072</v>
+        <v>94</v>
       </c>
       <c r="D542" t="s">
         <v>1073</v>
@@ -12028,7 +12040,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543">
-        <v>7032</v>
+        <v>7022</v>
       </c>
       <c r="B543" t="s">
         <v>1074</v>
@@ -12042,7 +12054,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544">
-        <v>8001</v>
+        <v>7031</v>
       </c>
       <c r="B544" t="s">
         <v>1076</v>
@@ -12056,7 +12068,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545">
-        <v>8011</v>
+        <v>7032</v>
       </c>
       <c r="B545" t="s">
         <v>1078</v>
@@ -12070,7 +12082,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546">
-        <v>11002</v>
+        <v>8001</v>
       </c>
       <c r="B546" t="s">
         <v>1080</v>
@@ -12084,7 +12096,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547">
-        <v>11003</v>
+        <v>8011</v>
       </c>
       <c r="B547" t="s">
         <v>1082</v>
@@ -12098,7 +12110,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548">
-        <v>11206</v>
+        <v>11002</v>
       </c>
       <c r="B548" t="s">
         <v>1084</v>
@@ -12112,7 +12124,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549">
-        <v>12001</v>
+        <v>11003</v>
       </c>
       <c r="B549" t="s">
         <v>1086</v>
@@ -12126,7 +12138,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550">
-        <v>12002</v>
+        <v>11206</v>
       </c>
       <c r="B550" t="s">
         <v>1088</v>
@@ -12140,7 +12152,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551">
-        <v>12003</v>
+        <v>12001</v>
       </c>
       <c r="B551" t="s">
         <v>1090</v>
@@ -12154,7 +12166,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552">
-        <v>13001</v>
+        <v>12002</v>
       </c>
       <c r="B552" t="s">
         <v>1092</v>
@@ -12168,7 +12180,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553">
-        <v>13002</v>
+        <v>12003</v>
       </c>
       <c r="B553" t="s">
         <v>1094</v>
@@ -12182,7 +12194,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554">
-        <v>13301</v>
+        <v>13001</v>
       </c>
       <c r="B554" t="s">
         <v>1096</v>
@@ -12196,7 +12208,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555">
-        <v>13302</v>
+        <v>13002</v>
       </c>
       <c r="B555" t="s">
         <v>1098</v>
@@ -12210,7 +12222,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556">
-        <v>13303</v>
+        <v>13301</v>
       </c>
       <c r="B556" t="s">
         <v>1100</v>
@@ -12224,7 +12236,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557">
-        <v>13304</v>
+        <v>13302</v>
       </c>
       <c r="B557" t="s">
         <v>1102</v>
@@ -12238,7 +12250,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558">
-        <v>13305</v>
+        <v>13303</v>
       </c>
       <c r="B558" t="s">
         <v>1104</v>
@@ -12252,7 +12264,7 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559">
-        <v>13401</v>
+        <v>13304</v>
       </c>
       <c r="B559" t="s">
         <v>1106</v>
@@ -12266,7 +12278,7 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560">
-        <v>13402</v>
+        <v>13305</v>
       </c>
       <c r="B560" t="s">
         <v>1108</v>
@@ -12280,41 +12292,41 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561">
-        <v>13403</v>
+        <v>13401</v>
       </c>
       <c r="B561" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="C561" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D561" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="562" spans="1:4">
       <c r="A562">
-        <v>13404</v>
+        <v>13402</v>
       </c>
       <c r="B562" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C562" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D562" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="A563">
-        <v>13405</v>
+        <v>13403</v>
       </c>
       <c r="B563" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C563" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D563" t="s">
         <v>1114</v>
@@ -12322,7 +12334,7 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564">
-        <v>14001</v>
+        <v>13404</v>
       </c>
       <c r="B564" t="s">
         <v>1115</v>
@@ -12336,7 +12348,7 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565">
-        <v>99001</v>
+        <v>13405</v>
       </c>
       <c r="B565" t="s">
         <v>1117</v>
@@ -12350,7 +12362,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566">
-        <v>99002</v>
+        <v>14001</v>
       </c>
       <c r="B566" t="s">
         <v>1119</v>
@@ -12364,7 +12376,7 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567">
-        <v>99011</v>
+        <v>99001</v>
       </c>
       <c r="B567" t="s">
         <v>1121</v>
@@ -12378,7 +12390,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568">
-        <v>99012</v>
+        <v>99002</v>
       </c>
       <c r="B568" t="s">
         <v>1123</v>
@@ -12392,7 +12404,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569">
-        <v>99013</v>
+        <v>99011</v>
       </c>
       <c r="B569" t="s">
         <v>1125</v>
@@ -12406,7 +12418,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570">
-        <v>99014</v>
+        <v>99012</v>
       </c>
       <c r="B570" t="s">
         <v>1127</v>
@@ -12420,7 +12432,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571">
-        <v>99101</v>
+        <v>99013</v>
       </c>
       <c r="B571" t="s">
         <v>1129</v>
@@ -12434,7 +12446,7 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572">
-        <v>99102</v>
+        <v>99014</v>
       </c>
       <c r="B572" t="s">
         <v>1131</v>
@@ -12448,41 +12460,41 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573">
-        <v>99103</v>
+        <v>99101</v>
       </c>
       <c r="B573" t="s">
-        <v>245</v>
+        <v>1133</v>
       </c>
       <c r="C573" t="s">
-        <v>245</v>
+        <v>1133</v>
       </c>
       <c r="D573" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="574" spans="1:4">
       <c r="A574">
-        <v>99104</v>
+        <v>99102</v>
       </c>
       <c r="B574" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C574" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D574" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575">
-        <v>99105</v>
+        <v>99103</v>
       </c>
       <c r="B575" t="s">
-        <v>1136</v>
+        <v>245</v>
       </c>
       <c r="C575" t="s">
-        <v>1136</v>
+        <v>245</v>
       </c>
       <c r="D575" t="s">
         <v>1137</v>
@@ -12490,7 +12502,7 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576">
-        <v>99201</v>
+        <v>99104</v>
       </c>
       <c r="B576" t="s">
         <v>1138</v>
@@ -12504,7 +12516,7 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577">
-        <v>99202</v>
+        <v>99105</v>
       </c>
       <c r="B577" t="s">
         <v>1140</v>
@@ -12518,7 +12530,7 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578">
-        <v>99203</v>
+        <v>99201</v>
       </c>
       <c r="B578" t="s">
         <v>1142</v>
@@ -12532,7 +12544,7 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579">
-        <v>99204</v>
+        <v>99202</v>
       </c>
       <c r="B579" t="s">
         <v>1144</v>
@@ -12546,7 +12558,7 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580">
-        <v>99205</v>
+        <v>99203</v>
       </c>
       <c r="B580" t="s">
         <v>1146</v>
@@ -12556,6 +12568,34 @@
       </c>
       <c r="D580" t="s">
         <v>1147</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581">
+        <v>99204</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582">
+        <v>99205</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
